--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="94">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -59,25 +59,25 @@
     <t>Cans in My Hands</t>
   </si>
   <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
+    <t>4-2-1</t>
+  </si>
+  <si>
+    <t>2-4-1</t>
+  </si>
+  <si>
+    <t>3-3-1</t>
+  </si>
+  <si>
+    <t>1-5-1</t>
+  </si>
+  <si>
+    <t>5-1-1</t>
+  </si>
+  <si>
+    <t>6-0-1</t>
+  </si>
+  <si>
+    <t>0-6-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -158,40 +158,37 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-0</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>10.5-3.4-0.1</t>
-  </si>
-  <si>
-    <t>9.9-4.0-0.1</t>
-  </si>
-  <si>
-    <t>9.2-4.7-0.1</t>
-  </si>
-  <si>
-    <t>7.4-6.6-0.1</t>
-  </si>
-  <si>
-    <t>7.3-6.6-0.1</t>
-  </si>
-  <si>
-    <t>6.9-7.1-0.1</t>
-  </si>
-  <si>
-    <t>6.7-7.3-0.1</t>
-  </si>
-  <si>
-    <t>6.6-7.3-0.1</t>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>9.9-4.1-0.1</t>
+  </si>
+  <si>
+    <t>9.3-4.6-0.1</t>
+  </si>
+  <si>
+    <t>9.1-4.8-0.1</t>
+  </si>
+  <si>
+    <t>7.5-6.4-0.1</t>
+  </si>
+  <si>
+    <t>7.5-6.4</t>
+  </si>
+  <si>
+    <t>6.9-7.0-0.1</t>
+  </si>
+  <si>
+    <t>6.4-7.6-0.1</t>
   </si>
   <si>
     <t>5.5-8.4-0.1</t>
@@ -200,19 +197,13 @@
     <t>5.0-8.9-0.1</t>
   </si>
   <si>
-    <t>4.4-9.5-0.1</t>
-  </si>
-  <si>
-    <t>4.2-9.7-0.1</t>
-  </si>
-  <si>
-    <t>11-3</t>
+    <t>5.1-8.9-0.1</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>8-6</t>
+    <t>9-5</t>
   </si>
   <si>
     <t>7-7</t>
@@ -224,9 +215,6 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -272,36 +260,9 @@
     <t>Colman Betler</t>
   </si>
   <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -318,6 +279,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -1714,37 +1678,37 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51.4</v>
+        <v>54</v>
       </c>
       <c r="C2">
-        <v>21.3</v>
+        <v>27.7</v>
       </c>
       <c r="D2">
-        <v>15.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E2">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="G2">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
         <v>0.2</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1758,81 +1722,81 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>24.5</v>
+        <v>22.9</v>
       </c>
       <c r="C3">
-        <v>28.2</v>
+        <v>26.3</v>
       </c>
       <c r="D3">
-        <v>23.8</v>
+        <v>19.7</v>
       </c>
       <c r="E3">
-        <v>10.7</v>
+        <v>13.2</v>
       </c>
       <c r="F3">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G3">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="H3">
         <v>1.9</v>
       </c>
       <c r="I3">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>96.8</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>15.8</v>
       </c>
       <c r="C4">
-        <v>31.9</v>
+        <v>20.9</v>
       </c>
       <c r="D4">
-        <v>23.1</v>
+        <v>24.2</v>
       </c>
       <c r="E4">
-        <v>10.6</v>
+        <v>17.2</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>11.9</v>
       </c>
       <c r="G4">
         <v>4.3</v>
       </c>
       <c r="H4">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="I4">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1841,276 +1805,276 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>95.90000000000001</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="C5">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
       <c r="D5">
-        <v>12.2</v>
+        <v>13.8</v>
       </c>
       <c r="E5">
-        <v>20.5</v>
+        <v>16.2</v>
       </c>
       <c r="F5">
-        <v>17.8</v>
+        <v>18.4</v>
       </c>
       <c r="G5">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="H5">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="J5">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="K5">
         <v>2.7</v>
       </c>
       <c r="L5">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="M5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
-        <v>73.59999999999999</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="C6">
-        <v>5.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D6">
-        <v>6.3</v>
+        <v>14.8</v>
       </c>
       <c r="E6">
-        <v>13.3</v>
+        <v>14.8</v>
       </c>
       <c r="F6">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
       <c r="G6">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="H6">
-        <v>14.1</v>
+        <v>10.9</v>
       </c>
       <c r="I6">
-        <v>13.7</v>
+        <v>7.5</v>
       </c>
       <c r="J6">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="K6">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L6">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="M6">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="N6">
-        <v>57.9</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D7">
-        <v>7.3</v>
+        <v>10.6</v>
       </c>
       <c r="E7">
-        <v>11.9</v>
+        <v>16.4</v>
       </c>
       <c r="F7">
-        <v>14.6</v>
+        <v>13.5</v>
       </c>
       <c r="G7">
-        <v>15.7</v>
+        <v>17.1</v>
       </c>
       <c r="H7">
-        <v>16.3</v>
+        <v>11.7</v>
       </c>
       <c r="I7">
-        <v>13.3</v>
+        <v>10.4</v>
       </c>
       <c r="J7">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="K7">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L7">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M7">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="N7">
-        <v>53.6</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="D8">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="E8">
-        <v>11.7</v>
+        <v>6.8</v>
       </c>
       <c r="F8">
-        <v>15.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G8">
-        <v>12.8</v>
+        <v>11.2</v>
       </c>
       <c r="H8">
-        <v>15.8</v>
+        <v>13.3</v>
       </c>
       <c r="I8">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="J8">
-        <v>10.5</v>
+        <v>13.3</v>
       </c>
       <c r="K8">
-        <v>6.1</v>
+        <v>11.8</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>10.1</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="N8">
-        <v>47.9</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="D9">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="E9">
-        <v>10.4</v>
+        <v>4.9</v>
       </c>
       <c r="F9">
-        <v>11.9</v>
+        <v>9.4</v>
       </c>
       <c r="G9">
-        <v>14.8</v>
+        <v>12.4</v>
       </c>
       <c r="H9">
-        <v>13.9</v>
+        <v>15.6</v>
       </c>
       <c r="I9">
-        <v>14.3</v>
+        <v>15.1</v>
       </c>
       <c r="J9">
-        <v>10.1</v>
+        <v>13.4</v>
       </c>
       <c r="K9">
-        <v>8.5</v>
+        <v>9.6</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="N9">
-        <v>45.2</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0.4</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0.1</v>
-      </c>
       <c r="D10">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="F10">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="G10">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="H10">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>13.9</v>
       </c>
       <c r="J10">
-        <v>22.1</v>
+        <v>14.8</v>
       </c>
       <c r="K10">
-        <v>15.3</v>
+        <v>15.9</v>
       </c>
       <c r="L10">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="M10">
-        <v>7.3</v>
+        <v>10.8</v>
       </c>
       <c r="N10">
-        <v>14</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2119,42 +2083,42 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
         <v>1.2</v>
       </c>
       <c r="F11">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H11">
-        <v>5.8</v>
+        <v>7.7</v>
       </c>
       <c r="I11">
-        <v>9.800000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="J11">
-        <v>13.8</v>
+        <v>15.9</v>
       </c>
       <c r="K11">
-        <v>20.7</v>
+        <v>19.9</v>
       </c>
       <c r="L11">
-        <v>25</v>
+        <v>19.6</v>
       </c>
       <c r="M11">
-        <v>17.1</v>
+        <v>18</v>
       </c>
       <c r="N11">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2163,42 +2127,42 @@
         <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E12">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="G12">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="H12">
-        <v>4.7</v>
+        <v>7.7</v>
       </c>
       <c r="I12">
-        <v>5.4</v>
+        <v>7.9</v>
       </c>
       <c r="J12">
         <v>11.6</v>
       </c>
       <c r="K12">
-        <v>18.7</v>
+        <v>14.6</v>
       </c>
       <c r="L12">
-        <v>20.5</v>
+        <v>19.1</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>31.8</v>
       </c>
       <c r="N12">
-        <v>5.1</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2207,37 +2171,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F13">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="G13">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H13">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="I13">
-        <v>5.6</v>
+        <v>10.4</v>
       </c>
       <c r="J13">
-        <v>10.2</v>
+        <v>14.1</v>
       </c>
       <c r="K13">
-        <v>19.2</v>
+        <v>16.7</v>
       </c>
       <c r="L13">
-        <v>24.3</v>
+        <v>20.4</v>
       </c>
       <c r="M13">
-        <v>34.5</v>
+        <v>25.3</v>
       </c>
       <c r="N13">
-        <v>3.1</v>
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -2281,19 +2245,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>125.148</v>
+        <v>139.8533333333333</v>
       </c>
       <c r="E2">
-        <v>625.74</v>
+        <v>839.12</v>
       </c>
       <c r="F2">
         <v>99.09999999999999</v>
@@ -2302,293 +2266,293 @@
         <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3">
-        <v>118.196</v>
+        <v>117.9566666666667</v>
       </c>
       <c r="E3">
-        <v>590.98</v>
+        <v>707.74</v>
       </c>
       <c r="F3">
-        <v>96.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D4">
-        <v>138.216</v>
+        <v>113.3633333333333</v>
       </c>
       <c r="E4">
-        <v>691.0799999999999</v>
+        <v>680.1799999999999</v>
       </c>
       <c r="F4">
-        <v>95.89999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="G4" t="s">
         <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>125.876</v>
+        <v>119.1533333333333</v>
       </c>
       <c r="E5">
-        <v>629.38</v>
+        <v>714.9200000000001</v>
       </c>
       <c r="F5">
-        <v>73.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="G5" t="s">
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>111.4</v>
+        <v>118.9533333333333</v>
       </c>
       <c r="E6">
-        <v>557</v>
+        <v>713.72</v>
       </c>
       <c r="F6">
-        <v>57.9</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7">
-        <v>119.024</v>
+        <v>126.2433333333334</v>
       </c>
       <c r="E7">
-        <v>595.12</v>
+        <v>757.46</v>
       </c>
       <c r="F7">
-        <v>53.6</v>
+        <v>63.2</v>
       </c>
       <c r="G7" t="s">
         <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>116.736</v>
+        <v>102.3166666666667</v>
       </c>
       <c r="E8">
-        <v>583.6800000000001</v>
+        <v>613.9</v>
       </c>
       <c r="F8">
-        <v>47.9</v>
+        <v>32.5</v>
       </c>
       <c r="G8" t="s">
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>113.924</v>
+        <v>103.41</v>
       </c>
       <c r="E9">
-        <v>569.62</v>
+        <v>620.46</v>
       </c>
       <c r="F9">
-        <v>45.2</v>
+        <v>30.4</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>105.844</v>
+        <v>110.5866666666667</v>
       </c>
       <c r="E10">
-        <v>529.22</v>
+        <v>663.52</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>18.3</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>98.77600000000001</v>
+        <v>105.81</v>
       </c>
       <c r="E11">
-        <v>493.88</v>
+        <v>634.86</v>
       </c>
       <c r="F11">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>99.91200000000001</v>
+        <v>94.54666666666667</v>
       </c>
       <c r="E12">
-        <v>499.56</v>
+        <v>567.28</v>
       </c>
       <c r="F12">
-        <v>5.1</v>
+        <v>7.3</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>99.71199999999999</v>
+        <v>98.38333333333333</v>
       </c>
       <c r="E13">
-        <v>498.56</v>
+        <v>590.3</v>
       </c>
       <c r="F13">
-        <v>3.1</v>
+        <v>6.9</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2609,16 +2573,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2629,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -2638,7 +2602,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2649,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -2658,7 +2622,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2669,7 +2633,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -2678,7 +2642,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2689,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2698,7 +2662,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2709,7 +2673,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -2718,7 +2682,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2729,7 +2693,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2738,7 +2702,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2749,7 +2713,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>-3</v>
@@ -2758,7 +2722,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2769,7 +2733,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>-4</v>
@@ -2778,7 +2742,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2789,7 +2753,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>-5</v>
@@ -2798,7 +2762,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2809,7 +2773,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>-13</v>
@@ -2818,7 +2782,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2829,7 +2793,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>-13</v>
@@ -2838,7 +2802,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2849,7 +2813,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>-31</v>
@@ -2858,7 +2822,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2868,36 +2832,39 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2919,11 +2886,14 @@
       <c r="G2">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2945,11 +2915,14 @@
       <c r="G3">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2971,11 +2944,14 @@
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2997,11 +2973,14 @@
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3023,11 +3002,14 @@
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3049,11 +3031,14 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -3075,11 +3060,14 @@
       <c r="G8">
         <v>-3</v>
       </c>
-      <c r="H8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8">
+        <v>-3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3101,11 +3089,14 @@
       <c r="G9">
         <v>-4</v>
       </c>
-      <c r="H9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9">
+        <v>-4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3127,11 +3118,14 @@
       <c r="G10">
         <v>-5</v>
       </c>
-      <c r="H10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10">
+        <v>-5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3153,11 +3147,14 @@
       <c r="G11">
         <v>-13</v>
       </c>
-      <c r="H11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11">
+        <v>-13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3179,11 +3176,14 @@
       <c r="G12">
         <v>-13</v>
       </c>
-      <c r="H12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12">
+        <v>-13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3205,8 +3205,11 @@
       <c r="G13">
         <v>-31</v>
       </c>
-      <c r="H13" t="s">
-        <v>92</v>
+      <c r="H13">
+        <v>-31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3224,25 +3227,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="103">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -59,25 +59,25 @@
     <t>Cans in My Hands</t>
   </si>
   <si>
-    <t>4-2-1</t>
-  </si>
-  <si>
-    <t>2-4-1</t>
-  </si>
-  <si>
-    <t>3-3-1</t>
-  </si>
-  <si>
-    <t>1-5-1</t>
-  </si>
-  <si>
-    <t>5-1-1</t>
-  </si>
-  <si>
-    <t>6-0-1</t>
-  </si>
-  <si>
-    <t>0-6-1</t>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -170,36 +170,36 @@
     <t>2-4</t>
   </si>
   <si>
-    <t>9.9-4.1-0.1</t>
-  </si>
-  <si>
-    <t>9.3-4.6-0.1</t>
-  </si>
-  <si>
-    <t>9.1-4.8-0.1</t>
-  </si>
-  <si>
-    <t>7.5-6.4-0.1</t>
-  </si>
-  <si>
-    <t>7.5-6.4</t>
-  </si>
-  <si>
-    <t>6.9-7.0-0.1</t>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>9.3-4.7-0.1</t>
+  </si>
+  <si>
+    <t>9.2-4.7-0.1</t>
+  </si>
+  <si>
+    <t>7.6-6.4-0.1</t>
+  </si>
+  <si>
+    <t>7.5-6.5-0.1</t>
+  </si>
+  <si>
+    <t>6.8-7.1-0.1</t>
   </si>
   <si>
     <t>6.4-7.6-0.1</t>
   </si>
   <si>
-    <t>5.5-8.4-0.1</t>
+    <t>5.6-8.4</t>
+  </si>
+  <si>
+    <t>5.0-8.9</t>
   </si>
   <si>
     <t>5.0-8.9-0.1</t>
   </si>
   <si>
-    <t>5.1-8.9-0.1</t>
-  </si>
-  <si>
     <t>10-4</t>
   </si>
   <si>
@@ -209,6 +209,9 @@
     <t>7-7</t>
   </si>
   <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -260,9 +263,36 @@
     <t>Colman Betler</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -279,9 +309,6 @@
   </si>
   <si>
     <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -1681,34 +1708,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>56.1</v>
       </c>
       <c r="C2">
-        <v>27.7</v>
+        <v>25.9</v>
       </c>
       <c r="D2">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="G2">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H2">
         <v>0.4</v>
       </c>
       <c r="I2">
+        <v>0.3</v>
+      </c>
+      <c r="J2">
         <v>0.2</v>
       </c>
-      <c r="J2">
-        <v>0.1</v>
-      </c>
       <c r="K2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1725,34 +1752,34 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="C3">
-        <v>26.3</v>
+        <v>25.2</v>
       </c>
       <c r="D3">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="E3">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="F3">
-        <v>8.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="G3">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="H3">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="I3">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
         <v>0.1</v>
@@ -1761,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1769,34 +1796,34 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="C4">
-        <v>20.9</v>
+        <v>26.6</v>
       </c>
       <c r="D4">
-        <v>24.2</v>
+        <v>22.1</v>
       </c>
       <c r="E4">
-        <v>17.2</v>
+        <v>15.5</v>
       </c>
       <c r="F4">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
       <c r="G4">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="H4">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="I4">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1805,95 +1832,95 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>94.3</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2.1</v>
+      </c>
+      <c r="C5">
+        <v>8.6</v>
+      </c>
+      <c r="D5">
+        <v>14.6</v>
+      </c>
+      <c r="E5">
+        <v>17.8</v>
+      </c>
+      <c r="F5">
+        <v>13.6</v>
+      </c>
+      <c r="G5">
+        <v>15.1</v>
+      </c>
+      <c r="H5">
+        <v>10.6</v>
+      </c>
+      <c r="I5">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>2.4</v>
-      </c>
-      <c r="C5">
-        <v>7.9</v>
-      </c>
-      <c r="D5">
-        <v>13.8</v>
-      </c>
-      <c r="E5">
-        <v>16.2</v>
-      </c>
-      <c r="F5">
-        <v>18.4</v>
-      </c>
-      <c r="G5">
-        <v>14.8</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>7.7</v>
-      </c>
       <c r="J5">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L5">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="M5">
         <v>0.4</v>
       </c>
       <c r="N5">
-        <v>73.5</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="C6">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="D6">
-        <v>14.8</v>
+        <v>14.1</v>
       </c>
       <c r="E6">
-        <v>14.8</v>
+        <v>16.9</v>
       </c>
       <c r="F6">
-        <v>15.6</v>
+        <v>16.3</v>
       </c>
       <c r="G6">
-        <v>13.5</v>
+        <v>14.3</v>
       </c>
       <c r="H6">
-        <v>10.9</v>
+        <v>8.9</v>
       </c>
       <c r="I6">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="J6">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="K6">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L6">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="M6">
         <v>0.8</v>
       </c>
       <c r="N6">
-        <v>70.59999999999999</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1901,131 +1928,131 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="C7">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="D7">
-        <v>10.6</v>
+        <v>9.6</v>
       </c>
       <c r="E7">
-        <v>16.4</v>
+        <v>12.9</v>
       </c>
       <c r="F7">
-        <v>13.5</v>
+        <v>17.6</v>
       </c>
       <c r="G7">
-        <v>17.1</v>
+        <v>15.8</v>
       </c>
       <c r="H7">
-        <v>11.7</v>
+        <v>14.6</v>
       </c>
       <c r="I7">
-        <v>10.4</v>
+        <v>9.9</v>
       </c>
       <c r="J7">
         <v>6.7</v>
       </c>
       <c r="K7">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>63.2</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0.3</v>
       </c>
       <c r="C8">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="E8">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="F8">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="G8">
-        <v>11.2</v>
+        <v>12.6</v>
       </c>
       <c r="H8">
-        <v>13.3</v>
+        <v>12.3</v>
       </c>
       <c r="I8">
-        <v>12.4</v>
+        <v>14.6</v>
       </c>
       <c r="J8">
-        <v>13.3</v>
+        <v>13.8</v>
       </c>
       <c r="K8">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="L8">
-        <v>10.1</v>
+        <v>10.7</v>
       </c>
       <c r="M8">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="N8">
-        <v>32.5</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="E9">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="F9">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="G9">
-        <v>12.4</v>
+        <v>10.4</v>
       </c>
       <c r="H9">
-        <v>15.6</v>
+        <v>16.2</v>
       </c>
       <c r="I9">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="J9">
-        <v>13.4</v>
+        <v>11.4</v>
       </c>
       <c r="K9">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="L9">
-        <v>10.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M9">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="N9">
-        <v>30.4</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2033,43 +2060,43 @@
         <v>5</v>
       </c>
       <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
         <v>0.4</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="D10">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="E10">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="G10">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H10">
-        <v>11.7</v>
+        <v>10.8</v>
       </c>
       <c r="I10">
-        <v>13.9</v>
+        <v>14.9</v>
       </c>
       <c r="J10">
         <v>14.8</v>
       </c>
       <c r="K10">
-        <v>15.9</v>
+        <v>14.8</v>
       </c>
       <c r="L10">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="M10">
-        <v>10.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N10">
-        <v>18.3</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2080,128 +2107,128 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E11">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="G11">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H11">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="I11">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="J11">
-        <v>15.9</v>
+        <v>18.4</v>
       </c>
       <c r="K11">
-        <v>19.9</v>
+        <v>18</v>
       </c>
       <c r="L11">
-        <v>19.6</v>
+        <v>18.5</v>
       </c>
       <c r="M11">
-        <v>18</v>
+        <v>17.7</v>
       </c>
       <c r="N11">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="F12">
         <v>1.6</v>
       </c>
       <c r="G12">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="H12">
+        <v>6.8</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>13.5</v>
+      </c>
+      <c r="K12">
+        <v>16.3</v>
+      </c>
+      <c r="L12">
+        <v>22</v>
+      </c>
+      <c r="M12">
+        <v>25.7</v>
+      </c>
+      <c r="N12">
         <v>7.7</v>
-      </c>
-      <c r="I12">
-        <v>7.9</v>
-      </c>
-      <c r="J12">
-        <v>11.6</v>
-      </c>
-      <c r="K12">
-        <v>14.6</v>
-      </c>
-      <c r="L12">
-        <v>19.1</v>
-      </c>
-      <c r="M12">
-        <v>31.8</v>
-      </c>
-      <c r="N12">
-        <v>7.3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F13">
         <v>2.3</v>
       </c>
       <c r="G13">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H13">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="I13">
-        <v>10.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J13">
-        <v>14.1</v>
+        <v>10.8</v>
       </c>
       <c r="K13">
-        <v>16.7</v>
+        <v>16.1</v>
       </c>
       <c r="L13">
-        <v>20.4</v>
+        <v>18.8</v>
       </c>
       <c r="M13">
-        <v>25.3</v>
+        <v>33.2</v>
       </c>
       <c r="N13">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +2313,7 @@
         <v>707.74</v>
       </c>
       <c r="F3">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -2312,7 +2339,7 @@
         <v>680.1799999999999</v>
       </c>
       <c r="F4">
-        <v>94.3</v>
+        <v>95.5</v>
       </c>
       <c r="G4" t="s">
         <v>51</v>
@@ -2323,7 +2350,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -2332,13 +2359,13 @@
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>119.1533333333333</v>
+        <v>118.9533333333333</v>
       </c>
       <c r="E5">
-        <v>714.9200000000001</v>
+        <v>713.72</v>
       </c>
       <c r="F5">
-        <v>73.5</v>
+        <v>71.8</v>
       </c>
       <c r="G5" t="s">
         <v>52</v>
@@ -2349,7 +2376,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -2358,19 +2385,19 @@
         <v>0.5</v>
       </c>
       <c r="D6">
-        <v>118.9533333333333</v>
+        <v>119.1533333333333</v>
       </c>
       <c r="E6">
-        <v>713.72</v>
+        <v>714.9200000000001</v>
       </c>
       <c r="F6">
-        <v>70.59999999999999</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2390,7 +2417,7 @@
         <v>757.46</v>
       </c>
       <c r="F7">
-        <v>63.2</v>
+        <v>60.5</v>
       </c>
       <c r="G7" t="s">
         <v>54</v>
@@ -2401,7 +2428,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -2410,24 +2437,24 @@
         <v>0.5</v>
       </c>
       <c r="D8">
-        <v>102.3166666666667</v>
+        <v>103.41</v>
       </c>
       <c r="E8">
-        <v>613.9</v>
+        <v>620.46</v>
       </c>
       <c r="F8">
-        <v>32.5</v>
+        <v>31.8</v>
       </c>
       <c r="G8" t="s">
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
@@ -2436,19 +2463,19 @@
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>103.41</v>
+        <v>102.3166666666667</v>
       </c>
       <c r="E9">
-        <v>620.46</v>
+        <v>613.9</v>
       </c>
       <c r="F9">
-        <v>30.4</v>
+        <v>31.3</v>
       </c>
       <c r="G9" t="s">
         <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2468,13 +2495,13 @@
         <v>663.52</v>
       </c>
       <c r="F10">
-        <v>18.3</v>
+        <v>19.8</v>
       </c>
       <c r="G10" t="s">
         <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2494,18 +2521,18 @@
         <v>634.86</v>
       </c>
       <c r="F11">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G11" t="s">
         <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -2514,24 +2541,24 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>94.54666666666667</v>
+        <v>98.38333333333333</v>
       </c>
       <c r="E12">
-        <v>567.28</v>
+        <v>590.3</v>
       </c>
       <c r="F12">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="G12" t="s">
         <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>
@@ -2540,19 +2567,19 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>98.38333333333333</v>
+        <v>94.54666666666667</v>
       </c>
       <c r="E13">
-        <v>590.3</v>
+        <v>567.28</v>
       </c>
       <c r="F13">
-        <v>6.9</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="G13" t="s">
         <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2573,16 +2600,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2593,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -2602,7 +2629,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2613,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -2622,7 +2649,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2633,7 +2660,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -2642,7 +2669,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2653,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2662,7 +2689,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2673,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -2682,7 +2709,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2693,7 +2720,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2702,7 +2729,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2713,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>-3</v>
@@ -2722,7 +2749,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2733,7 +2760,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>-4</v>
@@ -2742,7 +2769,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2753,7 +2780,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>-5</v>
@@ -2762,7 +2789,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2773,7 +2800,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>-13</v>
@@ -2782,7 +2809,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2793,7 +2820,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>-13</v>
@@ -2802,7 +2829,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2813,7 +2840,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>-31</v>
@@ -2822,7 +2849,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2832,39 +2859,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2886,14 +2910,11 @@
       <c r="G2">
         <v>32</v>
       </c>
-      <c r="H2">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2915,14 +2936,11 @@
       <c r="G3">
         <v>15</v>
       </c>
-      <c r="H3">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2944,14 +2962,11 @@
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="H4">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2973,14 +2988,11 @@
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3002,14 +3014,11 @@
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3031,14 +3040,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -3060,14 +3066,11 @@
       <c r="G8">
         <v>-3</v>
       </c>
-      <c r="H8">
-        <v>-3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3089,14 +3092,11 @@
       <c r="G9">
         <v>-4</v>
       </c>
-      <c r="H9">
-        <v>-4</v>
-      </c>
-      <c r="I9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3118,14 +3118,11 @@
       <c r="G10">
         <v>-5</v>
       </c>
-      <c r="H10">
-        <v>-5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3147,14 +3144,11 @@
       <c r="G11">
         <v>-13</v>
       </c>
-      <c r="H11">
-        <v>-13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3176,14 +3170,11 @@
       <c r="G12">
         <v>-13</v>
       </c>
-      <c r="H12">
-        <v>-13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3205,11 +3196,8 @@
       <c r="G13">
         <v>-31</v>
       </c>
-      <c r="H13">
-        <v>-31</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
+      <c r="H13" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3227,25 +3215,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
-    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
-    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
-    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
+    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
+    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
+    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="117">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -59,25 +60,28 @@
     <t>Cans in My Hands</t>
   </si>
   <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -137,6 +141,30 @@
     <t>Chance of Making Playoffs</t>
   </si>
   <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -158,64 +186,73 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>10.0-4.0</t>
-  </si>
-  <si>
-    <t>9.3-4.7-0.1</t>
-  </si>
-  <si>
-    <t>9.2-4.7-0.1</t>
-  </si>
-  <si>
-    <t>7.6-6.4-0.1</t>
-  </si>
-  <si>
-    <t>7.5-6.5-0.1</t>
-  </si>
-  <si>
-    <t>6.8-7.1-0.1</t>
-  </si>
-  <si>
-    <t>6.4-7.6-0.1</t>
-  </si>
-  <si>
-    <t>5.6-8.4</t>
-  </si>
-  <si>
-    <t>5.0-8.9</t>
-  </si>
-  <si>
-    <t>5.0-8.9-0.1</t>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>10.2-3.7-0.1</t>
+  </si>
+  <si>
+    <t>9.7-4.2-0.1</t>
+  </si>
+  <si>
+    <t>8.2-5.7-0.1</t>
+  </si>
+  <si>
+    <t>8.5-5.4-0.1</t>
+  </si>
+  <si>
+    <t>6.8-7.2</t>
+  </si>
+  <si>
+    <t>7.1-6.9-0.1</t>
+  </si>
+  <si>
+    <t>6.3-7.6</t>
+  </si>
+  <si>
+    <t>6.0-8.0-0.1</t>
+  </si>
+  <si>
+    <t>5.9-8.0</t>
+  </si>
+  <si>
+    <t>5.7-8.3-0.1</t>
+  </si>
+  <si>
+    <t>4.6-9.3-0.1</t>
+  </si>
+  <si>
+    <t>11-3</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>9-5</t>
   </si>
   <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
+    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -230,25 +267,28 @@
     <t>Julia Childres</t>
   </si>
   <si>
+    <t>Matthew Stansbury</t>
+  </si>
+  <si>
     <t>Alex Keene</t>
   </si>
   <si>
-    <t>Matthew Stansbury</t>
+    <t>Zack Gray</t>
   </si>
   <si>
     <t>Clayton Kavanaugh</t>
   </si>
   <si>
+    <t>Lisa Jackson</t>
+  </si>
+  <si>
+    <t>Patrick Fennell</t>
+  </si>
+  <si>
     <t>Kyle Bradburry</t>
   </si>
   <si>
-    <t>Patrick Fennell</t>
-  </si>
-  <si>
-    <t>Zack Gray</t>
-  </si>
-  <si>
-    <t>Lisa Jackson</t>
+    <t>Mason Dennis</t>
   </si>
   <si>
     <t>Felipe Gutierrez</t>
@@ -257,42 +297,42 @@
     <t>David O'Kane</t>
   </si>
   <si>
-    <t>Mason Dennis</t>
-  </si>
-  <si>
     <t>Colman Betler</t>
   </si>
   <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
     <t>↑9</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -309,6 +349,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -742,13 +785,13 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -760,7 +803,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -769,7 +812,7 @@
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -783,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -792,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -801,13 +844,13 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -827,7 +870,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -851,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -859,16 +902,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -877,22 +920,22 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
         <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -900,40 +943,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
         <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -941,22 +984,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -971,10 +1014,10 @@
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -982,25 +1025,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -1012,10 +1055,10 @@
         <v>12</v>
       </c>
       <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
         <v>15</v>
-      </c>
-      <c r="M8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1023,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1038,7 +1081,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -1047,13 +1090,13 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
         <v>16</v>
@@ -1064,13 +1107,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1079,22 +1122,22 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
         <v>16</v>
@@ -1105,31 +1148,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -1138,7 +1181,7 @@
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1146,13 +1189,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1161,10 +1204,10 @@
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -1173,13 +1216,13 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1187,37 +1230,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>15</v>
-      </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>13</v>
@@ -1238,13 +1281,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1255,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1269,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1280,13 +1323,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2.416666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1294,13 +1337,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>2.583333333333333</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1308,13 +1351,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.666666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1322,13 +1365,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>2.666666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1336,13 +1379,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3.083333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1350,10 +1393,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3.166666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1364,13 +1407,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1378,13 +1421,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>3.666666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1395,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>4.083333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1409,10 +1452,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>4.166666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1430,16 +1473,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1450,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.083333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D2">
         <v>1.083333333333333</v>
@@ -1467,10 +1510,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3.833333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D3">
-        <v>1.833333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1481,16 +1524,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>3.75</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D4">
-        <v>-1.25</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1501,10 +1544,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1515,16 +1558,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3.416666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D6">
-        <v>0.4166666666666665</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1552,13 +1595,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>2.916666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D8">
-        <v>0.9166666666666665</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1566,16 +1609,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>2.333333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D9">
-        <v>-0.6666666666666665</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1583,16 +1626,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>2.333333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D10">
-        <v>0.3333333333333335</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1600,13 +1643,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>2.083333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D11">
-        <v>-0.9166666666666665</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1617,13 +1660,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.4166666666666665</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1637,10 +1680,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.5</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1661,46 +1704,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1708,31 +1751,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56.1</v>
+        <v>62.9</v>
       </c>
       <c r="C2">
-        <v>25.9</v>
+        <v>24.3</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F2">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1744,447 +1787,447 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>22.6</v>
+        <v>22.1</v>
       </c>
       <c r="C3">
-        <v>25.2</v>
+        <v>36.2</v>
       </c>
       <c r="D3">
-        <v>19.9</v>
+        <v>19.1</v>
       </c>
       <c r="E3">
-        <v>12.6</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>9.9</v>
+        <v>5.3</v>
       </c>
       <c r="G3">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="H3">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="I3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>95.7</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>15.3</v>
+        <v>4.7</v>
       </c>
       <c r="C4">
-        <v>26.6</v>
+        <v>15.8</v>
       </c>
       <c r="D4">
-        <v>22.1</v>
+        <v>24.7</v>
       </c>
       <c r="E4">
-        <v>15.5</v>
+        <v>21.5</v>
       </c>
       <c r="F4">
-        <v>10.9</v>
+        <v>13.1</v>
       </c>
       <c r="G4">
-        <v>5.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H4">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="I4">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="J4">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="K4">
+        <v>1.1</v>
+      </c>
+      <c r="L4">
         <v>0.3</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>95.5</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C5">
+        <v>15.7</v>
+      </c>
+      <c r="D5">
+        <v>23.3</v>
+      </c>
+      <c r="E5">
+        <v>17.3</v>
+      </c>
+      <c r="F5">
+        <v>14.9</v>
+      </c>
+      <c r="G5">
+        <v>7.8</v>
+      </c>
+      <c r="H5">
+        <v>6.4</v>
+      </c>
+      <c r="I5">
+        <v>2.8</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>2.1</v>
-      </c>
-      <c r="C5">
-        <v>8.6</v>
-      </c>
-      <c r="D5">
-        <v>14.6</v>
-      </c>
-      <c r="E5">
-        <v>17.8</v>
-      </c>
-      <c r="F5">
-        <v>13.6</v>
-      </c>
-      <c r="G5">
-        <v>15.1</v>
-      </c>
-      <c r="H5">
-        <v>10.6</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>4.1</v>
-      </c>
       <c r="K5">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="L5">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="M5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N5">
-        <v>71.8</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
-        <v>7.8</v>
+        <v>2.6</v>
       </c>
       <c r="D6">
-        <v>14.1</v>
+        <v>6.8</v>
       </c>
       <c r="E6">
-        <v>16.9</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="G6">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="H6">
-        <v>8.9</v>
+        <v>14.6</v>
       </c>
       <c r="I6">
-        <v>8.4</v>
+        <v>11.7</v>
       </c>
       <c r="J6">
-        <v>5.4</v>
+        <v>8.6</v>
       </c>
       <c r="K6">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="L6">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="M6">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>71.59999999999999</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="D7">
-        <v>9.6</v>
+        <v>6.6</v>
       </c>
       <c r="E7">
-        <v>12.9</v>
+        <v>10.5</v>
       </c>
       <c r="F7">
-        <v>17.6</v>
+        <v>14.9</v>
       </c>
       <c r="G7">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="H7">
-        <v>14.6</v>
+        <v>15.5</v>
       </c>
       <c r="I7">
-        <v>9.9</v>
+        <v>11.2</v>
       </c>
       <c r="J7">
-        <v>6.7</v>
+        <v>10.9</v>
       </c>
       <c r="K7">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L7">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="N7">
-        <v>60.5</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="D8">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="E8">
-        <v>6.2</v>
+        <v>9.5</v>
       </c>
       <c r="F8">
-        <v>8.9</v>
+        <v>14.8</v>
       </c>
       <c r="G8">
-        <v>12.6</v>
+        <v>16.8</v>
       </c>
       <c r="H8">
-        <v>12.3</v>
+        <v>14.9</v>
       </c>
       <c r="I8">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="J8">
-        <v>13.8</v>
+        <v>7.9</v>
       </c>
       <c r="K8">
-        <v>11.4</v>
+        <v>7.6</v>
       </c>
       <c r="L8">
-        <v>10.7</v>
+        <v>4.8</v>
       </c>
       <c r="M8">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="N8">
-        <v>31.8</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="E9">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="F9">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="G9">
-        <v>10.4</v>
+        <v>11.9</v>
       </c>
       <c r="H9">
-        <v>16.2</v>
+        <v>12.6</v>
       </c>
       <c r="I9">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="J9">
-        <v>11.4</v>
+        <v>15.2</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>13.6</v>
       </c>
       <c r="L9">
-        <v>8.300000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="M9">
-        <v>6.1</v>
+        <v>5.1</v>
       </c>
       <c r="N9">
-        <v>31.3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="F10">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="G10">
+        <v>9.4</v>
+      </c>
+      <c r="H10">
+        <v>11.4</v>
+      </c>
+      <c r="I10">
+        <v>15.8</v>
+      </c>
+      <c r="J10">
+        <v>14.3</v>
+      </c>
+      <c r="K10">
+        <v>16.1</v>
+      </c>
+      <c r="L10">
+        <v>11.6</v>
+      </c>
+      <c r="M10">
         <v>8.199999999999999</v>
       </c>
-      <c r="H10">
-        <v>10.8</v>
-      </c>
-      <c r="I10">
-        <v>14.9</v>
-      </c>
-      <c r="J10">
-        <v>14.8</v>
-      </c>
-      <c r="K10">
-        <v>14.8</v>
-      </c>
-      <c r="L10">
-        <v>15.2</v>
-      </c>
-      <c r="M10">
-        <v>9.699999999999999</v>
-      </c>
       <c r="N10">
-        <v>19.8</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0.2</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0.3</v>
-      </c>
-      <c r="D11">
-        <v>0.4</v>
-      </c>
       <c r="E11">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="G11">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="H11">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="J11">
-        <v>18.4</v>
+        <v>18.9</v>
       </c>
       <c r="K11">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="L11">
-        <v>18.5</v>
+        <v>16.4</v>
       </c>
       <c r="M11">
-        <v>17.7</v>
+        <v>10.8</v>
       </c>
       <c r="N11">
-        <v>8.6</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0.2</v>
       </c>
-      <c r="D12">
-        <v>0.6</v>
-      </c>
       <c r="E12">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="G12">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="H12">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J12">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="K12">
-        <v>16.3</v>
+        <v>17.8</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>25.3</v>
       </c>
       <c r="M12">
-        <v>25.7</v>
+        <v>27.4</v>
       </c>
       <c r="N12">
-        <v>7.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2195,40 +2238,40 @@
         <v>0</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0.1</v>
       </c>
-      <c r="D13">
-        <v>0.2</v>
-      </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F13">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="G13">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H13">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="I13">
-        <v>8.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="J13">
-        <v>10.8</v>
+        <v>8</v>
       </c>
       <c r="K13">
-        <v>16.1</v>
+        <v>14.1</v>
       </c>
       <c r="L13">
-        <v>18.8</v>
+        <v>21.1</v>
       </c>
       <c r="M13">
-        <v>33.2</v>
+        <v>42.6</v>
       </c>
       <c r="N13">
-        <v>6.6</v>
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>
@@ -2237,6 +2280,393 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="C2">
+        <v>97</v>
+      </c>
+      <c r="D2">
+        <v>98.5</v>
+      </c>
+      <c r="E2">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="F2">
+        <v>97.7</v>
+      </c>
+      <c r="G2">
+        <v>99.2</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>92</v>
+      </c>
+      <c r="C3">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D3">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E3">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F3">
+        <v>98.5</v>
+      </c>
+      <c r="G3">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="H3">
+        <v>96.2</v>
+      </c>
+      <c r="I3">
+        <v>97.89999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>86.5</v>
+      </c>
+      <c r="E4">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F4">
+        <v>99.3</v>
+      </c>
+      <c r="G4">
+        <v>95.5</v>
+      </c>
+      <c r="H4">
+        <v>89.8</v>
+      </c>
+      <c r="I4">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>37.9</v>
+      </c>
+      <c r="C5">
+        <v>80.7</v>
+      </c>
+      <c r="D5">
+        <v>74.5</v>
+      </c>
+      <c r="E5">
+        <v>26.7</v>
+      </c>
+      <c r="F5">
+        <v>42.6</v>
+      </c>
+      <c r="G5">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="H5">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="I5">
+        <v>89.40000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>62.1</v>
+      </c>
+      <c r="C6">
+        <v>25.9</v>
+      </c>
+      <c r="D6">
+        <v>10.3</v>
+      </c>
+      <c r="E6">
+        <v>22.4</v>
+      </c>
+      <c r="F6">
+        <v>8.6</v>
+      </c>
+      <c r="G6">
+        <v>29.7</v>
+      </c>
+      <c r="H6">
+        <v>51.6</v>
+      </c>
+      <c r="I6">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>9.5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="E7">
+        <v>34.5</v>
+      </c>
+      <c r="F7">
+        <v>47.7</v>
+      </c>
+      <c r="G7">
+        <v>74</v>
+      </c>
+      <c r="H7">
+        <v>51.5</v>
+      </c>
+      <c r="I7">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>99.7</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>96.5</v>
+      </c>
+      <c r="E8">
+        <v>94.5</v>
+      </c>
+      <c r="F8">
+        <v>72.2</v>
+      </c>
+      <c r="G8">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="H8">
+        <v>48.2</v>
+      </c>
+      <c r="I8">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>37.7</v>
+      </c>
+      <c r="F9">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="G9">
+        <v>22.2</v>
+      </c>
+      <c r="H9">
+        <v>27.7</v>
+      </c>
+      <c r="I9">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1.7</v>
+      </c>
+      <c r="C10">
+        <v>35.4</v>
+      </c>
+      <c r="D10">
+        <v>32.1</v>
+      </c>
+      <c r="E10">
+        <v>47.7</v>
+      </c>
+      <c r="F10">
+        <v>53.40000000000001</v>
+      </c>
+      <c r="G10">
+        <v>29.8</v>
+      </c>
+      <c r="H10">
+        <v>24.4</v>
+      </c>
+      <c r="I10">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>8.4</v>
+      </c>
+      <c r="E11">
+        <v>3.4</v>
+      </c>
+      <c r="F11">
+        <v>4.6</v>
+      </c>
+      <c r="G11">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>36.1</v>
+      </c>
+      <c r="C12">
+        <v>4.6</v>
+      </c>
+      <c r="D12">
+        <v>1.7</v>
+      </c>
+      <c r="E12">
+        <v>31.4</v>
+      </c>
+      <c r="F12">
+        <v>15.9</v>
+      </c>
+      <c r="G12">
+        <v>10.2</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>97.7</v>
+      </c>
+      <c r="C13">
+        <v>67.30000000000001</v>
+      </c>
+      <c r="D13">
+        <v>28.7</v>
+      </c>
+      <c r="E13">
+        <v>11.8</v>
+      </c>
+      <c r="F13">
+        <v>2.5</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>3.7</v>
+      </c>
+      <c r="I13">
+        <v>3.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -2246,28 +2676,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2275,285 +2705,285 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2">
-        <v>139.8533333333333</v>
+        <v>140.0857142857143</v>
       </c>
       <c r="E2">
-        <v>839.12</v>
+        <v>980.5999999999999</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D3">
-        <v>117.9566666666667</v>
+        <v>113.3828571428571</v>
       </c>
       <c r="E3">
-        <v>707.74</v>
+        <v>793.6800000000001</v>
       </c>
       <c r="F3">
-        <v>95.7</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C4">
-        <v>0.8333333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D4">
-        <v>113.3633333333333</v>
+        <v>122.12</v>
       </c>
       <c r="E4">
-        <v>680.1799999999999</v>
+        <v>854.8399999999999</v>
       </c>
       <c r="F4">
-        <v>95.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D5">
-        <v>118.9533333333333</v>
+        <v>115.5685714285714</v>
       </c>
       <c r="E5">
-        <v>713.72</v>
+        <v>808.98</v>
       </c>
       <c r="F5">
-        <v>71.8</v>
+        <v>87.8</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D6">
-        <v>119.1533333333333</v>
+        <v>114.0771428571428</v>
       </c>
       <c r="E6">
-        <v>714.9200000000001</v>
+        <v>798.54</v>
       </c>
       <c r="F6">
-        <v>71.59999999999999</v>
+        <v>52.3</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C7">
-        <v>0.3333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D7">
-        <v>126.2433333333334</v>
+        <v>106.8057142857143</v>
       </c>
       <c r="E7">
-        <v>757.46</v>
+        <v>747.6400000000001</v>
       </c>
       <c r="F7">
-        <v>60.5</v>
+        <v>51.5</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D8">
-        <v>103.41</v>
+        <v>127.2142857142857</v>
       </c>
       <c r="E8">
-        <v>620.46</v>
+        <v>890.5000000000001</v>
       </c>
       <c r="F8">
-        <v>31.8</v>
+        <v>48.7</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D9">
-        <v>102.3166666666667</v>
+        <v>109.72</v>
       </c>
       <c r="E9">
-        <v>613.9</v>
+        <v>768.04</v>
       </c>
       <c r="F9">
-        <v>31.3</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>110.5866666666667</v>
+        <v>104.2228571428571</v>
       </c>
       <c r="E10">
-        <v>663.52</v>
+        <v>729.5599999999999</v>
       </c>
       <c r="F10">
-        <v>19.8</v>
+        <v>22.6</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D11">
-        <v>105.81</v>
+        <v>101.1657142857143</v>
       </c>
       <c r="E11">
-        <v>634.86</v>
+        <v>708.16</v>
       </c>
       <c r="F11">
-        <v>8.6</v>
+        <v>15.1</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D12">
-        <v>98.38333333333333</v>
+        <v>104.3571428571429</v>
       </c>
       <c r="E12">
-        <v>590.3</v>
+        <v>730.5</v>
       </c>
       <c r="F12">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2561,25 +2991,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D13">
-        <v>94.54666666666667</v>
+        <v>96.77428571428571</v>
       </c>
       <c r="E13">
-        <v>567.28</v>
+        <v>677.42</v>
       </c>
       <c r="F13">
-        <v>6.600000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +3017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2597,19 +3027,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2620,16 +3050,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2637,19 +3067,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2657,19 +3087,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2677,19 +3107,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2697,19 +3127,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2717,19 +3147,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2737,19 +3167,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D8">
         <v>-3</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2757,10 +3187,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>-4</v>
@@ -2769,7 +3199,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2777,19 +3207,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2797,19 +3227,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D11">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2817,19 +3247,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D12">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2840,16 +3270,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D13">
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2857,9 +3287,396 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-6</v>
+      </c>
+      <c r="E5">
+        <v>-11</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <v>-3</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>-3</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>-4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-4</v>
+      </c>
+      <c r="H7">
+        <v>-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>-5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>-4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>-7</v>
+      </c>
+      <c r="F10">
+        <v>-13</v>
+      </c>
+      <c r="G10">
+        <v>-13</v>
+      </c>
+      <c r="H10">
+        <v>-9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>-7</v>
+      </c>
+      <c r="D11">
+        <v>-6</v>
+      </c>
+      <c r="E11">
+        <v>-4</v>
+      </c>
+      <c r="F11">
+        <v>-3</v>
+      </c>
+      <c r="G11">
+        <v>-5</v>
+      </c>
+      <c r="H11">
+        <v>-10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-10</v>
+      </c>
+      <c r="D12">
+        <v>-10</v>
+      </c>
+      <c r="E12">
+        <v>-15</v>
+      </c>
+      <c r="F12">
+        <v>-12</v>
+      </c>
+      <c r="G12">
+        <v>-13</v>
+      </c>
+      <c r="H12">
+        <v>-12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-9</v>
+      </c>
+      <c r="E13">
+        <v>-17</v>
+      </c>
+      <c r="F13">
+        <v>-24</v>
+      </c>
+      <c r="G13">
+        <v>-31</v>
+      </c>
+      <c r="H13">
+        <v>-32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2867,373 +3684,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>-3</v>
-      </c>
-      <c r="C5">
-        <v>-2</v>
-      </c>
-      <c r="D5">
-        <v>-4</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-5</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>-6</v>
-      </c>
-      <c r="E8">
-        <v>-11</v>
-      </c>
-      <c r="F8">
-        <v>-2</v>
-      </c>
-      <c r="G8">
-        <v>-3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="G9">
-        <v>-4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-7</v>
-      </c>
-      <c r="D10">
-        <v>-6</v>
-      </c>
-      <c r="E10">
-        <v>-4</v>
-      </c>
-      <c r="F10">
-        <v>-3</v>
-      </c>
-      <c r="G10">
-        <v>-5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>-1</v>
-      </c>
-      <c r="C11">
-        <v>-10</v>
-      </c>
-      <c r="D11">
-        <v>-10</v>
-      </c>
-      <c r="E11">
-        <v>-15</v>
-      </c>
-      <c r="F11">
-        <v>-12</v>
-      </c>
-      <c r="G11">
-        <v>-13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="E12">
-        <v>-7</v>
-      </c>
-      <c r="F12">
-        <v>-13</v>
-      </c>
-      <c r="G12">
-        <v>-13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>-1</v>
-      </c>
-      <c r="D13">
-        <v>-9</v>
-      </c>
-      <c r="E13">
-        <v>-17</v>
-      </c>
-      <c r="F13">
-        <v>-24</v>
-      </c>
-      <c r="G13">
-        <v>-31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3267,25 +3736,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3293,25 +3762,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3319,25 +3788,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3348,22 +3817,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>7</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="G6">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3371,25 +3840,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3397,25 +3866,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>-13</v>
-      </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
       <c r="G8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3423,25 +3892,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F9">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3449,25 +3918,77 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10">
+        <v>-13</v>
+      </c>
+      <c r="F10">
+        <v>-5</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>-2</v>
+      </c>
+      <c r="F11">
+        <v>-9</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>-3</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>-4</v>
+      </c>
+      <c r="F12">
+        <v>-10</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="118">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -180,6 +180,9 @@
     <t>Playoff_Chance_Pct</t>
   </si>
   <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
     <t>Expected_Final_Record</t>
   </si>
   <si>
@@ -195,43 +198,46 @@
     <t>4-3</t>
   </si>
   <si>
+    <t>2-5</t>
+  </si>
+  <si>
     <t>3-4</t>
   </si>
   <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>10.2-3.7-0.1</t>
-  </si>
-  <si>
-    <t>9.7-4.2-0.1</t>
-  </si>
-  <si>
-    <t>8.2-5.7-0.1</t>
-  </si>
-  <si>
-    <t>8.5-5.4-0.1</t>
-  </si>
-  <si>
-    <t>6.8-7.2</t>
+    <t>10.2-3.8</t>
+  </si>
+  <si>
+    <t>9.8-4.1-0.1</t>
+  </si>
+  <si>
+    <t>8.6-5.3-0.1</t>
+  </si>
+  <si>
+    <t>8.2-5.8-0.1</t>
   </si>
   <si>
     <t>7.1-6.9-0.1</t>
   </si>
   <si>
-    <t>6.3-7.6</t>
-  </si>
-  <si>
-    <t>6.0-8.0-0.1</t>
-  </si>
-  <si>
-    <t>5.9-8.0</t>
+    <t>6.4-7.6-0.1</t>
+  </si>
+  <si>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
+    <t>5.9-8.0-0.1</t>
+  </si>
+  <si>
+    <t>5.9-8.1</t>
   </si>
   <si>
     <t>5.7-8.3-0.1</t>
   </si>
   <si>
-    <t>4.6-9.3-0.1</t>
+    <t>4.7-9.2-0.1</t>
+  </si>
+  <si>
+    <t>4.6-9.4-0.1</t>
   </si>
   <si>
     <t>11-3</t>
@@ -243,16 +249,13 @@
     <t>8-6</t>
   </si>
   <si>
-    <t>9-5</t>
-  </si>
-  <si>
     <t>7-7</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>4-10</t>
+    <t>5-9</t>
   </si>
   <si>
     <t>Owners</t>
@@ -1751,22 +1754,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62.9</v>
+        <v>60.6</v>
       </c>
       <c r="C2">
-        <v>24.3</v>
+        <v>26.1</v>
       </c>
       <c r="D2">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E2">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H2">
         <v>0.3</v>
@@ -1775,19 +1778,19 @@
         <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1795,25 +1798,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>22.1</v>
+        <v>24.2</v>
       </c>
       <c r="C3">
-        <v>36.2</v>
+        <v>35.4</v>
       </c>
       <c r="D3">
-        <v>19.1</v>
+        <v>21.5</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="F3">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G3">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H3">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
         <v>0.7</v>
@@ -1831,86 +1834,86 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>96.90000000000001</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>4.7</v>
+        <v>10.6</v>
       </c>
       <c r="C4">
-        <v>15.8</v>
+        <v>17.2</v>
       </c>
       <c r="D4">
-        <v>24.7</v>
+        <v>22.7</v>
       </c>
       <c r="E4">
-        <v>21.5</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="G4">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H4">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I4">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="J4">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="K4">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
-        <v>88.59999999999999</v>
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>8.800000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="C5">
-        <v>15.7</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>23.3</v>
+        <v>24.9</v>
       </c>
       <c r="E5">
-        <v>17.3</v>
+        <v>21.6</v>
       </c>
       <c r="F5">
-        <v>14.9</v>
+        <v>15.6</v>
       </c>
       <c r="G5">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="H5">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="I5">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="K5">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="L5">
         <v>0.3</v>
@@ -1919,139 +1922,139 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>87.8</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D6">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>13.6</v>
       </c>
       <c r="F6">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="G6">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="H6">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="I6">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="J6">
-        <v>8.6</v>
+        <v>9.9</v>
       </c>
       <c r="K6">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="L6">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="N6">
-        <v>52.3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="D7">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>10.5</v>
+        <v>12.6</v>
       </c>
       <c r="F7">
-        <v>14.9</v>
+        <v>15.6</v>
       </c>
       <c r="G7">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="H7">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="I7">
-        <v>11.2</v>
+        <v>13.6</v>
       </c>
       <c r="J7">
-        <v>10.9</v>
+        <v>9.5</v>
       </c>
       <c r="K7">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="L7">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="M7">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>51.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="E8">
-        <v>9.5</v>
+        <v>11.7</v>
       </c>
       <c r="F8">
-        <v>14.8</v>
+        <v>13.2</v>
       </c>
       <c r="G8">
-        <v>16.8</v>
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>14.9</v>
+        <v>12.9</v>
       </c>
       <c r="I8">
-        <v>13.6</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>7.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K8">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="L8">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="M8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>48.7</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2062,40 +2065,40 @@
         <v>0.4</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="E9">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="F9">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="G9">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="H9">
-        <v>12.6</v>
+        <v>15.5</v>
       </c>
       <c r="I9">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="J9">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="K9">
-        <v>13.6</v>
+        <v>12.8</v>
       </c>
       <c r="L9">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="M9">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="N9">
-        <v>28</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2106,40 +2109,40 @@
         <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="G10">
         <v>9.4</v>
       </c>
       <c r="H10">
-        <v>11.4</v>
+        <v>13.5</v>
       </c>
       <c r="I10">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="J10">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
       <c r="K10">
-        <v>16.1</v>
+        <v>13.7</v>
       </c>
       <c r="L10">
-        <v>11.6</v>
+        <v>13.5</v>
       </c>
       <c r="M10">
-        <v>8.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="N10">
-        <v>22.6</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2147,43 +2150,43 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="G11">
-        <v>5.7</v>
+        <v>7.9</v>
       </c>
       <c r="H11">
-        <v>8.4</v>
+        <v>11.1</v>
       </c>
       <c r="I11">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="J11">
-        <v>18.9</v>
+        <v>16.8</v>
       </c>
       <c r="K11">
-        <v>18.2</v>
+        <v>17.4</v>
       </c>
       <c r="L11">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="M11">
-        <v>10.8</v>
+        <v>11.7</v>
       </c>
       <c r="N11">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2194,40 +2197,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G12">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H12">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I12">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="J12">
-        <v>12.4</v>
+        <v>14</v>
       </c>
       <c r="K12">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L12">
+        <v>23.5</v>
+      </c>
+      <c r="M12">
         <v>25.3</v>
       </c>
-      <c r="M12">
-        <v>27.4</v>
-      </c>
       <c r="N12">
-        <v>5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2244,34 +2247,34 @@
         <v>0.1</v>
       </c>
       <c r="E13">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F13">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G13">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H13">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I13">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="K13">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="L13">
-        <v>21.1</v>
+        <v>21.6</v>
       </c>
       <c r="M13">
-        <v>42.6</v>
+        <v>42.3</v>
       </c>
       <c r="N13">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -2318,28 +2321,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>72.09999999999999</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="C2">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="D2">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E2">
-        <v>94.69999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="F2">
-        <v>97.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G2">
         <v>99.2</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="I2">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2347,28 +2350,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>92</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="C3">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="D3">
+        <v>97.8</v>
+      </c>
+      <c r="E3">
         <v>98.40000000000001</v>
       </c>
-      <c r="E3">
-        <v>99.09999999999999</v>
-      </c>
       <c r="F3">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="G3">
-        <v>94.39999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="H3">
-        <v>96.2</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="I3">
-        <v>97.89999999999999</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2376,28 +2379,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>85.39999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>68.2</v>
       </c>
       <c r="D4">
-        <v>86.5</v>
+        <v>88.2</v>
       </c>
       <c r="E4">
-        <v>96.09999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="F4">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="G4">
-        <v>95.5</v>
+        <v>93.2</v>
       </c>
       <c r="H4">
-        <v>89.8</v>
+        <v>88.3</v>
       </c>
       <c r="I4">
-        <v>91.3</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2405,28 +2408,28 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="C5">
-        <v>80.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D5">
-        <v>74.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E5">
-        <v>26.7</v>
+        <v>28.1</v>
       </c>
       <c r="F5">
-        <v>42.6</v>
+        <v>43.1</v>
       </c>
       <c r="G5">
-        <v>73.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="H5">
-        <v>87.90000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="I5">
-        <v>89.40000000000001</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2434,28 +2437,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62.1</v>
+        <v>66.3</v>
       </c>
       <c r="C6">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>10.3</v>
+        <v>11.7</v>
       </c>
       <c r="E6">
-        <v>22.4</v>
+        <v>23.6</v>
       </c>
       <c r="F6">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="G6">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="H6">
-        <v>51.6</v>
+        <v>52.1</v>
       </c>
       <c r="I6">
-        <v>52.6</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2463,28 +2466,28 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>9.5</v>
+        <v>10.8</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.399999999999999</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>34.5</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="F7">
-        <v>47.7</v>
+        <v>47</v>
       </c>
       <c r="G7">
-        <v>74</v>
+        <v>77.5</v>
       </c>
       <c r="H7">
-        <v>51.5</v>
+        <v>51.3</v>
       </c>
       <c r="I7">
-        <v>51.5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2492,28 +2495,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C8">
         <v>100</v>
       </c>
       <c r="D8">
-        <v>96.5</v>
+        <v>98</v>
       </c>
       <c r="E8">
-        <v>94.5</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="F8">
-        <v>72.2</v>
+        <v>73.3</v>
       </c>
       <c r="G8">
-        <v>57.99999999999999</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="H8">
-        <v>48.2</v>
+        <v>52.3</v>
       </c>
       <c r="I8">
-        <v>45.3</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2521,28 +2524,28 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>59.9</v>
       </c>
       <c r="E9">
-        <v>37.7</v>
+        <v>38.9</v>
       </c>
       <c r="F9">
-        <v>56.99999999999999</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="G9">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="H9">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="I9">
-        <v>27.4</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2550,28 +2553,28 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="C10">
-        <v>35.4</v>
+        <v>36.9</v>
       </c>
       <c r="D10">
-        <v>32.1</v>
+        <v>30.9</v>
       </c>
       <c r="E10">
-        <v>47.7</v>
+        <v>45.1</v>
       </c>
       <c r="F10">
-        <v>53.40000000000001</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="G10">
-        <v>29.8</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>24.4</v>
+        <v>22.9</v>
       </c>
       <c r="I10">
-        <v>20.7</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2579,28 +2582,28 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.4</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="E11">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G11">
-        <v>7.399999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="H11">
         <v>16</v>
       </c>
       <c r="I11">
-        <v>13.8</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2608,28 +2611,28 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>36.1</v>
+        <v>31.8</v>
       </c>
       <c r="C12">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="D12">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="E12">
-        <v>31.4</v>
+        <v>34.3</v>
       </c>
       <c r="F12">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="G12">
-        <v>10.2</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I12">
-        <v>6.5</v>
+        <v>5.899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2637,28 +2640,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>97.7</v>
+        <v>97.3</v>
       </c>
       <c r="C13">
-        <v>67.30000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D13">
-        <v>28.7</v>
+        <v>27.5</v>
       </c>
       <c r="E13">
-        <v>11.8</v>
+        <v>10.9</v>
       </c>
       <c r="F13">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="H13">
-        <v>3.7</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="I13">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
@@ -2668,13 +2671,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2699,13 +2702,16 @@
       <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>0.7142857142857143</v>
@@ -2717,21 +2723,24 @@
         <v>980.5999999999999</v>
       </c>
       <c r="F2">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
+        <v>99.40000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>0.8571428571428571</v>
@@ -2743,151 +2752,169 @@
         <v>793.6800000000001</v>
       </c>
       <c r="F3">
-        <v>96.89999999999999</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
+        <v>98.2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D4">
+        <v>115.5685714285714</v>
+      </c>
+      <c r="E4">
+        <v>808.98</v>
+      </c>
+      <c r="F4">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5">
         <v>0.5714285714285714</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>122.12</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>854.8399999999999</v>
       </c>
-      <c r="F4">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D5">
-        <v>115.5685714285714</v>
-      </c>
-      <c r="E5">
-        <v>808.98</v>
-      </c>
       <c r="F5">
-        <v>87.8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
+        <v>88.90000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
       </c>
       <c r="C6">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D6">
+        <v>106.8057142857143</v>
+      </c>
+      <c r="E6">
+        <v>747.6400000000001</v>
+      </c>
+      <c r="F6">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <v>0.8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D7">
+        <v>127.2142857142857</v>
+      </c>
+      <c r="E7">
+        <v>890.5000000000001</v>
+      </c>
+      <c r="F7">
+        <v>50.5</v>
+      </c>
+      <c r="G7">
+        <v>2.1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8">
         <v>0.4285714285714285</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>114.0771428571428</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>798.54</v>
       </c>
-      <c r="F6">
-        <v>52.3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="D7">
-        <v>106.8057142857143</v>
-      </c>
-      <c r="E7">
-        <v>747.6400000000001</v>
-      </c>
-      <c r="F7">
-        <v>51.5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D8">
-        <v>127.2142857142857</v>
-      </c>
-      <c r="E8">
-        <v>890.5000000000001</v>
-      </c>
       <c r="F8">
-        <v>48.7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
+        <v>49.5</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
       </c>
       <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
@@ -2899,21 +2926,24 @@
         <v>768.04</v>
       </c>
       <c r="F9">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>66</v>
+        <v>25.8</v>
+      </c>
+      <c r="G9">
+        <v>5.4</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -2925,21 +2955,24 @@
         <v>729.5599999999999</v>
       </c>
       <c r="F10">
-        <v>22.6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
+        <v>20.9</v>
+      </c>
+      <c r="G10">
+        <v>10.1</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>0.4285714285714285</v>
@@ -2951,16 +2984,19 @@
         <v>708.16</v>
       </c>
       <c r="F11">
-        <v>15.1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>68</v>
+        <v>14.9</v>
+      </c>
+      <c r="G11">
+        <v>11.7</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2977,16 +3013,19 @@
         <v>730.5</v>
       </c>
       <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
+        <v>5.4</v>
+      </c>
+      <c r="G12">
+        <v>25.3</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3003,13 +3042,16 @@
         <v>677.42</v>
       </c>
       <c r="F13">
-        <v>3.9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
+        <v>3.6</v>
+      </c>
+      <c r="G13">
+        <v>42.3</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3030,16 +3072,16 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3050,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -3059,7 +3101,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3070,7 +3112,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>22</v>
@@ -3079,7 +3121,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3090,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -3099,7 +3141,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3110,7 +3152,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -3119,7 +3161,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3130,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -3139,7 +3181,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3150,7 +3192,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7">
         <v>-2</v>
@@ -3159,7 +3201,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3170,7 +3212,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8">
         <v>-3</v>
@@ -3179,7 +3221,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3190,7 +3232,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9">
         <v>-4</v>
@@ -3199,7 +3241,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3210,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>-9</v>
@@ -3219,7 +3261,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3230,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>-10</v>
@@ -3239,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3250,7 +3292,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>-12</v>
@@ -3259,7 +3301,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3270,7 +3312,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>-32</v>
@@ -3279,7 +3321,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3297,28 +3339,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3347,7 +3389,7 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3376,7 +3418,7 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3405,7 +3447,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3434,7 +3476,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3463,7 +3505,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3492,7 +3534,7 @@
         <v>-2</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3521,7 +3563,7 @@
         <v>-3</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3550,7 +3592,7 @@
         <v>-4</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3579,7 +3621,7 @@
         <v>-9</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3608,7 +3650,7 @@
         <v>-10</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3637,7 +3679,7 @@
         <v>-12</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3666,7 +3708,7 @@
         <v>-32</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3684,25 +3726,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="123">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -60,28 +60,28 @@
     <t>Cans in My Hands</t>
   </si>
   <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>8-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -165,6 +165,9 @@
     <t>Week_8</t>
   </si>
   <si>
+    <t>Week_9</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -189,55 +192,58 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>10.2-3.8</t>
-  </si>
-  <si>
-    <t>9.8-4.1-0.1</t>
-  </si>
-  <si>
-    <t>8.6-5.3-0.1</t>
-  </si>
-  <si>
-    <t>8.2-5.8-0.1</t>
-  </si>
-  <si>
-    <t>7.1-6.9-0.1</t>
-  </si>
-  <si>
-    <t>6.4-7.6-0.1</t>
-  </si>
-  <si>
-    <t>6.7-7.3</t>
-  </si>
-  <si>
-    <t>5.9-8.0-0.1</t>
-  </si>
-  <si>
-    <t>5.9-8.1</t>
-  </si>
-  <si>
-    <t>5.7-8.3-0.1</t>
-  </si>
-  <si>
-    <t>4.7-9.2-0.1</t>
-  </si>
-  <si>
-    <t>4.6-9.4-0.1</t>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>10.3-3.7</t>
+  </si>
+  <si>
+    <t>10.3-3.6-0.1</t>
+  </si>
+  <si>
+    <t>8.7-5.3</t>
+  </si>
+  <si>
+    <t>8.1-5.9-0.1</t>
+  </si>
+  <si>
+    <t>7.1-6.9</t>
+  </si>
+  <si>
+    <t>6.5-7.5-0.1</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>5.7-8.2</t>
+  </si>
+  <si>
+    <t>5.6-8.4</t>
+  </si>
+  <si>
+    <t>5.6-8.3-0.1</t>
+  </si>
+  <si>
+    <t>5.0-8.9</t>
+  </si>
+  <si>
+    <t>4.3-9.7-0.1</t>
   </si>
   <si>
     <t>11-3</t>
@@ -246,6 +252,9 @@
     <t>10-4</t>
   </si>
   <si>
+    <t>9-5</t>
+  </si>
+  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -258,6 +267,9 @@
     <t>5-9</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -273,19 +285,22 @@
     <t>Matthew Stansbury</t>
   </si>
   <si>
+    <t>Zack Gray</t>
+  </si>
+  <si>
+    <t>Clayton Kavanaugh</t>
+  </si>
+  <si>
+    <t>Patrick Fennell</t>
+  </si>
+  <si>
     <t>Alex Keene</t>
   </si>
   <si>
-    <t>Zack Gray</t>
-  </si>
-  <si>
-    <t>Clayton Kavanaugh</t>
-  </si>
-  <si>
     <t>Lisa Jackson</t>
   </si>
   <si>
-    <t>Patrick Fennell</t>
+    <t>Felipe Gutierrez</t>
   </si>
   <si>
     <t>Kyle Bradburry</t>
@@ -294,48 +309,45 @@
     <t>Mason Dennis</t>
   </si>
   <si>
-    <t>Felipe Gutierrez</t>
-  </si>
-  <si>
     <t>David O'Kane</t>
   </si>
   <si>
     <t>Colman Betler</t>
   </si>
   <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>↑7</t>
   </si>
   <si>
-    <t>↓9</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>↑9</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -355,6 +367,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -785,7 +800,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -794,25 +809,25 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
@@ -829,34 +844,34 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -873,13 +888,13 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -891,13 +906,13 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
         <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -908,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -935,10 +950,10 @@
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -955,31 +970,31 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
       <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
         <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -987,7 +1002,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -996,16 +1011,16 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -1014,13 +1029,13 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1037,31 +1052,31 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1078,31 +1093,31 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1119,7 +1134,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1143,7 +1158,7 @@
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1160,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -1172,13 +1187,13 @@
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
@@ -1198,16 +1213,16 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -1216,16 +1231,16 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" t="s">
         <v>14</v>
-      </c>
-      <c r="M12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1236,37 +1251,37 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
       </c>
       <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.083333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1312,13 +1327,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1326,13 +1341,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.75</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1340,13 +1355,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1357,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.25</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1368,13 +1383,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>3.583333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1382,10 +1397,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3.583333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1399,10 +1414,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>3.666666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1413,7 +1428,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3.833333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1427,10 +1442,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4.25</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1441,10 +1456,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1455,10 +1470,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>4.75</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1496,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.083333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D2">
-        <v>1.083333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1510,16 +1525,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>4.583333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D3">
-        <v>2.583333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1527,16 +1542,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>4.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1547,13 +1562,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D5">
-        <v>-2</v>
+        <v>-2.166666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1564,13 +1579,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3.916666666666667</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D6">
-        <v>-1.083333333333333</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1581,10 +1596,10 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1598,13 +1613,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1612,16 +1627,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>2.833333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D9">
-        <v>-1.166666666666667</v>
+        <v>0.4166666666666665</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1629,13 +1644,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>2.833333333333333</v>
       </c>
       <c r="D10">
-        <v>-0.1666666666666665</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1646,16 +1661,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>2.666666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D11">
-        <v>-0.3333333333333335</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1663,16 +1678,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>2.416666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D12">
-        <v>0.4166666666666665</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1680,13 +1695,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1.833333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.1666666666666667</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1754,43 +1769,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60.6</v>
+        <v>55.2</v>
       </c>
       <c r="C2">
-        <v>26.1</v>
+        <v>30.5</v>
       </c>
       <c r="D2">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="E2">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="F2">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="G2">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1798,34 +1813,34 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>24.2</v>
+        <v>34.2</v>
       </c>
       <c r="C3">
-        <v>35.4</v>
+        <v>38.4</v>
       </c>
       <c r="D3">
-        <v>21.5</v>
+        <v>17.3</v>
       </c>
       <c r="E3">
-        <v>9.4</v>
+        <v>6.8</v>
       </c>
       <c r="F3">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="G3">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="I3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1834,139 +1849,139 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>98.2</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>10.6</v>
+        <v>5.9</v>
       </c>
       <c r="C4">
-        <v>17.2</v>
+        <v>18.9</v>
       </c>
       <c r="D4">
-        <v>22.7</v>
+        <v>35.4</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>19.8</v>
       </c>
       <c r="F4">
-        <v>15.1</v>
+        <v>11.1</v>
       </c>
       <c r="G4">
-        <v>8.300000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="H4">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="I4">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="J4">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>90.90000000000001</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D5">
-        <v>24.9</v>
+        <v>18.4</v>
       </c>
       <c r="E5">
-        <v>21.6</v>
+        <v>23.9</v>
       </c>
       <c r="F5">
-        <v>15.6</v>
+        <v>19.6</v>
       </c>
       <c r="G5">
-        <v>9.6</v>
+        <v>11.9</v>
       </c>
       <c r="H5">
-        <v>4.5</v>
+        <v>7.9</v>
       </c>
       <c r="I5">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="J5">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K5">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="L5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>88.90000000000001</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="D6">
-        <v>5.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E6">
-        <v>13.6</v>
+        <v>17.1</v>
       </c>
       <c r="F6">
-        <v>15.3</v>
+        <v>16.6</v>
       </c>
       <c r="G6">
-        <v>14.5</v>
+        <v>16.9</v>
       </c>
       <c r="H6">
-        <v>14.9</v>
+        <v>13.2</v>
       </c>
       <c r="I6">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="J6">
-        <v>9.9</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>6.3</v>
+        <v>4.1</v>
       </c>
       <c r="L6">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="M6">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N6">
-        <v>52</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1974,87 +1989,87 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C7">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="F7">
-        <v>15.6</v>
+        <v>17.5</v>
       </c>
       <c r="G7">
-        <v>14.5</v>
+        <v>20.1</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>16.6</v>
       </c>
       <c r="I7">
-        <v>13.6</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="K7">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="M7">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="N7">
-        <v>50.5</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0.1</v>
       </c>
       <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>7.5</v>
-      </c>
       <c r="E8">
-        <v>11.7</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>13.7</v>
       </c>
       <c r="H8">
+        <v>14.8</v>
+      </c>
+      <c r="I8">
+        <v>13.6</v>
+      </c>
+      <c r="J8">
         <v>12.9</v>
       </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <v>9.199999999999999</v>
-      </c>
       <c r="K8">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="N8">
-        <v>49.5</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2062,43 +2077,43 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="E9">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F9">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="G9">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="H9">
-        <v>15.5</v>
+        <v>13.8</v>
       </c>
       <c r="I9">
-        <v>14.7</v>
+        <v>15.6</v>
       </c>
       <c r="J9">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="K9">
-        <v>12.8</v>
+        <v>14.3</v>
       </c>
       <c r="L9">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="M9">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="N9">
-        <v>25.8</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2106,136 +2121,136 @@
         <v>10</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>0.1</v>
       </c>
-      <c r="C10">
-        <v>0.4</v>
-      </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="F10">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="G10">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H10">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>16.3</v>
       </c>
       <c r="J10">
-        <v>13.3</v>
+        <v>15.4</v>
       </c>
       <c r="K10">
-        <v>13.7</v>
+        <v>18.4</v>
       </c>
       <c r="L10">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="M10">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="N10">
-        <v>20.9</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0.9</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="F11">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="G11">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="H11">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="I11">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="J11">
-        <v>16.8</v>
+        <v>15.5</v>
       </c>
       <c r="K11">
-        <v>17.4</v>
+        <v>15.2</v>
       </c>
       <c r="L11">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="M11">
-        <v>11.7</v>
+        <v>13.7</v>
       </c>
       <c r="N11">
-        <v>14.9</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0.1</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.3</v>
       </c>
-      <c r="E12">
-        <v>0.5</v>
-      </c>
       <c r="F12">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="G12">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H12">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="I12">
-        <v>9.4</v>
+        <v>10.6</v>
       </c>
       <c r="J12">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="K12">
-        <v>17.9</v>
+        <v>17.2</v>
       </c>
       <c r="L12">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="M12">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="N12">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2244,37 +2259,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="I13">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="J13">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="K13">
-        <v>13.9</v>
+        <v>16.4</v>
       </c>
       <c r="L13">
-        <v>21.6</v>
+        <v>24.6</v>
       </c>
       <c r="M13">
-        <v>42.3</v>
+        <v>39.1</v>
       </c>
       <c r="N13">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -2284,13 +2299,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2315,353 +2330,392 @@
       <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>68.10000000000001</v>
+        <v>72</v>
       </c>
       <c r="C2">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D2">
-        <v>98.09999999999999</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="E2">
         <v>93.8</v>
       </c>
       <c r="F2">
-        <v>96.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="G2">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="H2">
         <v>99.7</v>
       </c>
       <c r="I2">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>90.60000000000001</v>
+        <v>91</v>
       </c>
       <c r="C3">
+        <v>99</v>
+      </c>
+      <c r="D3">
+        <v>98.3</v>
+      </c>
+      <c r="E3">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F3">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G3">
+        <v>94.5</v>
+      </c>
+      <c r="H3">
+        <v>97.8</v>
+      </c>
+      <c r="I3">
         <v>99.3</v>
       </c>
-      <c r="D3">
-        <v>97.8</v>
-      </c>
-      <c r="E3">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="F3">
-        <v>98.3</v>
-      </c>
-      <c r="G3">
-        <v>93.7</v>
-      </c>
-      <c r="H3">
-        <v>97.39999999999999</v>
-      </c>
-      <c r="I3">
-        <v>98.59999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>37.8</v>
+      </c>
+      <c r="C4">
+        <v>83</v>
+      </c>
+      <c r="D4">
+        <v>72.5</v>
+      </c>
+      <c r="E4">
+        <v>30.9</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>74.7</v>
+      </c>
+      <c r="H4">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="I4">
+        <v>96.3</v>
+      </c>
+      <c r="J4">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>68.2</v>
-      </c>
-      <c r="D4">
-        <v>88.2</v>
-      </c>
-      <c r="E4">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="F4">
-        <v>99</v>
-      </c>
-      <c r="G4">
-        <v>93.2</v>
-      </c>
-      <c r="H4">
-        <v>88.3</v>
-      </c>
-      <c r="I4">
-        <v>90.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B5">
-        <v>38.1</v>
+        <v>87.3</v>
       </c>
       <c r="C5">
-        <v>81.59999999999999</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="D5">
-        <v>76.40000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="E5">
-        <v>28.1</v>
+        <v>96.3</v>
       </c>
       <c r="F5">
-        <v>43.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G5">
-        <v>72.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H5">
-        <v>85.09999999999999</v>
+        <v>90</v>
       </c>
       <c r="I5">
-        <v>87.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="J5">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4.5</v>
+      </c>
+      <c r="E6">
+        <v>35.6</v>
+      </c>
+      <c r="F6">
+        <v>47.5</v>
+      </c>
+      <c r="G6">
+        <v>73</v>
+      </c>
+      <c r="H6">
+        <v>51.9</v>
+      </c>
+      <c r="I6">
+        <v>67.30000000000001</v>
+      </c>
+      <c r="J6">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>99.8</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>96.8</v>
+      </c>
+      <c r="E7">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="F7">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="G7">
+        <v>59.09999999999999</v>
+      </c>
+      <c r="H7">
+        <v>50.5</v>
+      </c>
+      <c r="I7">
+        <v>61.3</v>
+      </c>
+      <c r="J7">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>66.3</v>
-      </c>
-      <c r="C6">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>11.7</v>
-      </c>
-      <c r="E6">
-        <v>23.6</v>
-      </c>
-      <c r="F6">
-        <v>7.6</v>
-      </c>
-      <c r="G6">
+      <c r="B8">
+        <v>67.80000000000001</v>
+      </c>
+      <c r="C8">
+        <v>27.4</v>
+      </c>
+      <c r="D8">
+        <v>12.1</v>
+      </c>
+      <c r="E8">
+        <v>21.1</v>
+      </c>
+      <c r="F8">
+        <v>8.1</v>
+      </c>
+      <c r="G8">
         <v>29.4</v>
       </c>
-      <c r="H6">
-        <v>52.1</v>
-      </c>
-      <c r="I6">
-        <v>53.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>10.8</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>33.90000000000001</v>
-      </c>
-      <c r="F7">
-        <v>47</v>
-      </c>
-      <c r="G7">
-        <v>77.5</v>
-      </c>
-      <c r="H7">
-        <v>51.3</v>
-      </c>
-      <c r="I7">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>98</v>
-      </c>
-      <c r="E8">
-        <v>93.60000000000001</v>
-      </c>
-      <c r="F8">
-        <v>73.3</v>
-      </c>
-      <c r="G8">
-        <v>58.59999999999999</v>
-      </c>
       <c r="H8">
-        <v>52.3</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="I8">
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>34.8</v>
+      </c>
+      <c r="J8">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="C9">
-        <v>20.3</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>59.9</v>
+        <v>63.5</v>
       </c>
       <c r="E9">
-        <v>38.9</v>
+        <v>37.7</v>
       </c>
       <c r="F9">
-        <v>56.49999999999999</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="G9">
-        <v>22.1</v>
+        <v>23</v>
       </c>
       <c r="H9">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="I9">
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="C10">
-        <v>36.9</v>
+        <v>33.4</v>
       </c>
       <c r="D10">
-        <v>30.9</v>
+        <v>33.7</v>
       </c>
       <c r="E10">
-        <v>45.1</v>
+        <v>46.3</v>
       </c>
       <c r="F10">
-        <v>56.99999999999999</v>
+        <v>53.5</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>29.5</v>
       </c>
       <c r="H10">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="I10">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>15.8</v>
+      </c>
+      <c r="J10">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="C11">
+        <v>67.2</v>
+      </c>
+      <c r="D11">
+        <v>26.6</v>
+      </c>
+      <c r="E11">
+        <v>10.3</v>
+      </c>
+      <c r="F11">
+        <v>1.6</v>
+      </c>
+      <c r="G11">
+        <v>7.5</v>
+      </c>
+      <c r="H11">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="I11">
+        <v>14.6</v>
+      </c>
+      <c r="J11">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
-        <v>0.5</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>5.600000000000001</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>5.3</v>
+      </c>
+      <c r="E12">
+        <v>3.5</v>
+      </c>
+      <c r="F12">
         <v>4.5</v>
       </c>
-      <c r="G11">
-        <v>6.5</v>
-      </c>
-      <c r="H11">
-        <v>16</v>
-      </c>
-      <c r="I11">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="G12">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="H12">
+        <v>14.5</v>
+      </c>
+      <c r="I12">
+        <v>7.1</v>
+      </c>
+      <c r="J12">
+        <v>6.800000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12">
-        <v>31.8</v>
-      </c>
-      <c r="C12">
-        <v>3.3</v>
-      </c>
-      <c r="D12">
-        <v>1.9</v>
-      </c>
-      <c r="E12">
-        <v>34.3</v>
-      </c>
-      <c r="F12">
-        <v>15.3</v>
-      </c>
-      <c r="G12">
-        <v>9</v>
-      </c>
-      <c r="H12">
-        <v>3.4</v>
-      </c>
-      <c r="I12">
-        <v>5.899999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B13">
-        <v>97.3</v>
+        <v>31.1</v>
       </c>
       <c r="C13">
-        <v>66.90000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="D13">
-        <v>27.5</v>
+        <v>2.3</v>
       </c>
       <c r="E13">
-        <v>10.9</v>
+        <v>31.7</v>
       </c>
       <c r="F13">
+        <v>13.1</v>
+      </c>
+      <c r="G13">
+        <v>8.9</v>
+      </c>
+      <c r="H13">
+        <v>2.8</v>
+      </c>
+      <c r="I13">
+        <v>1.4</v>
+      </c>
+      <c r="J13">
         <v>1.8</v>
-      </c>
-      <c r="G13">
-        <v>7.000000000000001</v>
-      </c>
-      <c r="H13">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="I13">
-        <v>3.3</v>
       </c>
     </row>
   </sheetData>
@@ -2682,28 +2736,28 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2711,28 +2765,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>140.0857142857143</v>
+        <v>136.7475</v>
       </c>
       <c r="E2">
-        <v>980.5999999999999</v>
+        <v>1093.98</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2740,115 +2794,115 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="D3">
-        <v>113.3828571428571</v>
+        <v>115.65</v>
       </c>
       <c r="E3">
-        <v>793.6800000000001</v>
+        <v>925.2</v>
       </c>
       <c r="F3">
-        <v>98.2</v>
+        <v>99.7</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="D4">
-        <v>115.5685714285714</v>
+        <v>124.115</v>
       </c>
       <c r="E4">
-        <v>808.98</v>
+        <v>992.92</v>
       </c>
       <c r="F4">
-        <v>90.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="G4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="D5">
-        <v>122.12</v>
+        <v>116.3125</v>
       </c>
       <c r="E5">
-        <v>854.8399999999999</v>
+        <v>930.5</v>
       </c>
       <c r="F5">
-        <v>88.90000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>106.8057142857143</v>
+        <v>113.4525</v>
       </c>
       <c r="E6">
-        <v>747.6400000000001</v>
+        <v>907.62</v>
       </c>
       <c r="F6">
-        <v>52</v>
+        <v>61.2</v>
       </c>
       <c r="G6">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2856,57 +2910,57 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D7">
-        <v>127.2142857142857</v>
+        <v>124.695</v>
       </c>
       <c r="E7">
-        <v>890.5000000000001</v>
+        <v>997.5600000000002</v>
       </c>
       <c r="F7">
-        <v>50.5</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G7">
-        <v>2.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
       <c r="C8">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>114.0771428571428</v>
+        <v>102.8175</v>
       </c>
       <c r="E8">
-        <v>798.54</v>
+        <v>822.5400000000001</v>
       </c>
       <c r="F8">
-        <v>49.5</v>
+        <v>37.7</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2914,28 +2968,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D9">
-        <v>109.72</v>
+        <v>108.6375</v>
       </c>
       <c r="E9">
-        <v>768.04</v>
+        <v>869.0999999999999</v>
       </c>
       <c r="F9">
-        <v>25.8</v>
+        <v>22.4</v>
       </c>
       <c r="G9">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2943,115 +2997,115 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D10">
-        <v>104.2228571428571</v>
+        <v>105.9575</v>
       </c>
       <c r="E10">
-        <v>729.5599999999999</v>
+        <v>847.66</v>
       </c>
       <c r="F10">
-        <v>20.9</v>
+        <v>16.8</v>
       </c>
       <c r="G10">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D11">
-        <v>101.1657142857143</v>
+        <v>101.955</v>
       </c>
       <c r="E11">
-        <v>708.16</v>
+        <v>815.64</v>
       </c>
       <c r="F11">
-        <v>14.9</v>
+        <v>16.1</v>
       </c>
       <c r="G11">
-        <v>11.7</v>
+        <v>13.7</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D12">
-        <v>104.3571428571429</v>
+        <v>99.035</v>
       </c>
       <c r="E12">
-        <v>730.5</v>
+        <v>792.28</v>
       </c>
       <c r="F12">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="G12">
-        <v>25.3</v>
+        <v>24.7</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>96.77428571428571</v>
+        <v>103.0525</v>
       </c>
       <c r="E13">
-        <v>677.42</v>
+        <v>824.42</v>
       </c>
       <c r="F13">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="G13">
-        <v>42.3</v>
+        <v>39.1</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3072,16 +3126,16 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3092,16 +3146,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3112,16 +3166,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3129,19 +3183,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3149,19 +3203,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3169,19 +3223,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3189,19 +3243,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3209,19 +3263,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D8">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3229,19 +3283,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D9">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3249,19 +3303,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3269,19 +3323,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>-10</v>
+        <v>-17</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3292,16 +3346,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3312,16 +3366,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>-32</v>
+        <v>-23</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3331,39 +3385,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3388,11 +3445,14 @@
       <c r="H2">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3417,243 +3477,270 @@
       <c r="H3">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>-3</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>-4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>-1</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>-4</v>
+      </c>
+      <c r="H8">
+        <v>-2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-7</v>
+      </c>
+      <c r="D9">
         <v>-6</v>
       </c>
-      <c r="E5">
-        <v>-11</v>
-      </c>
-      <c r="F5">
-        <v>-2</v>
-      </c>
-      <c r="G5">
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9">
         <v>-3</v>
       </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="G9">
+        <v>-5</v>
+      </c>
+      <c r="H9">
+        <v>-10</v>
+      </c>
+      <c r="I9">
+        <v>-3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>-5</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>-4</v>
+      </c>
+      <c r="I10">
+        <v>-7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>-3</v>
-      </c>
-      <c r="C6">
-        <v>-2</v>
-      </c>
-      <c r="D6">
-        <v>-4</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>-2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>-1</v>
       </c>
-      <c r="G7">
-        <v>-4</v>
-      </c>
-      <c r="H7">
-        <v>-2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>-3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>-5</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>-4</v>
-      </c>
-      <c r="I9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10">
+      <c r="E11">
         <v>-7</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>-13</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>-13</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>-9</v>
       </c>
-      <c r="I10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>-7</v>
-      </c>
-      <c r="D11">
-        <v>-6</v>
-      </c>
-      <c r="E11">
-        <v>-4</v>
-      </c>
-      <c r="F11">
-        <v>-3</v>
-      </c>
-      <c r="G11">
-        <v>-5</v>
-      </c>
-      <c r="H11">
-        <v>-10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11">
+        <v>-17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -3678,11 +3765,14 @@
       <c r="H12">
         <v>-12</v>
       </c>
-      <c r="I12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12">
+        <v>-18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3707,8 +3797,11 @@
       <c r="H13">
         <v>-32</v>
       </c>
-      <c r="I13" t="s">
-        <v>103</v>
+      <c r="I13">
+        <v>-23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3718,7 +3811,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3726,25 +3819,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3778,25 +3871,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>-23</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3804,25 +3897,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3830,25 +3923,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3856,25 +3949,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3885,22 +3978,22 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="G7">
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3908,25 +4001,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
       <c r="E8">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3934,25 +4027,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3960,25 +4053,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="F10">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3986,22 +4079,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>-2</v>
+        <v>-13</v>
       </c>
       <c r="F11">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -4012,24 +4105,50 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>-2</v>
+      </c>
+      <c r="F12">
+        <v>-9</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>-4</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>-10</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>6</v>
       </c>
     </row>

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="121">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -60,28 +60,28 @@
     <t>Cans in My Hands</t>
   </si>
   <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>8-0-0</t>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -168,6 +168,9 @@
     <t>Week_9</t>
   </si>
   <si>
+    <t>Week_10</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -192,58 +195,55 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>7-1</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>10.3-3.7</t>
-  </si>
-  <si>
-    <t>10.3-3.6-0.1</t>
-  </si>
-  <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>8.1-5.9-0.1</t>
-  </si>
-  <si>
-    <t>7.1-6.9</t>
-  </si>
-  <si>
-    <t>6.5-7.5-0.1</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>5.7-8.2</t>
-  </si>
-  <si>
-    <t>5.6-8.4</t>
-  </si>
-  <si>
-    <t>5.6-8.3-0.1</t>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>10.5-3.5</t>
+  </si>
+  <si>
+    <t>9.8-4.2</t>
+  </si>
+  <si>
+    <t>8.1-5.8-0.1</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>7.6-6.3</t>
+  </si>
+  <si>
+    <t>6.8-7.2</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>6.4-7.5</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
   </si>
   <si>
     <t>5.0-8.9</t>
   </si>
   <si>
-    <t>4.3-9.7-0.1</t>
+    <t>4.8-9.1</t>
+  </si>
+  <si>
+    <t>3.9-10.1-0.1</t>
   </si>
   <si>
     <t>11-3</t>
@@ -252,9 +252,6 @@
     <t>10-4</t>
   </si>
   <si>
-    <t>9-5</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -282,30 +279,30 @@
     <t>Julia Childres</t>
   </si>
   <si>
+    <t>Zack Gray</t>
+  </si>
+  <si>
     <t>Matthew Stansbury</t>
   </si>
   <si>
-    <t>Zack Gray</t>
-  </si>
-  <si>
     <t>Clayton Kavanaugh</t>
   </si>
   <si>
+    <t>Alex Keene</t>
+  </si>
+  <si>
+    <t>Kyle Bradburry</t>
+  </si>
+  <si>
     <t>Patrick Fennell</t>
   </si>
   <si>
-    <t>Alex Keene</t>
-  </si>
-  <si>
     <t>Lisa Jackson</t>
   </si>
   <si>
     <t>Felipe Gutierrez</t>
   </si>
   <si>
-    <t>Kyle Bradburry</t>
-  </si>
-  <si>
     <t>Mason Dennis</t>
   </si>
   <si>
@@ -315,37 +312,31 @@
     <t>Colman Betler</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑9</t>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -370,6 +361,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -800,25 +794,25 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -830,7 +824,7 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -841,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -850,11 +844,11 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
@@ -862,7 +856,7 @@
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -882,7 +876,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -891,19 +885,19 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -923,31 +917,31 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -1005,7 +999,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1043,40 +1037,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="K8" t="s">
         <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1087,28 +1081,28 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -1128,7 +1122,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1140,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1149,7 +1143,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
@@ -1158,7 +1152,7 @@
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1169,37 +1163,37 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
         <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1210,31 +1204,31 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1248,40 +1242,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
       <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
         <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1316,10 +1310,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.25</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1327,13 +1321,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3.25</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1341,13 +1335,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>3.583333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1355,10 +1349,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3.666666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1369,13 +1363,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>3.916666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1383,13 +1377,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4.083333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1397,13 +1391,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4.25</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1411,13 +1405,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1428,10 +1422,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.583333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1442,10 +1436,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4.583333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1453,13 +1447,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>4.75</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1467,13 +1461,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>4.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1511,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.666666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D2">
-        <v>0.666666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1528,13 +1522,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1545,10 +1539,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1562,13 +1556,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>4.833333333333333</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>-2.166666666666667</v>
+        <v>-2</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1579,13 +1573,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>4.583333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.416666666666667</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1593,16 +1587,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>3.75</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.25</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1610,16 +1604,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1627,16 +1621,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3.416666666666667</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D9">
-        <v>0.4166666666666665</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1644,16 +1638,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>2.833333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D10">
-        <v>-1.166666666666667</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1661,16 +1655,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2.833333333333333</v>
+        <v>3.25</v>
       </c>
       <c r="D11">
-        <v>-0.1666666666666665</v>
+        <v>1.25</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1681,13 +1675,13 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>2.75</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D12">
-        <v>-0.25</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1695,13 +1689,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>2.583333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D13">
-        <v>0.5833333333333335</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1769,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C2">
-        <v>30.5</v>
+        <v>18.3</v>
       </c>
       <c r="D2">
-        <v>9.6</v>
+        <v>3.6</v>
       </c>
       <c r="E2">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="F2">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
         <v>0.3</v>
@@ -1813,28 +1807,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>34.2</v>
+        <v>19.1</v>
       </c>
       <c r="C3">
-        <v>38.4</v>
+        <v>47.1</v>
       </c>
       <c r="D3">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="E3">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F3">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="G3">
+        <v>2.1</v>
+      </c>
+      <c r="H3">
         <v>0.8</v>
       </c>
-      <c r="H3">
-        <v>0.3</v>
-      </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1849,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99.7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1857,43 +1851,43 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="C4">
-        <v>18.9</v>
+        <v>15.5</v>
       </c>
       <c r="D4">
-        <v>35.4</v>
+        <v>29.4</v>
       </c>
       <c r="E4">
-        <v>19.8</v>
+        <v>20.6</v>
       </c>
       <c r="F4">
-        <v>11.1</v>
+        <v>13.1</v>
       </c>
       <c r="G4">
-        <v>5.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H4">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="I4">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="J4">
+        <v>1.6</v>
+      </c>
+      <c r="K4">
+        <v>0.2</v>
+      </c>
+      <c r="L4">
+        <v>0.2</v>
+      </c>
+      <c r="M4">
         <v>0.1</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
-        <v>96.2</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1901,43 +1895,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="C5">
-        <v>8.699999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="D5">
-        <v>18.4</v>
+        <v>12.6</v>
       </c>
       <c r="E5">
-        <v>23.9</v>
+        <v>15.9</v>
       </c>
       <c r="F5">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="G5">
-        <v>11.9</v>
+        <v>16.2</v>
       </c>
       <c r="H5">
-        <v>7.9</v>
+        <v>14.3</v>
       </c>
       <c r="I5">
-        <v>3.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J5">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="K5">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>86.2</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1945,43 +1939,43 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="D6">
-        <v>8.300000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="E6">
-        <v>17.1</v>
+        <v>19.2</v>
       </c>
       <c r="F6">
-        <v>16.6</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>16.9</v>
+        <v>14.7</v>
       </c>
       <c r="H6">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="I6">
-        <v>10.4</v>
+        <v>7.9</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="K6">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="M6">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
-        <v>61.2</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1989,43 +1983,43 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
       <c r="F7">
-        <v>17.5</v>
+        <v>14.4</v>
       </c>
       <c r="G7">
-        <v>20.1</v>
+        <v>18.7</v>
       </c>
       <c r="H7">
-        <v>16.6</v>
+        <v>16.1</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12.3</v>
       </c>
       <c r="J7">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L7">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="M7">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="N7">
-        <v>57.1</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2033,43 +2027,43 @@
         <v>4</v>
       </c>
       <c r="B8">
+        <v>0.6</v>
+      </c>
+      <c r="C8">
+        <v>3.9</v>
+      </c>
+      <c r="D8">
+        <v>10.2</v>
+      </c>
+      <c r="E8">
+        <v>11.9</v>
+      </c>
+      <c r="F8">
+        <v>15.2</v>
+      </c>
+      <c r="G8">
+        <v>12.8</v>
+      </c>
+      <c r="H8">
+        <v>15.9</v>
+      </c>
+      <c r="I8">
+        <v>14.4</v>
+      </c>
+      <c r="J8">
+        <v>8.9</v>
+      </c>
+      <c r="K8">
+        <v>4.7</v>
+      </c>
+      <c r="L8">
+        <v>1.4</v>
+      </c>
+      <c r="M8">
         <v>0.1</v>
       </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>13.4</v>
-      </c>
-      <c r="G8">
-        <v>13.7</v>
-      </c>
-      <c r="H8">
-        <v>14.8</v>
-      </c>
-      <c r="I8">
-        <v>13.6</v>
-      </c>
-      <c r="J8">
-        <v>12.9</v>
-      </c>
-      <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8">
-        <v>7.6</v>
-      </c>
-      <c r="M8">
-        <v>4.4</v>
-      </c>
       <c r="N8">
-        <v>37.7</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2077,43 +2071,43 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="E9">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G9">
-        <v>11.4</v>
+        <v>14.9</v>
       </c>
       <c r="H9">
-        <v>13.8</v>
+        <v>15.7</v>
       </c>
       <c r="I9">
-        <v>15.6</v>
+        <v>18.3</v>
       </c>
       <c r="J9">
         <v>16.5</v>
       </c>
       <c r="K9">
-        <v>14.3</v>
+        <v>9.1</v>
       </c>
       <c r="L9">
-        <v>10.7</v>
+        <v>4.1</v>
       </c>
       <c r="M9">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>22.4</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2124,40 +2118,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="E10">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="F10">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="G10">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>11.7</v>
       </c>
       <c r="I10">
-        <v>16.3</v>
+        <v>18.4</v>
       </c>
       <c r="J10">
-        <v>15.4</v>
+        <v>23.1</v>
       </c>
       <c r="K10">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="L10">
-        <v>12.2</v>
+        <v>10.2</v>
       </c>
       <c r="M10">
-        <v>9.9</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>16.8</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2165,43 +2159,43 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="G11">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H11">
-        <v>10.8</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>12.4</v>
+        <v>8.1</v>
       </c>
       <c r="J11">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="K11">
-        <v>15.2</v>
+        <v>24.5</v>
       </c>
       <c r="L11">
-        <v>16.3</v>
+        <v>23.1</v>
       </c>
       <c r="M11">
-        <v>13.7</v>
+        <v>23.2</v>
       </c>
       <c r="N11">
-        <v>16.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2215,37 +2209,37 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F12">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="G12">
+        <v>1.4</v>
+      </c>
+      <c r="H12">
         <v>3.1</v>
       </c>
-      <c r="H12">
-        <v>5.7</v>
-      </c>
       <c r="I12">
-        <v>10.6</v>
+        <v>4.9</v>
       </c>
       <c r="J12">
-        <v>13.6</v>
+        <v>10.3</v>
       </c>
       <c r="K12">
-        <v>17.2</v>
+        <v>21.2</v>
       </c>
       <c r="L12">
-        <v>23.1</v>
+        <v>31.7</v>
       </c>
       <c r="M12">
-        <v>24.7</v>
+        <v>26.8</v>
       </c>
       <c r="N12">
-        <v>5.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2265,31 +2259,31 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
         <v>0.5</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="I13">
-        <v>6.3</v>
+        <v>2.8</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="K13">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="L13">
-        <v>24.6</v>
+        <v>27.1</v>
       </c>
       <c r="M13">
-        <v>39.1</v>
+        <v>46.4</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2299,13 +2293,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2333,389 +2327,428 @@
       <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>68.7</v>
       </c>
       <c r="C2">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D2">
         <v>97.89999999999999</v>
       </c>
       <c r="E2">
-        <v>93.8</v>
+        <v>95.5</v>
       </c>
       <c r="F2">
-        <v>97.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="G2">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H2">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>91</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C3">
         <v>99</v>
       </c>
       <c r="D3">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E3">
-        <v>98.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="F3">
-        <v>98.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="G3">
-        <v>94.5</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="H3">
-        <v>97.8</v>
+        <v>97</v>
       </c>
       <c r="I3">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J3">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="K3">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>37.8</v>
+        <v>36.4</v>
       </c>
       <c r="C4">
-        <v>83</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D4">
-        <v>72.5</v>
+        <v>74.5</v>
       </c>
       <c r="E4">
-        <v>30.9</v>
+        <v>29.9</v>
       </c>
       <c r="F4">
-        <v>44</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="G4">
-        <v>74.7</v>
+        <v>71.5</v>
       </c>
       <c r="H4">
-        <v>86.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="I4">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="J4">
-        <v>96.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="K4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>8.5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>5.3</v>
+      </c>
+      <c r="E5">
+        <v>34.7</v>
+      </c>
+      <c r="F5">
+        <v>43.7</v>
+      </c>
+      <c r="G5">
+        <v>77.60000000000001</v>
+      </c>
+      <c r="H5">
+        <v>51.6</v>
+      </c>
+      <c r="I5">
+        <v>68.89999999999999</v>
+      </c>
+      <c r="J5">
+        <v>67</v>
+      </c>
+      <c r="K5">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>87.3</v>
-      </c>
-      <c r="C5">
-        <v>70.89999999999999</v>
-      </c>
-      <c r="D5">
-        <v>86.5</v>
-      </c>
-      <c r="E5">
-        <v>96.3</v>
-      </c>
-      <c r="F5">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="G5">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="H5">
-        <v>90</v>
-      </c>
-      <c r="I5">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="J5">
+      <c r="B6">
         <v>87.09999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>9.300000000000001</v>
-      </c>
       <c r="C6">
-        <v>0</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D6">
-        <v>4.5</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="E6">
-        <v>35.6</v>
+        <v>96.8</v>
       </c>
       <c r="F6">
-        <v>47.5</v>
+        <v>98.5</v>
       </c>
       <c r="G6">
-        <v>73</v>
+        <v>93.8</v>
       </c>
       <c r="H6">
-        <v>51.9</v>
+        <v>87.8</v>
       </c>
       <c r="I6">
-        <v>67.30000000000001</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="J6">
-        <v>64.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>68.2</v>
+      </c>
+      <c r="K6">
+        <v>69.39999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7">
-        <v>96.8</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="E7">
-        <v>94.19999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="F7">
-        <v>73.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="G7">
-        <v>59.09999999999999</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="H7">
-        <v>50.5</v>
+        <v>48.5</v>
       </c>
       <c r="I7">
-        <v>61.3</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="J7">
-        <v>53.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>59.7</v>
+      </c>
+      <c r="K7">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>67.80000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="C8">
-        <v>27.4</v>
+        <v>24.3</v>
       </c>
       <c r="D8">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>21.1</v>
+        <v>25.4</v>
       </c>
       <c r="F8">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="G8">
-        <v>29.4</v>
+        <v>32.6</v>
       </c>
       <c r="H8">
-        <v>52.40000000000001</v>
+        <v>52.7</v>
       </c>
       <c r="I8">
-        <v>34.8</v>
+        <v>35.7</v>
       </c>
       <c r="J8">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>56.59999999999999</v>
+      </c>
+      <c r="K8">
+        <v>56.10000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>19.3</v>
       </c>
       <c r="D9">
-        <v>63.5</v>
+        <v>60.8</v>
       </c>
       <c r="E9">
-        <v>37.7</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>59.09999999999999</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>22.3</v>
       </c>
       <c r="H9">
-        <v>26.8</v>
+        <v>29.1</v>
       </c>
       <c r="I9">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="J9">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>35.3</v>
+      </c>
+      <c r="K9">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="C10">
-        <v>33.4</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="D10">
-        <v>33.7</v>
+        <v>32.2</v>
       </c>
       <c r="E10">
-        <v>46.3</v>
+        <v>44.5</v>
       </c>
       <c r="F10">
-        <v>53.5</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="G10">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="H10">
-        <v>22.6</v>
+        <v>21.5</v>
       </c>
       <c r="I10">
+        <v>15.7</v>
+      </c>
+      <c r="J10">
+        <v>19.8</v>
+      </c>
+      <c r="K10">
         <v>15.8</v>
       </c>
-      <c r="J10">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>96.89999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C11">
-        <v>67.2</v>
+        <v>67.7</v>
       </c>
       <c r="D11">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="E11">
-        <v>10.3</v>
+        <v>10.9</v>
       </c>
       <c r="F11">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="G11">
-        <v>7.5</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="H11">
-        <v>4.399999999999999</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="I11">
-        <v>14.6</v>
+        <v>16.2</v>
       </c>
       <c r="J11">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>4.8</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.3</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="E12">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="F12">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="G12">
-        <v>6.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="H12">
-        <v>14.5</v>
+        <v>18.6</v>
       </c>
       <c r="I12">
-        <v>7.1</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="J12">
-        <v>6.800000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>1.3</v>
+      </c>
+      <c r="K12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>31.1</v>
+        <v>36.8</v>
       </c>
       <c r="C13">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="D13">
+        <v>1.8</v>
+      </c>
+      <c r="E13">
+        <v>29.7</v>
+      </c>
+      <c r="F13">
+        <v>15.5</v>
+      </c>
+      <c r="G13">
+        <v>9.1</v>
+      </c>
+      <c r="H13">
         <v>3.5</v>
       </c>
-      <c r="D13">
-        <v>2.3</v>
-      </c>
-      <c r="E13">
-        <v>31.7</v>
-      </c>
-      <c r="F13">
-        <v>13.1</v>
-      </c>
-      <c r="G13">
-        <v>8.9</v>
-      </c>
-      <c r="H13">
-        <v>2.8</v>
-      </c>
       <c r="I13">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J13">
-        <v>1.8</v>
+        <v>0.8</v>
+      </c>
+      <c r="K13">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2736,28 +2769,28 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2765,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D2">
-        <v>136.7475</v>
+        <v>134.6822222222222</v>
       </c>
       <c r="E2">
-        <v>1093.98</v>
+        <v>1212.14</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2797,16 +2830,16 @@
         <v>57</v>
       </c>
       <c r="C3">
-        <v>0.875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D3">
-        <v>115.65</v>
+        <v>113.2688888888889</v>
       </c>
       <c r="E3">
-        <v>925.2</v>
+        <v>1019.42</v>
       </c>
       <c r="F3">
-        <v>99.7</v>
+        <v>99</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2826,19 +2859,19 @@
         <v>58</v>
       </c>
       <c r="C4">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D4">
-        <v>124.115</v>
+        <v>123.9644444444445</v>
       </c>
       <c r="E4">
-        <v>992.92</v>
+        <v>1115.68</v>
       </c>
       <c r="F4">
-        <v>96.2</v>
+        <v>89.8</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="s">
         <v>64</v>
@@ -2855,16 +2888,16 @@
         <v>58</v>
       </c>
       <c r="C5">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D5">
-        <v>116.3125</v>
+        <v>115.7711111111111</v>
       </c>
       <c r="E5">
-        <v>930.5</v>
+        <v>1041.94</v>
       </c>
       <c r="F5">
-        <v>86.2</v>
+        <v>71.3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2873,7 +2906,7 @@
         <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2881,28 +2914,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D6">
-        <v>113.4525</v>
+        <v>113.7333333333333</v>
       </c>
       <c r="E6">
-        <v>907.62</v>
+        <v>1023.6</v>
       </c>
       <c r="F6">
-        <v>61.2</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="G6">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H6" t="s">
         <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2910,28 +2943,28 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D7">
-        <v>124.695</v>
+        <v>123.3066666666667</v>
       </c>
       <c r="E7">
-        <v>997.5600000000002</v>
+        <v>1109.76</v>
       </c>
       <c r="F7">
-        <v>57.09999999999999</v>
+        <v>58.4</v>
       </c>
       <c r="G7">
-        <v>0.8999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="H7" t="s">
         <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2939,28 +2972,28 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D8">
-        <v>102.8175</v>
+        <v>108.6355555555556</v>
       </c>
       <c r="E8">
-        <v>822.5400000000001</v>
+        <v>977.72</v>
       </c>
       <c r="F8">
-        <v>37.7</v>
+        <v>54.6</v>
       </c>
       <c r="G8">
-        <v>4.399999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="H8" t="s">
         <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2968,28 +3001,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D9">
-        <v>108.6375</v>
+        <v>113.0288888888889</v>
       </c>
       <c r="E9">
-        <v>869.0999999999999</v>
+        <v>1017.26</v>
       </c>
       <c r="F9">
-        <v>22.4</v>
+        <v>35.3</v>
       </c>
       <c r="G9">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2997,28 +3030,28 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D10">
-        <v>105.9575</v>
+        <v>105.6422222222222</v>
       </c>
       <c r="E10">
-        <v>847.66</v>
+        <v>950.78</v>
       </c>
       <c r="F10">
-        <v>16.8</v>
+        <v>16.2</v>
       </c>
       <c r="G10">
-        <v>9.9</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="s">
         <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3029,25 +3062,25 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>101.955</v>
+        <v>99.19999999999999</v>
       </c>
       <c r="E11">
-        <v>815.64</v>
+        <v>892.8</v>
       </c>
       <c r="F11">
-        <v>16.1</v>
+        <v>2.6</v>
       </c>
       <c r="G11">
-        <v>13.7</v>
+        <v>23.2</v>
       </c>
       <c r="H11" t="s">
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3058,25 +3091,25 @@
         <v>60</v>
       </c>
       <c r="C12">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>99.035</v>
+        <v>96.76444444444445</v>
       </c>
       <c r="E12">
-        <v>792.28</v>
+        <v>870.88</v>
       </c>
       <c r="F12">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>24.7</v>
+        <v>26.8</v>
       </c>
       <c r="H12" t="s">
         <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3087,25 +3120,25 @@
         <v>61</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D13">
-        <v>103.0525</v>
+        <v>105.1933333333333</v>
       </c>
       <c r="E13">
-        <v>824.42</v>
+        <v>946.74</v>
       </c>
       <c r="F13">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="G13">
-        <v>39.1</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="H13" t="s">
         <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3126,16 +3159,16 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3146,16 +3179,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3163,19 +3196,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3183,19 +3216,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3206,16 +3239,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3223,19 +3256,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3243,19 +3276,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3263,19 +3296,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3283,19 +3316,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3303,19 +3336,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3326,16 +3359,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11">
-        <v>-17</v>
+        <v>-8</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3346,16 +3379,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>-18</v>
+        <v>-22</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3366,16 +3399,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13">
-        <v>-23</v>
+        <v>-32</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3385,42 +3418,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3448,75 +3484,84 @@
       <c r="I2">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-6</v>
+      </c>
+      <c r="E3">
+        <v>-11</v>
+      </c>
+      <c r="F3">
+        <v>-2</v>
+      </c>
+      <c r="G3">
+        <v>-3</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>15</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>22</v>
       </c>
-      <c r="I3">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>-6</v>
-      </c>
-      <c r="E4">
-        <v>-11</v>
-      </c>
-      <c r="F4">
-        <v>-2</v>
-      </c>
-      <c r="G4">
-        <v>-3</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3544,171 +3589,189 @@
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>-4</v>
+      </c>
+      <c r="I7">
+        <v>-7</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>11</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>-3</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J8">
+        <v>-2</v>
+      </c>
+      <c r="K8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>-4</v>
+      </c>
+      <c r="H9">
+        <v>-2</v>
+      </c>
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="J9">
+        <v>-5</v>
+      </c>
+      <c r="K9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-      <c r="G8">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-7</v>
+      </c>
+      <c r="D10">
+        <v>-6</v>
+      </c>
+      <c r="E10">
         <v>-4</v>
       </c>
-      <c r="H8">
-        <v>-2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>-7</v>
-      </c>
-      <c r="D9">
-        <v>-6</v>
-      </c>
-      <c r="E9">
-        <v>-4</v>
-      </c>
-      <c r="F9">
+      <c r="F10">
         <v>-3</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-5</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-10</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>-3</v>
       </c>
-      <c r="J9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
+      <c r="J10">
         <v>-5</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>-4</v>
-      </c>
-      <c r="I10">
-        <v>-7</v>
-      </c>
-      <c r="J10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3736,11 +3799,14 @@
       <c r="I11">
         <v>-17</v>
       </c>
-      <c r="J11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11">
+        <v>-8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -3768,11 +3834,14 @@
       <c r="I12">
         <v>-18</v>
       </c>
-      <c r="J12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12">
+        <v>-22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3800,8 +3869,11 @@
       <c r="I13">
         <v>-23</v>
       </c>
-      <c r="J13" t="s">
-        <v>107</v>
+      <c r="J13">
+        <v>-32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3811,7 +3883,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3819,25 +3891,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3897,25 +3969,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3923,25 +3995,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3949,25 +4021,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3975,25 +4047,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4001,25 +4073,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4027,25 +4099,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
         <v>-4</v>
       </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
       <c r="G9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4053,25 +4125,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4079,25 +4151,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>-4</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>-13</v>
-      </c>
-      <c r="F11">
-        <v>-5</v>
-      </c>
       <c r="G11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4105,51 +4177,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F12">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>-4</v>
-      </c>
-      <c r="F13">
-        <v>-10</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="127">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -60,28 +60,31 @@
     <t>Cans in My Hands</t>
   </si>
   <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -171,6 +174,9 @@
     <t>Week_10</t>
   </si>
   <si>
+    <t>Week_11</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -195,55 +201,58 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>10.5-3.5</t>
-  </si>
-  <si>
-    <t>9.8-4.2</t>
-  </si>
-  <si>
-    <t>8.1-5.8-0.1</t>
-  </si>
-  <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>7.6-6.3</t>
-  </si>
-  <si>
-    <t>6.8-7.2</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>6.4-7.5</t>
-  </si>
-  <si>
-    <t>6.0-8.0</t>
-  </si>
-  <si>
-    <t>5.0-8.9</t>
-  </si>
-  <si>
-    <t>4.8-9.1</t>
-  </si>
-  <si>
-    <t>3.9-10.1-0.1</t>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>10.9-3.1</t>
+  </si>
+  <si>
+    <t>10.1-3.8</t>
+  </si>
+  <si>
+    <t>8.5-5.5</t>
+  </si>
+  <si>
+    <t>8.2-5.7</t>
+  </si>
+  <si>
+    <t>7.9-6.1</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>7.2-6.7</t>
+  </si>
+  <si>
+    <t>5.9-8.1</t>
+  </si>
+  <si>
+    <t>5.4-8.6</t>
+  </si>
+  <si>
+    <t>4.7-9.3</t>
+  </si>
+  <si>
+    <t>4.6-9.4</t>
+  </si>
+  <si>
+    <t>3.4-10.5</t>
   </si>
   <si>
     <t>11-3</t>
@@ -252,6 +261,9 @@
     <t>10-4</t>
   </si>
   <si>
+    <t>9-5</t>
+  </si>
+  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>4-10</t>
   </si>
   <si>
+    <t>3-11</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -294,15 +309,15 @@
     <t>Kyle Bradburry</t>
   </si>
   <si>
+    <t>Felipe Gutierrez</t>
+  </si>
+  <si>
     <t>Patrick Fennell</t>
   </si>
   <si>
     <t>Lisa Jackson</t>
   </si>
   <si>
-    <t>Felipe Gutierrez</t>
-  </si>
-  <si>
     <t>Mason Dennis</t>
   </si>
   <si>
@@ -312,33 +327,33 @@
     <t>Colman Betler</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑7</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -364,6 +379,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -794,37 +812,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -835,37 +853,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -876,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -885,25 +903,25 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -914,40 +932,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -958,37 +976,37 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -996,25 +1014,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -1023,13 +1041,13 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1037,19 +1055,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1058,19 +1076,19 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1078,37 +1096,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1119,16 +1137,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1140,19 +1158,19 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1160,40 +1178,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
       </c>
       <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
         <v>14</v>
-      </c>
-      <c r="M11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1201,40 +1219,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1242,37 +1260,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
         <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
         <v>13</v>
@@ -1293,13 +1311,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1310,10 +1328,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.333333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1321,13 +1339,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>4.166666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1335,13 +1353,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4.166666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1349,13 +1367,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>4.25</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1363,13 +1381,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.416666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1377,10 +1395,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1391,13 +1409,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>4.666666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1405,13 +1423,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1422,7 +1440,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1433,13 +1451,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>5.166666666666667</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1447,13 +1465,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>5.333333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1464,7 +1482,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.5</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1485,16 +1503,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1505,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.333333333333333</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D2">
-        <v>0.333333333333333</v>
+        <v>0.1666666666666661</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1522,10 +1540,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1539,13 +1557,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="D4">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1556,10 +1574,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D5">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1573,13 +1591,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>4.916666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D6">
-        <v>-0.08333333333333304</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1587,16 +1605,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4.416666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D7">
-        <v>0.416666666666667</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1604,16 +1622,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4.333333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="D8">
-        <v>-0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1624,10 +1642,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>3.833333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D9">
-        <v>-1.166666666666667</v>
+        <v>-1.583333333333333</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1647,7 +1665,7 @@
         <v>-0.25</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1658,13 +1676,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D11">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1675,10 +1693,10 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>2.833333333333333</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>-0.1666666666666665</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1692,10 +1710,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.833333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D13">
-        <v>-0.1666666666666665</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1716,46 +1734,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1763,22 +1781,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>76.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="C2">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
       <c r="D2">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="E2">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1807,28 +1825,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>19.1</v>
+        <v>16.7</v>
       </c>
       <c r="C3">
-        <v>47.1</v>
+        <v>54.5</v>
       </c>
       <c r="D3">
-        <v>17.6</v>
+        <v>16.1</v>
       </c>
       <c r="E3">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="F3">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="G3">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1843,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1851,131 +1869,131 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="C4">
-        <v>15.5</v>
+        <v>14.4</v>
       </c>
       <c r="D4">
-        <v>29.4</v>
+        <v>36.6</v>
       </c>
       <c r="E4">
-        <v>20.6</v>
+        <v>22.2</v>
       </c>
       <c r="F4">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="G4">
-        <v>8.699999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="H4">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="I4">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="J4">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>89.8</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D5">
+        <v>21.5</v>
+      </c>
+      <c r="E5">
+        <v>24.7</v>
+      </c>
+      <c r="F5">
+        <v>20.6</v>
+      </c>
+      <c r="G5">
+        <v>10.8</v>
+      </c>
+      <c r="H5">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.1</v>
-      </c>
-      <c r="C5">
-        <v>6.1</v>
-      </c>
-      <c r="D5">
-        <v>12.6</v>
-      </c>
-      <c r="E5">
-        <v>15.9</v>
-      </c>
-      <c r="F5">
-        <v>19.4</v>
-      </c>
-      <c r="G5">
-        <v>16.2</v>
-      </c>
-      <c r="H5">
-        <v>14.3</v>
-      </c>
-      <c r="I5">
-        <v>9.800000000000001</v>
-      </c>
       <c r="J5">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="L5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>71.3</v>
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0.2</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>12.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E6">
-        <v>19.2</v>
+        <v>16.1</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>22.1</v>
       </c>
       <c r="G6">
-        <v>14.7</v>
+        <v>21.4</v>
       </c>
       <c r="H6">
-        <v>12.8</v>
+        <v>16.9</v>
       </c>
       <c r="I6">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="J6">
-        <v>6.3</v>
+        <v>2.2</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="L6">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>70.2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1983,87 +2001,87 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E7">
-        <v>12.7</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>14.4</v>
+        <v>17.3</v>
       </c>
       <c r="G7">
-        <v>18.7</v>
+        <v>24.8</v>
       </c>
       <c r="H7">
-        <v>16.1</v>
+        <v>20.3</v>
       </c>
       <c r="I7">
-        <v>12.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J7">
-        <v>8.1</v>
+        <v>3.9</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>58.4</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="D8">
-        <v>10.2</v>
+        <v>4.9</v>
       </c>
       <c r="E8">
-        <v>11.9</v>
+        <v>13.6</v>
       </c>
       <c r="F8">
-        <v>15.2</v>
+        <v>19.1</v>
       </c>
       <c r="G8">
-        <v>12.8</v>
+        <v>23.2</v>
       </c>
       <c r="H8">
-        <v>15.9</v>
+        <v>22.3</v>
       </c>
       <c r="I8">
-        <v>14.4</v>
+        <v>10.7</v>
       </c>
       <c r="J8">
-        <v>8.9</v>
+        <v>3.5</v>
       </c>
       <c r="K8">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="L8">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>54.6</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2071,43 +2089,43 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="F9">
-        <v>8.800000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="G9">
-        <v>14.9</v>
+        <v>7.8</v>
       </c>
       <c r="H9">
-        <v>15.7</v>
+        <v>16.5</v>
       </c>
       <c r="I9">
-        <v>18.3</v>
+        <v>37</v>
       </c>
       <c r="J9">
-        <v>16.5</v>
+        <v>18.4</v>
       </c>
       <c r="K9">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L9">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N9">
-        <v>35.3</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2118,40 +2136,40 @@
         <v>0</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+      <c r="F10">
         <v>0.6</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>2.6</v>
       </c>
-      <c r="F10">
-        <v>4.5</v>
-      </c>
-      <c r="G10">
-        <v>8.300000000000001</v>
-      </c>
       <c r="H10">
-        <v>11.7</v>
+        <v>8.1</v>
       </c>
       <c r="I10">
-        <v>18.4</v>
+        <v>16.7</v>
       </c>
       <c r="J10">
-        <v>23.1</v>
+        <v>33.4</v>
       </c>
       <c r="K10">
-        <v>18.2</v>
+        <v>22.4</v>
       </c>
       <c r="L10">
-        <v>10.2</v>
+        <v>12.4</v>
       </c>
       <c r="M10">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N10">
-        <v>16.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2168,34 +2186,34 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>0.5</v>
       </c>
-      <c r="F11">
-        <v>0.7</v>
-      </c>
-      <c r="G11">
-        <v>1.4</v>
-      </c>
       <c r="H11">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="I11">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="J11">
-        <v>14.5</v>
+        <v>18.6</v>
       </c>
       <c r="K11">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="L11">
-        <v>23.1</v>
+        <v>24.4</v>
       </c>
       <c r="M11">
-        <v>23.2</v>
+        <v>22.7</v>
       </c>
       <c r="N11">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2212,34 +2230,34 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H12">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="I12">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J12">
-        <v>10.3</v>
+        <v>13.4</v>
       </c>
       <c r="K12">
-        <v>21.2</v>
+        <v>27.4</v>
       </c>
       <c r="L12">
-        <v>31.7</v>
+        <v>32.7</v>
       </c>
       <c r="M12">
-        <v>26.8</v>
+        <v>20.2</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2259,31 +2277,31 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I13">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="J13">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="K13">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="L13">
-        <v>27.1</v>
+        <v>25.7</v>
       </c>
       <c r="M13">
-        <v>46.4</v>
+        <v>53.4</v>
       </c>
       <c r="N13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2293,290 +2311,314 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>68.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C2">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="D2">
         <v>97.3</v>
       </c>
-      <c r="D2">
-        <v>97.89999999999999</v>
-      </c>
       <c r="E2">
-        <v>95.5</v>
+        <v>94.8</v>
       </c>
       <c r="F2">
-        <v>96.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="G2">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="H2">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <v>99.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>91.90000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="C3">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D3">
-        <v>98.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E3">
-        <v>99.3</v>
+        <v>98.2</v>
       </c>
       <c r="F3">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="G3">
-        <v>95.89999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="H3">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>97.7</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
         <v>99.59999999999999</v>
       </c>
-      <c r="J3">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="K3">
-        <v>98.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>36.4</v>
+        <v>37.4</v>
       </c>
       <c r="C4">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="D4">
-        <v>74.5</v>
+        <v>75</v>
       </c>
       <c r="E4">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>46.40000000000001</v>
+        <v>42.5</v>
       </c>
       <c r="G4">
         <v>71.5</v>
       </c>
       <c r="H4">
-        <v>85.8</v>
+        <v>83.8</v>
       </c>
       <c r="I4">
-        <v>96.5</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="J4">
-        <v>88.40000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="L4">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>8.5</v>
+        <v>10.2</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="E5">
-        <v>34.7</v>
+        <v>31.6</v>
       </c>
       <c r="F5">
-        <v>43.7</v>
+        <v>46.8</v>
       </c>
       <c r="G5">
-        <v>77.60000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="H5">
-        <v>51.6</v>
+        <v>52.90000000000001</v>
       </c>
       <c r="I5">
-        <v>68.89999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="J5">
-        <v>67</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="K5">
-        <v>72.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="L5">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>87.09999999999999</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="C6">
-        <v>70.09999999999999</v>
+        <v>24.7</v>
       </c>
       <c r="D6">
-        <v>86.90000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="E6">
-        <v>96.8</v>
+        <v>24.4</v>
       </c>
       <c r="F6">
-        <v>98.5</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G6">
-        <v>93.8</v>
+        <v>31.1</v>
       </c>
       <c r="H6">
-        <v>87.8</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="I6">
-        <v>84.39999999999999</v>
+        <v>36.3</v>
       </c>
       <c r="J6">
-        <v>68.2</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="K6">
-        <v>69.39999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="L6">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7">
-        <v>96.39999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="E7">
-        <v>93.2</v>
+        <v>94</v>
       </c>
       <c r="F7">
-        <v>76</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G7">
-        <v>55.90000000000001</v>
+        <v>59.8</v>
       </c>
       <c r="H7">
-        <v>48.5</v>
+        <v>50.4</v>
       </c>
       <c r="I7">
-        <v>58.59999999999999</v>
+        <v>61.4</v>
       </c>
       <c r="J7">
-        <v>59.7</v>
+        <v>60.4</v>
       </c>
       <c r="K7">
-        <v>59.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="L7">
+        <v>65.60000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>64.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C8">
-        <v>24.3</v>
+        <v>70.7</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E8">
-        <v>25.4</v>
+        <v>96.3</v>
       </c>
       <c r="F8">
-        <v>7.6</v>
+        <v>99</v>
       </c>
       <c r="G8">
-        <v>32.6</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="H8">
-        <v>52.7</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="I8">
-        <v>35.7</v>
+        <v>84.2</v>
       </c>
       <c r="J8">
-        <v>56.59999999999999</v>
+        <v>68.30000000000001</v>
       </c>
       <c r="K8">
-        <v>56.10000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>53.5</v>
+      </c>
+      <c r="L8">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2587,168 +2629,183 @@
         <v>19.3</v>
       </c>
       <c r="D9">
-        <v>60.8</v>
+        <v>58.3</v>
       </c>
       <c r="E9">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="F9">
-        <v>55.50000000000001</v>
+        <v>59.4</v>
       </c>
       <c r="G9">
-        <v>22.3</v>
+        <v>24.6</v>
       </c>
       <c r="H9">
-        <v>29.1</v>
+        <v>26.6</v>
       </c>
       <c r="I9">
-        <v>16.4</v>
+        <v>15.3</v>
       </c>
       <c r="J9">
-        <v>35.3</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="K9">
-        <v>34.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>15.5</v>
+      </c>
+      <c r="L9">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C10">
-        <v>34.59999999999999</v>
+        <v>32.4</v>
       </c>
       <c r="D10">
         <v>32.2</v>
       </c>
       <c r="E10">
-        <v>44.5</v>
+        <v>47.9</v>
       </c>
       <c r="F10">
-        <v>56.99999999999999</v>
+        <v>54.8</v>
       </c>
       <c r="G10">
-        <v>28.5</v>
+        <v>29.9</v>
       </c>
       <c r="H10">
-        <v>21.5</v>
+        <v>23.7</v>
       </c>
       <c r="I10">
-        <v>15.7</v>
+        <v>14.4</v>
       </c>
       <c r="J10">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="K10">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>3.4</v>
+      </c>
+      <c r="L10">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C11">
-        <v>67.7</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="D11">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="E11">
-        <v>10.9</v>
+        <v>11.5</v>
       </c>
       <c r="F11">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="G11">
-        <v>7.399999999999999</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="H11">
+        <v>3.9</v>
+      </c>
+      <c r="I11">
+        <v>14.9</v>
+      </c>
+      <c r="J11">
         <v>4.100000000000001</v>
       </c>
-      <c r="I11">
-        <v>16.2</v>
-      </c>
-      <c r="J11">
-        <v>4.8</v>
-      </c>
       <c r="K11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>1.3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="E12">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="G12">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H12">
-        <v>18.6</v>
+        <v>14.6</v>
       </c>
       <c r="I12">
-        <v>6.600000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="J12">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.6</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>36.8</v>
+        <v>29.9</v>
       </c>
       <c r="C13">
-        <v>4.100000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="D13">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="E13">
-        <v>29.7</v>
+        <v>31.6</v>
       </c>
       <c r="F13">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="G13">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="H13">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="J13">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2766,31 +2823,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2798,16 +2855,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>134.6822222222222</v>
+        <v>136.414</v>
       </c>
       <c r="E2">
-        <v>1212.14</v>
+        <v>1364.14</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2816,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2827,28 +2884,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>113.2688888888889</v>
+        <v>111.396</v>
       </c>
       <c r="E3">
-        <v>1019.42</v>
+        <v>1113.96</v>
       </c>
       <c r="F3">
-        <v>99</v>
+        <v>99.7</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2856,86 +2913,86 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
-        <v>123.9644444444445</v>
+        <v>127.308</v>
       </c>
       <c r="E4">
-        <v>1115.68</v>
+        <v>1273.08</v>
       </c>
       <c r="F4">
-        <v>89.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>115.7711111111111</v>
+        <v>119.18</v>
       </c>
       <c r="E5">
-        <v>1041.94</v>
+        <v>1191.8</v>
       </c>
       <c r="F5">
-        <v>71.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>113.7333333333333</v>
+        <v>107.382</v>
       </c>
       <c r="E6">
-        <v>1023.6</v>
+        <v>1073.82</v>
       </c>
       <c r="F6">
-        <v>70.19999999999999</v>
+        <v>72</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2943,57 +3000,57 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>123.3066666666667</v>
+        <v>123.606</v>
       </c>
       <c r="E7">
-        <v>1109.76</v>
+        <v>1236.06</v>
       </c>
       <c r="F7">
-        <v>58.4</v>
+        <v>65.7</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>108.6355555555556</v>
+        <v>116.652</v>
       </c>
       <c r="E8">
-        <v>977.72</v>
+        <v>1166.52</v>
       </c>
       <c r="F8">
-        <v>54.6</v>
+        <v>62.5</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3001,28 +3058,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>113.0288888888889</v>
+        <v>111.06</v>
       </c>
       <c r="E9">
-        <v>1017.26</v>
+        <v>1110.6</v>
       </c>
       <c r="F9">
-        <v>35.3</v>
+        <v>13.4</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3030,28 +3087,28 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C10">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>105.6422222222222</v>
+        <v>101.452</v>
       </c>
       <c r="E10">
-        <v>950.78</v>
+        <v>1014.52</v>
       </c>
       <c r="F10">
-        <v>16.2</v>
+        <v>3.7</v>
       </c>
       <c r="G10">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3059,28 +3116,28 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>99.19999999999999</v>
+        <v>96.73999999999999</v>
       </c>
       <c r="E11">
-        <v>892.8</v>
+        <v>967.4</v>
       </c>
       <c r="F11">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>23.2</v>
+        <v>22.7</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3088,28 +3145,28 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="D12">
-        <v>96.76444444444445</v>
+        <v>95.55800000000001</v>
       </c>
       <c r="E12">
-        <v>870.88</v>
+        <v>955.58</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="G12">
-        <v>26.8</v>
+        <v>20.2</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3117,28 +3174,28 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C13">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>105.1933333333333</v>
+        <v>103.496</v>
       </c>
       <c r="E13">
-        <v>946.74</v>
+        <v>1034.96</v>
       </c>
       <c r="F13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>46.40000000000001</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3156,19 +3213,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3179,16 +3236,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3199,16 +3256,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3219,16 +3276,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3239,16 +3296,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3259,16 +3316,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3279,16 +3336,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3296,19 +3353,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3316,19 +3373,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3336,19 +3393,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3359,7 +3416,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D11">
         <v>-8</v>
@@ -3368,7 +3425,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3379,7 +3436,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D12">
         <v>-22</v>
@@ -3388,7 +3445,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3399,16 +3456,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>-32</v>
+        <v>-35</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3418,45 +3475,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3487,11 +3547,14 @@
       <c r="J2">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3522,11 +3585,14 @@
       <c r="J3">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3557,11 +3623,14 @@
       <c r="J4">
         <v>13</v>
       </c>
-      <c r="K4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3592,11 +3661,14 @@
       <c r="J5">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3627,11 +3699,14 @@
       <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3662,116 +3737,128 @@
       <c r="J7">
         <v>2</v>
       </c>
-      <c r="K7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
+        <v>-6</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <v>-3</v>
+      </c>
+      <c r="G8">
+        <v>-5</v>
+      </c>
+      <c r="H8">
+        <v>-10</v>
+      </c>
+      <c r="I8">
+        <v>-3</v>
+      </c>
+      <c r="J8">
+        <v>-5</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>-3</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>-2</v>
       </c>
-      <c r="K8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+      <c r="K9">
+        <v>-4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>-2</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-1</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-4</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-2</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>2</v>
-      </c>
-      <c r="J9">
-        <v>-5</v>
-      </c>
-      <c r="K9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-7</v>
-      </c>
-      <c r="D10">
-        <v>-6</v>
-      </c>
-      <c r="E10">
-        <v>-4</v>
-      </c>
-      <c r="F10">
-        <v>-3</v>
-      </c>
-      <c r="G10">
-        <v>-5</v>
-      </c>
-      <c r="H10">
-        <v>-10</v>
-      </c>
-      <c r="I10">
-        <v>-3</v>
       </c>
       <c r="J10">
         <v>-5</v>
       </c>
-      <c r="K10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>-6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3802,11 +3889,14 @@
       <c r="J11">
         <v>-8</v>
       </c>
-      <c r="K11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11">
+        <v>-8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -3837,11 +3927,14 @@
       <c r="J12">
         <v>-22</v>
       </c>
-      <c r="K12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12">
+        <v>-22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3872,8 +3965,11 @@
       <c r="J13">
         <v>-32</v>
       </c>
-      <c r="K13" t="s">
-        <v>104</v>
+      <c r="K13">
+        <v>-35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3883,7 +3979,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3891,25 +3987,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4151,51 +4247,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>-4</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>-1</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12">
         <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="129">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -60,31 +60,34 @@
     <t>Cans in My Hands</t>
   </si>
   <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -177,6 +180,9 @@
     <t>Week_11</t>
   </si>
   <si>
+    <t>Week_12</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -201,87 +207,81 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-2</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>10.9-3.1</t>
-  </si>
-  <si>
-    <t>10.1-3.8</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>8.2-5.7</t>
-  </si>
-  <si>
-    <t>7.9-6.1</t>
-  </si>
-  <si>
-    <t>7.0-7.0</t>
-  </si>
-  <si>
-    <t>7.2-6.7</t>
-  </si>
-  <si>
-    <t>5.9-8.1</t>
-  </si>
-  <si>
-    <t>5.4-8.6</t>
-  </si>
-  <si>
-    <t>4.7-9.3</t>
-  </si>
-  <si>
-    <t>4.6-9.4</t>
-  </si>
-  <si>
-    <t>3.4-10.5</t>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>11.2-2.8</t>
+  </si>
+  <si>
+    <t>10.8-3.2</t>
+  </si>
+  <si>
+    <t>8.9-5.0</t>
+  </si>
+  <si>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
+    <t>6.4-7.5</t>
+  </si>
+  <si>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
+    <t>5.3-8.7</t>
+  </si>
+  <si>
+    <t>5.1-8.9</t>
+  </si>
+  <si>
+    <t>2.8-11.2</t>
+  </si>
+  <si>
+    <t>4.0-9.9</t>
+  </si>
+  <si>
+    <t>12-2</t>
   </si>
   <si>
     <t>11-3</t>
   </si>
   <si>
-    <t>10-4</t>
-  </si>
-  <si>
     <t>9-5</t>
   </si>
   <si>
     <t>8-6</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>5-9</t>
   </si>
   <si>
+    <t>2-12</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
-    <t>3-11</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -300,21 +300,21 @@
     <t>Matthew Stansbury</t>
   </si>
   <si>
+    <t>Alex Keene</t>
+  </si>
+  <si>
+    <t>Kyle Bradburry</t>
+  </si>
+  <si>
     <t>Clayton Kavanaugh</t>
   </si>
   <si>
-    <t>Alex Keene</t>
-  </si>
-  <si>
-    <t>Kyle Bradburry</t>
+    <t>Patrick Fennell</t>
   </si>
   <si>
     <t>Felipe Gutierrez</t>
   </si>
   <si>
-    <t>Patrick Fennell</t>
-  </si>
-  <si>
     <t>Lisa Jackson</t>
   </si>
   <si>
@@ -327,33 +327,36 @@
     <t>Colman Betler</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>↑3</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓1</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -382,6 +385,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -812,16 +818,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -830,19 +836,19 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -853,7 +859,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -862,7 +868,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -871,16 +877,16 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
         <v>15</v>
@@ -894,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -903,25 +909,25 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -941,25 +947,25 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
@@ -973,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -982,31 +988,31 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1014,40 +1020,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1055,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1079,13 +1085,13 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -1096,37 +1102,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
         <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1137,40 +1143,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1181,10 +1187,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1193,22 +1199,22 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -1219,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1228,19 +1234,19 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -1252,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1260,40 +1266,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
         <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
         <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
       </c>
       <c r="K13" t="s">
         <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1311,13 +1317,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1328,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.916666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1342,7 +1348,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>4.25</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1356,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1367,13 +1373,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>4.833333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1381,13 +1387,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5.083333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1395,13 +1401,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.083333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1409,13 +1415,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5.083333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1423,13 +1429,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>5.25</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1437,10 +1443,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1451,13 +1457,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>5.583333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1468,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>5.833333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1482,10 +1488,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.833333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1503,16 +1509,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1523,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.166666666666666</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="D2">
         <v>0.1666666666666661</v>
@@ -1540,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>6.916666666666667</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D3">
-        <v>0.916666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1557,13 +1563,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>6.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D4">
-        <v>1.25</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1574,10 +1580,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>5.5</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D5">
-        <v>-2.5</v>
+        <v>-2.666666666666667</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1588,16 +1594,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1605,16 +1611,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>5.333333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1625,10 +1631,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="D8">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -1642,10 +1648,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>4.416666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D9">
-        <v>-1.583333333333333</v>
+        <v>-2.25</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1659,10 +1665,10 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>3.75</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D10">
-        <v>-0.25</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1676,13 +1682,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>3.5</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D11">
-        <v>1.5</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1690,16 +1696,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>-0.5833333333333335</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1707,13 +1713,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>2.916666666666667</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>-0.08333333333333348</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1734,46 +1740,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1781,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>81.2</v>
+        <v>80.3</v>
       </c>
       <c r="C2">
-        <v>16.8</v>
+        <v>18.1</v>
       </c>
       <c r="D2">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1825,25 +1831,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>16.7</v>
+        <v>18.9</v>
       </c>
       <c r="C3">
-        <v>54.5</v>
+        <v>63.5</v>
       </c>
       <c r="D3">
-        <v>16.1</v>
+        <v>12.1</v>
       </c>
       <c r="E3">
-        <v>7.4</v>
+        <v>4.9</v>
       </c>
       <c r="F3">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="G3">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1861,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1869,31 +1875,31 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="C4">
-        <v>14.4</v>
+        <v>9.6</v>
       </c>
       <c r="D4">
-        <v>36.6</v>
+        <v>44.9</v>
       </c>
       <c r="E4">
-        <v>22.2</v>
+        <v>29.5</v>
       </c>
       <c r="F4">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="G4">
-        <v>7.4</v>
+        <v>2.5</v>
       </c>
       <c r="H4">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1905,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>95.09999999999999</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1913,34 +1919,34 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>21.5</v>
+        <v>33.1</v>
       </c>
       <c r="E5">
-        <v>24.7</v>
+        <v>38.5</v>
       </c>
       <c r="F5">
-        <v>20.6</v>
+        <v>15.5</v>
       </c>
       <c r="G5">
-        <v>10.8</v>
+        <v>3.4</v>
       </c>
       <c r="H5">
-        <v>8.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1949,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>87.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1957,43 +1963,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="D6">
-        <v>9.699999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="E6">
-        <v>16.1</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>22.1</v>
+        <v>44.2</v>
       </c>
       <c r="G6">
-        <v>21.4</v>
+        <v>16.9</v>
       </c>
       <c r="H6">
-        <v>16.9</v>
+        <v>9.1</v>
       </c>
       <c r="I6">
-        <v>8.5</v>
+        <v>1.6</v>
       </c>
       <c r="J6">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>72</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2004,31 +2010,31 @@
         <v>0</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="D7">
-        <v>8.800000000000001</v>
-      </c>
       <c r="E7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>17.3</v>
+        <v>11.6</v>
       </c>
       <c r="G7">
-        <v>24.8</v>
+        <v>36.2</v>
       </c>
       <c r="H7">
-        <v>20.3</v>
+        <v>34.3</v>
       </c>
       <c r="I7">
-        <v>9.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="J7">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2037,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>65.7</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2048,45 +2054,45 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>4.9</v>
+        <v>0.3</v>
       </c>
       <c r="E8">
-        <v>13.6</v>
+        <v>2.9</v>
       </c>
       <c r="F8">
-        <v>19.1</v>
+        <v>15.3</v>
       </c>
       <c r="G8">
-        <v>23.2</v>
+        <v>32.4</v>
       </c>
       <c r="H8">
-        <v>22.3</v>
+        <v>30.2</v>
       </c>
       <c r="I8">
-        <v>10.7</v>
+        <v>13.2</v>
       </c>
       <c r="J8">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>62.5</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2095,42 +2101,42 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3.6</v>
+        <v>0.2</v>
       </c>
       <c r="G9">
-        <v>7.8</v>
+        <v>3.7</v>
       </c>
       <c r="H9">
-        <v>16.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I9">
-        <v>37</v>
+        <v>18.6</v>
       </c>
       <c r="J9">
-        <v>18.4</v>
+        <v>24.9</v>
       </c>
       <c r="K9">
-        <v>9.699999999999999</v>
+        <v>29</v>
       </c>
       <c r="L9">
-        <v>4.6</v>
+        <v>12.4</v>
       </c>
       <c r="M9">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>13.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2139,34 +2145,34 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>0.2</v>
       </c>
-      <c r="E10">
-        <v>0.3</v>
-      </c>
-      <c r="F10">
-        <v>0.6</v>
-      </c>
       <c r="G10">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H10">
-        <v>8.1</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>16.7</v>
+        <v>39.7</v>
       </c>
       <c r="J10">
-        <v>33.4</v>
+        <v>23.9</v>
       </c>
       <c r="K10">
-        <v>22.4</v>
+        <v>17.3</v>
       </c>
       <c r="L10">
-        <v>12.4</v>
+        <v>4.2</v>
       </c>
       <c r="M10">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
         <v>3.7</v>
@@ -2174,7 +2180,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2192,33 +2198,33 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H11">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="I11">
-        <v>7.6</v>
+        <v>14.3</v>
       </c>
       <c r="J11">
-        <v>18.6</v>
+        <v>34.4</v>
       </c>
       <c r="K11">
-        <v>24.1</v>
+        <v>29.5</v>
       </c>
       <c r="L11">
-        <v>24.4</v>
+        <v>13.6</v>
       </c>
       <c r="M11">
-        <v>22.7</v>
+        <v>1.5</v>
       </c>
       <c r="N11">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2236,33 +2242,33 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>13.4</v>
+        <v>1.8</v>
       </c>
       <c r="K12">
-        <v>27.4</v>
+        <v>5.3</v>
       </c>
       <c r="L12">
-        <v>32.7</v>
+        <v>17.7</v>
       </c>
       <c r="M12">
-        <v>20.2</v>
+        <v>75.2</v>
       </c>
       <c r="N12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2283,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I13">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="J13">
-        <v>5.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K13">
-        <v>14</v>
+        <v>17.2</v>
       </c>
       <c r="L13">
-        <v>25.7</v>
+        <v>52.1</v>
       </c>
       <c r="M13">
-        <v>53.4</v>
+        <v>20.1</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2311,74 +2317,77 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>72.09999999999999</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="C2">
-        <v>97.59999999999999</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="D2">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E2">
-        <v>94.8</v>
+        <v>93</v>
       </c>
       <c r="F2">
-        <v>96.5</v>
+        <v>96.7</v>
       </c>
       <c r="G2">
         <v>99.2</v>
       </c>
       <c r="H2">
+        <v>99.7</v>
+      </c>
+      <c r="I2">
         <v>99.90000000000001</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2389,422 +2398,458 @@
       <c r="L2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>91.5</v>
+        <v>90.8</v>
       </c>
       <c r="C3">
-        <v>99.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="D3">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E3">
-        <v>98.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F3">
-        <v>97.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G3">
-        <v>95.5</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="H3">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="J3">
         <v>97.7</v>
       </c>
       <c r="K3">
+        <v>99.5</v>
+      </c>
+      <c r="L3">
         <v>100</v>
       </c>
-      <c r="L3">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11.2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4.2</v>
+      </c>
+      <c r="E4">
+        <v>35.3</v>
+      </c>
+      <c r="F4">
+        <v>44.7</v>
+      </c>
+      <c r="G4">
+        <v>73</v>
+      </c>
+      <c r="H4">
+        <v>50.3</v>
+      </c>
+      <c r="I4">
+        <v>66.10000000000001</v>
+      </c>
+      <c r="J4">
+        <v>69.39999999999999</v>
+      </c>
+      <c r="K4">
+        <v>88.8</v>
+      </c>
+      <c r="L4">
+        <v>97.5</v>
+      </c>
+      <c r="M4">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>37.4</v>
-      </c>
-      <c r="C4">
-        <v>83.7</v>
-      </c>
-      <c r="D4">
-        <v>75</v>
-      </c>
-      <c r="E4">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <v>42.5</v>
-      </c>
-      <c r="G4">
-        <v>71.5</v>
-      </c>
-      <c r="H4">
-        <v>83.8</v>
-      </c>
-      <c r="I4">
+      <c r="B5">
+        <v>39.6</v>
+      </c>
+      <c r="C5">
+        <v>84.5</v>
+      </c>
+      <c r="D5">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="E5">
+        <v>28.3</v>
+      </c>
+      <c r="F5">
+        <v>44.2</v>
+      </c>
+      <c r="G5">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="H5">
+        <v>86.7</v>
+      </c>
+      <c r="I5">
+        <v>95</v>
+      </c>
+      <c r="J5">
+        <v>89.7</v>
+      </c>
+      <c r="K5">
         <v>95.89999999999999</v>
       </c>
-      <c r="J4">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="K4">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="L4">
-        <v>96.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>10.2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>4.2</v>
-      </c>
-      <c r="E5">
-        <v>31.6</v>
-      </c>
-      <c r="F5">
-        <v>46.8</v>
-      </c>
-      <c r="G5">
-        <v>70.8</v>
-      </c>
-      <c r="H5">
-        <v>52.90000000000001</v>
-      </c>
-      <c r="I5">
-        <v>67.7</v>
-      </c>
-      <c r="J5">
-        <v>69.89999999999999</v>
-      </c>
-      <c r="K5">
-        <v>87.90000000000001</v>
-      </c>
       <c r="L5">
-        <v>90.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="M5">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>65.60000000000001</v>
+        <v>62.7</v>
       </c>
       <c r="C6">
-        <v>24.7</v>
+        <v>25.5</v>
       </c>
       <c r="D6">
-        <v>11.5</v>
+        <v>12.3</v>
       </c>
       <c r="E6">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="F6">
+        <v>6.1</v>
+      </c>
+      <c r="G6">
+        <v>29.9</v>
+      </c>
+      <c r="H6">
+        <v>53.1</v>
+      </c>
+      <c r="I6">
+        <v>35.5</v>
+      </c>
+      <c r="J6">
+        <v>56.59999999999999</v>
+      </c>
+      <c r="K6">
+        <v>69.39999999999999</v>
+      </c>
+      <c r="L6">
+        <v>90.2</v>
+      </c>
+      <c r="M6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="C7">
+        <v>68.8</v>
+      </c>
+      <c r="D7">
+        <v>86.7</v>
+      </c>
+      <c r="E7">
+        <v>96.2</v>
+      </c>
+      <c r="F7">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="G7">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="H7">
+        <v>88.8</v>
+      </c>
+      <c r="I7">
+        <v>86.8</v>
+      </c>
+      <c r="J7">
+        <v>68.5</v>
+      </c>
+      <c r="K7">
+        <v>50.5</v>
+      </c>
+      <c r="L7">
+        <v>47.09999999999999</v>
+      </c>
+      <c r="M7">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>97.5</v>
+      </c>
+      <c r="E8">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="F8">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="G8">
+        <v>58.8</v>
+      </c>
+      <c r="H8">
+        <v>51</v>
+      </c>
+      <c r="I8">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="J8">
+        <v>59</v>
+      </c>
+      <c r="K8">
+        <v>73.5</v>
+      </c>
+      <c r="L8">
+        <v>54</v>
+      </c>
+      <c r="M8">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D9">
+        <v>29.2</v>
+      </c>
+      <c r="E9">
+        <v>10.8</v>
+      </c>
+      <c r="F9">
+        <v>2.7</v>
+      </c>
+      <c r="G9">
+        <v>7.1</v>
+      </c>
+      <c r="H9">
+        <v>3.5</v>
+      </c>
+      <c r="I9">
+        <v>16.4</v>
+      </c>
+      <c r="J9">
+        <v>2.6</v>
+      </c>
+      <c r="K9">
+        <v>0.6</v>
+      </c>
+      <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>4.8</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>57.8</v>
+      </c>
+      <c r="E10">
+        <v>38.1</v>
+      </c>
+      <c r="F10">
+        <v>55.90000000000001</v>
+      </c>
+      <c r="G10">
+        <v>19.9</v>
+      </c>
+      <c r="H10">
+        <v>28.3</v>
+      </c>
+      <c r="I10">
+        <v>17.3</v>
+      </c>
+      <c r="J10">
+        <v>34.3</v>
+      </c>
+      <c r="K10">
+        <v>16.8</v>
+      </c>
+      <c r="L10">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="M10">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.7</v>
+      </c>
+      <c r="C11">
+        <v>32.1</v>
+      </c>
+      <c r="D11">
+        <v>33.1</v>
+      </c>
+      <c r="E11">
+        <v>47.3</v>
+      </c>
+      <c r="F11">
+        <v>58.4</v>
+      </c>
+      <c r="G11">
+        <v>31.9</v>
+      </c>
+      <c r="H11">
+        <v>21.7</v>
+      </c>
+      <c r="I11">
+        <v>14.5</v>
+      </c>
+      <c r="J11">
+        <v>20.6</v>
+      </c>
+      <c r="K11">
+        <v>4.5</v>
+      </c>
+      <c r="L11">
+        <v>1.3</v>
+      </c>
+      <c r="M11">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>32.7</v>
+      </c>
+      <c r="C12">
+        <v>3.6</v>
+      </c>
+      <c r="D12">
+        <v>1.9</v>
+      </c>
+      <c r="E12">
+        <v>30.8</v>
+      </c>
+      <c r="F12">
+        <v>14.3</v>
+      </c>
+      <c r="G12">
+        <v>10.4</v>
+      </c>
+      <c r="H12">
+        <v>3.7</v>
+      </c>
+      <c r="I12">
+        <v>1.9</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0.6</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>7.5</v>
+      </c>
+      <c r="E13">
+        <v>3.2</v>
+      </c>
+      <c r="F13">
+        <v>4.8</v>
+      </c>
+      <c r="G13">
+        <v>6.1</v>
+      </c>
+      <c r="H13">
+        <v>15.6</v>
+      </c>
+      <c r="I13">
         <v>7.199999999999999</v>
       </c>
-      <c r="G6">
-        <v>31.1</v>
-      </c>
-      <c r="H6">
-        <v>53.40000000000001</v>
-      </c>
-      <c r="I6">
-        <v>36.3</v>
-      </c>
-      <c r="J6">
-        <v>57.09999999999999</v>
-      </c>
-      <c r="K6">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="L6">
-        <v>72.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>99.8</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>97.7</v>
-      </c>
-      <c r="E7">
-        <v>94</v>
-      </c>
-      <c r="F7">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="G7">
-        <v>59.8</v>
-      </c>
-      <c r="H7">
-        <v>50.4</v>
-      </c>
-      <c r="I7">
-        <v>61.4</v>
-      </c>
-      <c r="J7">
-        <v>60.4</v>
-      </c>
-      <c r="K7">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="L7">
-        <v>65.60000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="C8">
-        <v>70.7</v>
-      </c>
-      <c r="D8">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="E8">
-        <v>96.3</v>
-      </c>
-      <c r="F8">
-        <v>99</v>
-      </c>
-      <c r="G8">
-        <v>94.69999999999999</v>
-      </c>
-      <c r="H8">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="I8">
-        <v>84.2</v>
-      </c>
-      <c r="J8">
-        <v>68.30000000000001</v>
-      </c>
-      <c r="K8">
-        <v>53.5</v>
-      </c>
-      <c r="L8">
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>5.3</v>
-      </c>
-      <c r="C9">
-        <v>19.3</v>
-      </c>
-      <c r="D9">
-        <v>58.3</v>
-      </c>
-      <c r="E9">
-        <v>36.7</v>
-      </c>
-      <c r="F9">
-        <v>59.4</v>
-      </c>
-      <c r="G9">
-        <v>24.6</v>
-      </c>
-      <c r="H9">
-        <v>26.6</v>
-      </c>
-      <c r="I9">
-        <v>15.3</v>
-      </c>
-      <c r="J9">
-        <v>34.59999999999999</v>
-      </c>
-      <c r="K9">
-        <v>15.5</v>
-      </c>
-      <c r="L9">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>2.8</v>
-      </c>
-      <c r="C10">
-        <v>32.4</v>
-      </c>
-      <c r="D10">
-        <v>32.2</v>
-      </c>
-      <c r="E10">
-        <v>47.9</v>
-      </c>
-      <c r="F10">
-        <v>54.8</v>
-      </c>
-      <c r="G10">
-        <v>29.9</v>
-      </c>
-      <c r="H10">
-        <v>23.7</v>
-      </c>
-      <c r="I10">
-        <v>14.4</v>
-      </c>
-      <c r="J10">
-        <v>18.5</v>
-      </c>
-      <c r="K10">
-        <v>3.4</v>
-      </c>
-      <c r="L10">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>97.5</v>
-      </c>
-      <c r="C11">
-        <v>68.10000000000001</v>
-      </c>
-      <c r="D11">
-        <v>27.1</v>
-      </c>
-      <c r="E11">
-        <v>11.5</v>
-      </c>
-      <c r="F11">
-        <v>1.9</v>
-      </c>
-      <c r="G11">
-        <v>5.899999999999999</v>
-      </c>
-      <c r="H11">
-        <v>3.9</v>
-      </c>
-      <c r="I11">
-        <v>14.9</v>
-      </c>
-      <c r="J11">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="K11">
-        <v>1.3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>7.1</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>5.1</v>
-      </c>
-      <c r="G12">
-        <v>7.5</v>
-      </c>
-      <c r="H12">
-        <v>14.6</v>
-      </c>
-      <c r="I12">
-        <v>7.8</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0.6</v>
-      </c>
-      <c r="L12">
+      <c r="J13">
+        <v>1.4</v>
+      </c>
+      <c r="K13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>29.9</v>
-      </c>
-      <c r="C13">
-        <v>3.9</v>
-      </c>
-      <c r="D13">
-        <v>2.1</v>
-      </c>
-      <c r="E13">
-        <v>31.6</v>
-      </c>
-      <c r="F13">
-        <v>14.5</v>
-      </c>
-      <c r="G13">
-        <v>9.5</v>
-      </c>
-      <c r="H13">
-        <v>3.4</v>
-      </c>
-      <c r="I13">
-        <v>2.1</v>
-      </c>
-      <c r="J13">
-        <v>0.3</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
+        <v>0.2</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
     </row>
@@ -2823,31 +2868,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2855,16 +2900,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D2">
-        <v>136.414</v>
+        <v>138.98</v>
       </c>
       <c r="E2">
-        <v>1364.14</v>
+        <v>1528.78</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2873,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
         <v>77</v>
@@ -2884,25 +2929,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D3">
-        <v>111.396</v>
+        <v>114.4672727272727</v>
       </c>
       <c r="E3">
-        <v>1113.96</v>
+        <v>1259.14</v>
       </c>
       <c r="F3">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
         <v>78</v>
@@ -2913,25 +2958,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D4">
-        <v>127.308</v>
+        <v>126.4909090909091</v>
       </c>
       <c r="E4">
-        <v>1273.08</v>
+        <v>1391.4</v>
       </c>
       <c r="F4">
-        <v>95.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
         <v>79</v>
@@ -2942,28 +2987,28 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D5">
-        <v>119.18</v>
+        <v>122.1436363636364</v>
       </c>
       <c r="E5">
-        <v>1191.8</v>
+        <v>1343.58</v>
       </c>
       <c r="F5">
-        <v>87.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2971,25 +3016,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D6">
-        <v>107.382</v>
+        <v>106.7490909090909</v>
       </c>
       <c r="E6">
-        <v>1073.82</v>
+        <v>1174.24</v>
       </c>
       <c r="F6">
-        <v>72</v>
+        <v>89.3</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
         <v>80</v>
@@ -3000,25 +3045,25 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D7">
-        <v>123.606</v>
+        <v>122.6181818181818</v>
       </c>
       <c r="E7">
-        <v>1236.06</v>
+        <v>1348.8</v>
       </c>
       <c r="F7">
-        <v>65.7</v>
+        <v>52.6</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -3029,80 +3074,80 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D8">
-        <v>116.652</v>
+        <v>115.2018181818182</v>
       </c>
       <c r="E8">
-        <v>1166.52</v>
+        <v>1267.22</v>
       </c>
       <c r="F8">
-        <v>62.5</v>
+        <v>50.9</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D9">
-        <v>111.06</v>
+        <v>97.65454545454546</v>
       </c>
       <c r="E9">
-        <v>1110.6</v>
+        <v>1074.2</v>
       </c>
       <c r="F9">
-        <v>13.4</v>
+        <v>3.9</v>
       </c>
       <c r="G9">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D10">
-        <v>101.452</v>
+        <v>110.6836363636364</v>
       </c>
       <c r="E10">
-        <v>1014.52</v>
+        <v>1217.52</v>
       </c>
       <c r="F10">
         <v>3.7</v>
       </c>
       <c r="G10">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H10" t="s">
         <v>73</v>
@@ -3113,25 +3158,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D11">
-        <v>96.73999999999999</v>
+        <v>99.71454545454544</v>
       </c>
       <c r="E11">
-        <v>967.4</v>
+        <v>1096.86</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="G11">
-        <v>22.7</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="s">
         <v>74</v>
@@ -3142,25 +3187,25 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12">
-        <v>0.3</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D12">
-        <v>95.55800000000001</v>
+        <v>101.2018181818182</v>
       </c>
       <c r="E12">
-        <v>955.58</v>
+        <v>1113.22</v>
       </c>
       <c r="F12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>20.2</v>
+        <v>75.2</v>
       </c>
       <c r="H12" t="s">
         <v>75</v>
@@ -3171,25 +3216,25 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D13">
-        <v>103.496</v>
+        <v>93.71636363636365</v>
       </c>
       <c r="E13">
-        <v>1034.96</v>
+        <v>1030.88</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>53.40000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="H13" t="s">
         <v>76</v>
@@ -3213,7 +3258,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>86</v>
@@ -3222,7 +3267,7 @@
         <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>88</v>
@@ -3239,7 +3284,7 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -3259,7 +3304,7 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -3279,10 +3324,10 @@
         <v>91</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>103</v>
@@ -3293,16 +3338,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>92</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>104</v>
@@ -3313,7 +3358,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>93</v>
@@ -3322,10 +3367,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3333,19 +3378,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3353,19 +3398,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>95</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3373,16 +3418,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>96</v>
       </c>
       <c r="D9">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>106</v>
@@ -3399,13 +3444,13 @@
         <v>97</v>
       </c>
       <c r="D10">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3419,7 +3464,7 @@
         <v>98</v>
       </c>
       <c r="D11">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -3439,13 +3484,13 @@
         <v>99</v>
       </c>
       <c r="D12">
-        <v>-22</v>
+        <v>-31</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3459,13 +3504,13 @@
         <v>100</v>
       </c>
       <c r="D13">
-        <v>-35</v>
+        <v>-39</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3475,48 +3520,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3550,11 +3598,14 @@
       <c r="K2">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3588,11 +3639,14 @@
       <c r="K3">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3626,201 +3680,219 @@
       <c r="K4">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
         <v>-4</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>11</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
       <c r="I6">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>-3</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+      <c r="D7">
+        <v>-4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>-2</v>
+      </c>
+      <c r="K8">
+        <v>-4</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-7</v>
+      </c>
+      <c r="D9">
+        <v>-6</v>
+      </c>
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9">
+        <v>-3</v>
+      </c>
+      <c r="G9">
         <v>-5</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>-4</v>
-      </c>
-      <c r="I7">
-        <v>-7</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="H9">
+        <v>-10</v>
+      </c>
+      <c r="I9">
+        <v>-3</v>
+      </c>
+      <c r="J9">
+        <v>-5</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>-7</v>
-      </c>
-      <c r="D8">
-        <v>-6</v>
-      </c>
-      <c r="E8">
-        <v>-4</v>
-      </c>
-      <c r="F8">
-        <v>-3</v>
-      </c>
-      <c r="G8">
-        <v>-5</v>
-      </c>
-      <c r="H8">
-        <v>-10</v>
-      </c>
-      <c r="I8">
-        <v>-3</v>
-      </c>
-      <c r="J8">
-        <v>-5</v>
-      </c>
-      <c r="K8">
-        <v>-1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>-3</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>-2</v>
-      </c>
-      <c r="K9">
-        <v>-4</v>
-      </c>
-      <c r="L9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -3854,11 +3926,14 @@
       <c r="K10">
         <v>-6</v>
       </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10">
+        <v>-5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3892,11 +3967,14 @@
       <c r="K11">
         <v>-8</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11">
+        <v>-15</v>
+      </c>
+      <c r="M11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -3930,11 +4008,14 @@
       <c r="K12">
         <v>-22</v>
       </c>
-      <c r="L12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12">
+        <v>-31</v>
+      </c>
+      <c r="M12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3968,8 +4049,11 @@
       <c r="K13">
         <v>-35</v>
       </c>
-      <c r="L13" t="s">
-        <v>109</v>
+      <c r="L13">
+        <v>-39</v>
+      </c>
+      <c r="M13" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3979,7 +4063,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3987,25 +4071,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4013,22 +4097,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2">
-        <v>-31</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>-39</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -4039,22 +4123,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>-31</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>-23</v>
-      </c>
-      <c r="F3">
-        <v>-3</v>
-      </c>
       <c r="G3">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -4065,25 +4149,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
+        <v>-23</v>
+      </c>
+      <c r="F4">
+        <v>-3</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
-      </c>
-      <c r="F4">
-        <v>-8</v>
-      </c>
-      <c r="G4">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4091,25 +4175,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4117,25 +4201,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4143,25 +4227,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4169,25 +4253,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>-13</v>
       </c>
       <c r="G8">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4195,25 +4279,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4224,48 +4308,22 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
         <v>7</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
       <c r="F10">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>-4</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
-    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
-    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
-    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="136">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -183,6 +184,63 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Clayton Kavanaugh</t>
+  </si>
+  <si>
+    <t>Matthew Stansbury</t>
+  </si>
+  <si>
+    <t>Julia Childres</t>
+  </si>
+  <si>
+    <t>Zack Gray</t>
+  </si>
+  <si>
+    <t>Mason Dennis</t>
+  </si>
+  <si>
+    <t>Kyle Bradburry</t>
+  </si>
+  <si>
+    <t>Lisa Jackson</t>
+  </si>
+  <si>
+    <t>Alex Keene</t>
+  </si>
+  <si>
+    <t>David O'Kane</t>
+  </si>
+  <si>
+    <t>Colman Betler</t>
+  </si>
+  <si>
+    <t>Patrick Fennell</t>
+  </si>
+  <si>
+    <t>Felipe Gutierrez</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -225,19 +283,22 @@
     <t>3-8</t>
   </si>
   <si>
-    <t>11.2-2.8</t>
+    <t>11.2-2.7</t>
   </si>
   <si>
     <t>10.8-3.2</t>
   </si>
   <si>
-    <t>8.9-5.0</t>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>8.9-5.1</t>
   </si>
   <si>
     <t>8.3-5.7</t>
   </si>
   <si>
-    <t>6.4-7.5</t>
+    <t>6.4-7.6</t>
   </si>
   <si>
     <t>6.7-7.3</t>
@@ -246,7 +307,7 @@
     <t>5.3-8.7</t>
   </si>
   <si>
-    <t>5.1-8.9</t>
+    <t>5.1-8.8</t>
   </si>
   <si>
     <t>2.8-11.2</t>
@@ -255,9 +316,6 @@
     <t>4.0-9.9</t>
   </si>
   <si>
-    <t>12-2</t>
-  </si>
-  <si>
     <t>11-3</t>
   </si>
   <si>
@@ -276,7 +334,7 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>2-12</t>
+    <t>3-11</t>
   </si>
   <si>
     <t>4-10</t>
@@ -289,42 +347,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Julia Childres</t>
-  </si>
-  <si>
-    <t>Zack Gray</t>
-  </si>
-  <si>
-    <t>Matthew Stansbury</t>
-  </si>
-  <si>
-    <t>Alex Keene</t>
-  </si>
-  <si>
-    <t>Kyle Bradburry</t>
-  </si>
-  <si>
-    <t>Clayton Kavanaugh</t>
-  </si>
-  <si>
-    <t>Patrick Fennell</t>
-  </si>
-  <si>
-    <t>Felipe Gutierrez</t>
-  </si>
-  <si>
-    <t>Lisa Jackson</t>
-  </si>
-  <si>
-    <t>Mason Dennis</t>
-  </si>
-  <si>
-    <t>David O'Kane</t>
-  </si>
-  <si>
-    <t>Colman Betler</t>
   </si>
   <si>
     <t>↑3</t>
@@ -1307,6 +1329,276 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>-39</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>-31</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>-23</v>
+      </c>
+      <c r="F4">
+        <v>-3</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>-8</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-13</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>-4</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
@@ -1787,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>80.3</v>
+        <v>79.5</v>
       </c>
       <c r="C2">
-        <v>18.1</v>
+        <v>19.4</v>
       </c>
       <c r="D2">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="E2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1831,19 +2123,19 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>18.9</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>63.5</v>
+        <v>61.1</v>
       </c>
       <c r="D3">
-        <v>12.1</v>
+        <v>12.9</v>
       </c>
       <c r="E3">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="F3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1875,26 +2167,26 @@
         <v>8</v>
       </c>
       <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>10.4</v>
+      </c>
+      <c r="D4">
+        <v>44.6</v>
+      </c>
+      <c r="E4">
+        <v>31.7</v>
+      </c>
+      <c r="F4">
+        <v>10.1</v>
+      </c>
+      <c r="G4">
+        <v>2.7</v>
+      </c>
+      <c r="H4">
         <v>0.4</v>
       </c>
-      <c r="C4">
-        <v>9.6</v>
-      </c>
-      <c r="D4">
-        <v>44.9</v>
-      </c>
-      <c r="E4">
-        <v>29.5</v>
-      </c>
-      <c r="F4">
-        <v>12.4</v>
-      </c>
-      <c r="G4">
-        <v>2.5</v>
-      </c>
-      <c r="H4">
-        <v>0.7</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -1911,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1922,25 +2214,25 @@
         <v>0.4</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D5">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="E5">
-        <v>38.5</v>
+        <v>38.9</v>
       </c>
       <c r="F5">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="G5">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H5">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1955,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1966,28 +2258,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D6">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>17.3</v>
       </c>
       <c r="F6">
-        <v>44.2</v>
+        <v>46.4</v>
       </c>
       <c r="G6">
-        <v>16.9</v>
+        <v>16.5</v>
       </c>
       <c r="H6">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I6">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1999,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>89.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2013,28 +2305,28 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="F7">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="G7">
-        <v>36.2</v>
+        <v>37.1</v>
       </c>
       <c r="H7">
-        <v>34.3</v>
+        <v>32.3</v>
       </c>
       <c r="I7">
-        <v>10.4</v>
+        <v>9.9</v>
       </c>
       <c r="J7">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="K7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2043,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>52.6</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2057,28 +2349,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E8">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>15.3</v>
+        <v>14.4</v>
       </c>
       <c r="G8">
-        <v>32.4</v>
+        <v>31.9</v>
       </c>
       <c r="H8">
-        <v>30.2</v>
+        <v>32.3</v>
       </c>
       <c r="I8">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="J8">
         <v>4.2</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2087,12 +2379,12 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>50.9</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2107,36 +2399,36 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G9">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H9">
-        <v>8.199999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="I9">
-        <v>18.6</v>
+        <v>37.3</v>
       </c>
       <c r="J9">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="K9">
-        <v>29</v>
+        <v>17.7</v>
       </c>
       <c r="L9">
-        <v>12.4</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="N9">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2151,28 +2443,28 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="I10">
-        <v>39.7</v>
+        <v>20</v>
       </c>
       <c r="J10">
-        <v>23.9</v>
+        <v>25.2</v>
       </c>
       <c r="K10">
-        <v>17.3</v>
+        <v>26.4</v>
       </c>
       <c r="L10">
-        <v>4.2</v>
+        <v>14.9</v>
       </c>
       <c r="M10">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="N10">
         <v>3.7</v>
@@ -2195,31 +2487,31 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H11">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="I11">
-        <v>14.3</v>
+        <v>15.9</v>
       </c>
       <c r="J11">
-        <v>34.4</v>
+        <v>32.7</v>
       </c>
       <c r="K11">
-        <v>29.5</v>
+        <v>33.3</v>
       </c>
       <c r="L11">
-        <v>13.6</v>
+        <v>9.1</v>
       </c>
       <c r="M11">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="N11">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2248,19 +2540,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J12">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="K12">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="L12">
-        <v>17.7</v>
+        <v>21.6</v>
       </c>
       <c r="M12">
-        <v>75.2</v>
+        <v>73.3</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2289,22 +2581,22 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I13">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="J13">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K13">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="L13">
-        <v>52.1</v>
+        <v>49.9</v>
       </c>
       <c r="M13">
-        <v>20.1</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2366,31 +2658,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>71.59999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="C2">
-        <v>97.39999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D2">
-        <v>97.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="E2">
-        <v>93</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="F2">
-        <v>96.7</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="G2">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H2">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>99.90000000000001</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -2407,34 +2699,34 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>90.8</v>
+        <v>92.2</v>
       </c>
       <c r="C3">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="D3">
+        <v>98.2</v>
+      </c>
+      <c r="E3">
         <v>98.09999999999999</v>
       </c>
-      <c r="E3">
-        <v>98.90000000000001</v>
-      </c>
       <c r="F3">
-        <v>98.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G3">
-        <v>95.19999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="H3">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="I3">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="J3">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="K3">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -2445,84 +2737,84 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>11.2</v>
+        <v>37.6</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="D4">
-        <v>4.2</v>
+        <v>75.5</v>
       </c>
       <c r="E4">
-        <v>35.3</v>
+        <v>30.1</v>
       </c>
       <c r="F4">
-        <v>44.7</v>
+        <v>43.5</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="H4">
-        <v>50.3</v>
+        <v>83.8</v>
       </c>
       <c r="I4">
-        <v>66.10000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="J4">
-        <v>69.39999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="K4">
-        <v>88.8</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="L4">
-        <v>97.5</v>
+        <v>99.5</v>
       </c>
       <c r="M4">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>39.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C5">
-        <v>84.5</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>74.59999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="E5">
-        <v>28.3</v>
+        <v>37.6</v>
       </c>
       <c r="F5">
-        <v>44.2</v>
+        <v>47.5</v>
       </c>
       <c r="G5">
-        <v>73.59999999999999</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="H5">
-        <v>86.7</v>
+        <v>53.6</v>
       </c>
       <c r="I5">
-        <v>95</v>
+        <v>67.5</v>
       </c>
       <c r="J5">
-        <v>89.7</v>
+        <v>69.8</v>
       </c>
       <c r="K5">
-        <v>95.89999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="L5">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="M5">
         <v>99.09999999999999</v>
-      </c>
-      <c r="M5">
-        <v>99.2</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2530,40 +2822,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62.7</v>
+        <v>61.9</v>
       </c>
       <c r="C6">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="D6">
-        <v>12.3</v>
+        <v>10.6</v>
       </c>
       <c r="E6">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F6">
-        <v>6.1</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="G6">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="H6">
-        <v>53.1</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="I6">
-        <v>35.5</v>
+        <v>31.3</v>
       </c>
       <c r="J6">
         <v>56.59999999999999</v>
       </c>
       <c r="K6">
-        <v>69.39999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="L6">
-        <v>90.2</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="M6">
-        <v>90</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2571,40 +2863,40 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>86.40000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="C7">
-        <v>68.8</v>
+        <v>72.5</v>
       </c>
       <c r="D7">
-        <v>86.7</v>
+        <v>86</v>
       </c>
       <c r="E7">
-        <v>96.2</v>
+        <v>96</v>
       </c>
       <c r="F7">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G7">
         <v>94.89999999999999</v>
       </c>
       <c r="H7">
-        <v>88.8</v>
+        <v>89</v>
       </c>
       <c r="I7">
-        <v>86.8</v>
+        <v>86.3</v>
       </c>
       <c r="J7">
-        <v>68.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K7">
-        <v>50.5</v>
+        <v>53.2</v>
       </c>
       <c r="L7">
-        <v>47.09999999999999</v>
+        <v>48.3</v>
       </c>
       <c r="M7">
-        <v>51.8</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2618,116 +2910,116 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>97.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E8">
-        <v>93.60000000000001</v>
+        <v>94</v>
       </c>
       <c r="F8">
-        <v>73.90000000000001</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G8">
-        <v>58.8</v>
+        <v>60.9</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>46.8</v>
       </c>
       <c r="I8">
-        <v>60.09999999999999</v>
+        <v>63.8</v>
       </c>
       <c r="J8">
-        <v>59</v>
+        <v>60.4</v>
       </c>
       <c r="K8">
-        <v>73.5</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="L8">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="M8">
-        <v>51.3</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>5.2</v>
       </c>
       <c r="C9">
-        <v>67.90000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="D9">
-        <v>29.2</v>
+        <v>62.2</v>
       </c>
       <c r="E9">
-        <v>10.8</v>
+        <v>38.4</v>
       </c>
       <c r="F9">
-        <v>2.7</v>
+        <v>58.7</v>
       </c>
       <c r="G9">
-        <v>7.1</v>
+        <v>21.3</v>
       </c>
       <c r="H9">
-        <v>3.5</v>
+        <v>28.5</v>
       </c>
       <c r="I9">
-        <v>16.4</v>
+        <v>17.3</v>
       </c>
       <c r="J9">
-        <v>2.6</v>
+        <v>34.4</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>16.1</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>6.7</v>
       </c>
       <c r="M9">
-        <v>3.6</v>
+        <v>4.399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>4.8</v>
+        <v>97.5</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>57.8</v>
+        <v>27.6</v>
       </c>
       <c r="E10">
-        <v>38.1</v>
+        <v>10.3</v>
       </c>
       <c r="F10">
-        <v>55.90000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="G10">
-        <v>19.9</v>
+        <v>6.9</v>
       </c>
       <c r="H10">
-        <v>28.3</v>
+        <v>3.8</v>
       </c>
       <c r="I10">
-        <v>17.3</v>
+        <v>15.5</v>
       </c>
       <c r="J10">
-        <v>34.3</v>
+        <v>4.5</v>
       </c>
       <c r="K10">
-        <v>16.8</v>
+        <v>1.2</v>
       </c>
       <c r="L10">
-        <v>7.000000000000001</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2735,40 +3027,40 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="C11">
-        <v>32.1</v>
+        <v>33.2</v>
       </c>
       <c r="D11">
-        <v>33.1</v>
+        <v>31.9</v>
       </c>
       <c r="E11">
-        <v>47.3</v>
+        <v>43.6</v>
       </c>
       <c r="F11">
-        <v>58.4</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="G11">
-        <v>31.9</v>
+        <v>30.4</v>
       </c>
       <c r="H11">
-        <v>21.7</v>
+        <v>20.7</v>
       </c>
       <c r="I11">
         <v>14.5</v>
       </c>
       <c r="J11">
-        <v>20.6</v>
+        <v>16.1</v>
       </c>
       <c r="K11">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L11">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="M11">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2776,31 +3068,31 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>32.7</v>
+        <v>35.4</v>
       </c>
       <c r="C12">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D12">
         <v>1.9</v>
       </c>
       <c r="E12">
-        <v>30.8</v>
+        <v>30.1</v>
       </c>
       <c r="F12">
-        <v>14.3</v>
+        <v>16.5</v>
       </c>
       <c r="G12">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="H12">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I12">
         <v>1.9</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2817,37 +3109,37 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.5</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="E13">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="F13">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="G13">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="H13">
-        <v>15.6</v>
+        <v>16.7</v>
       </c>
       <c r="I13">
-        <v>7.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="J13">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2867,380 +3159,377 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>101.2</v>
+      </c>
+      <c r="E2">
+        <v>0.182</v>
+      </c>
+      <c r="F2">
+        <v>129.2</v>
+      </c>
+      <c r="G2">
+        <v>0.697</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="C2">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="D2">
+      <c r="D3">
+        <v>122.62</v>
+      </c>
+      <c r="E3">
+        <v>0.455</v>
+      </c>
+      <c r="F3">
+        <v>124.07</v>
+      </c>
+      <c r="G3">
+        <v>0.697</v>
+      </c>
+      <c r="H3">
+        <v>14.7</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
         <v>138.98</v>
       </c>
-      <c r="E2">
-        <v>1528.78</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E4">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="F4">
+        <v>111.5</v>
+      </c>
+      <c r="G4">
+        <v>0.333</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>126.49</v>
+      </c>
+      <c r="E5">
+        <v>0.636</v>
+      </c>
+      <c r="F5">
+        <v>107.84</v>
+      </c>
+      <c r="G5">
+        <v>0.333</v>
+      </c>
+      <c r="H5">
+        <v>4.3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>106.75</v>
+      </c>
+      <c r="E6">
+        <v>0.636</v>
+      </c>
+      <c r="F6">
+        <v>112.51</v>
+      </c>
+      <c r="G6">
+        <v>0.424</v>
+      </c>
+      <c r="H6">
+        <v>3.7</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>110.68</v>
+      </c>
+      <c r="E7">
+        <v>0.364</v>
+      </c>
+      <c r="F7">
+        <v>119.59</v>
+      </c>
+      <c r="G7">
+        <v>0.606</v>
+      </c>
+      <c r="H7">
+        <v>3.7</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>99.70999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.364</v>
+      </c>
+      <c r="F8">
+        <v>115.9</v>
+      </c>
+      <c r="G8">
+        <v>0.697</v>
+      </c>
+      <c r="H8">
+        <v>1.7</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="D9">
+        <v>122.14</v>
+      </c>
+      <c r="E9">
+        <v>0.636</v>
+      </c>
+      <c r="F9">
+        <v>101.87</v>
+      </c>
+      <c r="G9">
+        <v>0.273</v>
+      </c>
+      <c r="H9">
+        <v>-9</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <v>93.72</v>
+      </c>
+      <c r="E10">
+        <v>0.273</v>
+      </c>
+      <c r="F10">
+        <v>111.42</v>
+      </c>
+      <c r="G10">
+        <v>0.606</v>
+      </c>
+      <c r="H10">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="D3">
-        <v>114.4672727272727</v>
-      </c>
-      <c r="E3">
-        <v>1259.14</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D4">
-        <v>126.4909090909091</v>
-      </c>
-      <c r="E4">
-        <v>1391.4</v>
-      </c>
-      <c r="F4">
-        <v>99.3</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>69</v>
       </c>
-      <c r="I4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D5">
-        <v>122.1436363636364</v>
-      </c>
-      <c r="E5">
-        <v>1343.58</v>
-      </c>
-      <c r="F5">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D6">
-        <v>106.7490909090909</v>
-      </c>
-      <c r="E6">
-        <v>1174.24</v>
-      </c>
-      <c r="F6">
-        <v>89.3</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D11">
+        <v>97.65000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.364</v>
+      </c>
+      <c r="F11">
+        <v>106.53</v>
+      </c>
+      <c r="G11">
+        <v>0.364</v>
+      </c>
+      <c r="H11">
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D7">
-        <v>122.6181818181818</v>
-      </c>
-      <c r="E7">
-        <v>1348.8</v>
-      </c>
-      <c r="F7">
-        <v>52.6</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D12">
+        <v>114.47</v>
+      </c>
+      <c r="E12">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="F12">
+        <v>102.88</v>
+      </c>
+      <c r="G12">
+        <v>0.364</v>
+      </c>
+      <c r="H12">
+        <v>-12.3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="D13">
+        <v>115.2</v>
+      </c>
+      <c r="E13">
+        <v>0.455</v>
+      </c>
+      <c r="F13">
+        <v>106.29</v>
+      </c>
+      <c r="G13">
+        <v>0.606</v>
+      </c>
+      <c r="H13">
+        <v>-17.7</v>
+      </c>
+      <c r="I13">
         <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D8">
-        <v>115.2018181818182</v>
-      </c>
-      <c r="E8">
-        <v>1267.22</v>
-      </c>
-      <c r="F8">
-        <v>50.9</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D9">
-        <v>97.65454545454546</v>
-      </c>
-      <c r="E9">
-        <v>1074.2</v>
-      </c>
-      <c r="F9">
-        <v>3.9</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D10">
-        <v>110.6836363636364</v>
-      </c>
-      <c r="E10">
-        <v>1217.52</v>
-      </c>
-      <c r="F10">
-        <v>3.7</v>
-      </c>
-      <c r="G10">
-        <v>0.2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D11">
-        <v>99.71454545454544</v>
-      </c>
-      <c r="E11">
-        <v>1096.86</v>
-      </c>
-      <c r="F11">
-        <v>1.4</v>
-      </c>
-      <c r="G11">
-        <v>1.5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="D12">
-        <v>101.2018181818182</v>
-      </c>
-      <c r="E12">
-        <v>1113.22</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>75.2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D13">
-        <v>93.71636363636365</v>
-      </c>
-      <c r="E13">
-        <v>1030.88</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>20.1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3249,6 +3538,396 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D2">
+        <v>138.98</v>
+      </c>
+      <c r="E2">
+        <v>1528.78</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D3">
+        <v>114.4672727272727</v>
+      </c>
+      <c r="E3">
+        <v>1259.14</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D4">
+        <v>126.4909090909091</v>
+      </c>
+      <c r="E4">
+        <v>1391.4</v>
+      </c>
+      <c r="F4">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D5">
+        <v>122.1436363636364</v>
+      </c>
+      <c r="E5">
+        <v>1343.58</v>
+      </c>
+      <c r="F5">
+        <v>99.3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D6">
+        <v>106.7490909090909</v>
+      </c>
+      <c r="E6">
+        <v>1174.24</v>
+      </c>
+      <c r="F6">
+        <v>89</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D7">
+        <v>122.6181818181818</v>
+      </c>
+      <c r="E7">
+        <v>1348.8</v>
+      </c>
+      <c r="F7">
+        <v>53.2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D8">
+        <v>115.2018181818182</v>
+      </c>
+      <c r="E8">
+        <v>1267.22</v>
+      </c>
+      <c r="F8">
+        <v>49.4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D9">
+        <v>110.6836363636364</v>
+      </c>
+      <c r="E9">
+        <v>1217.52</v>
+      </c>
+      <c r="F9">
+        <v>3.8</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D10">
+        <v>97.65454545454546</v>
+      </c>
+      <c r="E10">
+        <v>1074.2</v>
+      </c>
+      <c r="F10">
+        <v>3.7</v>
+      </c>
+      <c r="G10">
+        <v>2.3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D11">
+        <v>99.71454545454544</v>
+      </c>
+      <c r="E11">
+        <v>1096.86</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D12">
+        <v>101.2018181818182</v>
+      </c>
+      <c r="E12">
+        <v>1113.22</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>73.3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D13">
+        <v>93.71636363636365</v>
+      </c>
+      <c r="E13">
+        <v>1030.88</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -3261,16 +3940,16 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3281,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>40</v>
@@ -3290,7 +3969,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3301,7 +3980,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>19</v>
@@ -3310,7 +3989,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3321,7 +4000,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>17</v>
@@ -3330,7 +4009,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3341,7 +4020,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3350,7 +4029,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3361,7 +4040,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -3370,7 +4049,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3381,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3390,7 +4069,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3401,7 +4080,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3410,7 +4089,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3421,7 +4100,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -3430,7 +4109,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3441,7 +4120,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>-5</v>
@@ -3450,7 +4129,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3461,7 +4140,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>-15</v>
@@ -3470,7 +4149,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3481,7 +4160,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>-31</v>
@@ -3490,7 +4169,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3501,7 +4180,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D13">
         <v>-39</v>
@@ -3510,7 +4189,7 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +4197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -3528,40 +4207,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3602,7 +4281,7 @@
         <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3643,7 +4322,7 @@
         <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3684,7 +4363,7 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3725,7 +4404,7 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3766,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3807,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3848,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3889,7 +4568,7 @@
         <v>-1</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3930,7 +4609,7 @@
         <v>-5</v>
       </c>
       <c r="M10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3971,7 +4650,7 @@
         <v>-15</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4012,7 +4691,7 @@
         <v>-31</v>
       </c>
       <c r="M12" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4053,277 +4732,7 @@
         <v>-39</v>
       </c>
       <c r="M13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>-39</v>
-      </c>
-      <c r="G2">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>-31</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>-23</v>
-      </c>
-      <c r="F4">
-        <v>-3</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>-8</v>
-      </c>
-      <c r="G5">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>-13</v>
-      </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>-4</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="136">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -190,7 +190,7 @@
     <t>Avg_Points_For</t>
   </si>
   <si>
-    <t>Win_Pct</t>
+    <t>Team_Record</t>
   </si>
   <si>
     <t>Avg_Opp_Points_For</t>
@@ -283,37 +283,37 @@
     <t>3-8</t>
   </si>
   <si>
-    <t>11.2-2.7</t>
+    <t>11.2-2.8</t>
   </si>
   <si>
     <t>10.8-3.2</t>
   </si>
   <si>
-    <t>9.0-5.0</t>
-  </si>
-  <si>
     <t>8.9-5.1</t>
   </si>
   <si>
-    <t>8.3-5.7</t>
+    <t>8.9-5.0</t>
+  </si>
+  <si>
+    <t>8.3-5.6</t>
   </si>
   <si>
     <t>6.4-7.6</t>
   </si>
   <si>
-    <t>6.7-7.3</t>
+    <t>6.7-7.2</t>
   </si>
   <si>
     <t>5.3-8.7</t>
   </si>
   <si>
-    <t>5.1-8.8</t>
-  </si>
-  <si>
-    <t>2.8-11.2</t>
-  </si>
-  <si>
-    <t>4.0-9.9</t>
+    <t>5.2-8.8</t>
+  </si>
+  <si>
+    <t>2.9-11.1</t>
+  </si>
+  <si>
+    <t>4.1-9.9</t>
   </si>
   <si>
     <t>11-3</t>
@@ -2079,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>79.5</v>
+        <v>78.8</v>
       </c>
       <c r="C2">
-        <v>19.4</v>
+        <v>20.1</v>
       </c>
       <c r="D2">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2123,19 +2123,19 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="C3">
-        <v>61.1</v>
+        <v>60.6</v>
       </c>
       <c r="D3">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="E3">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="F3">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2164,28 +2164,28 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C4">
-        <v>10.4</v>
+        <v>8.4</v>
       </c>
       <c r="D4">
-        <v>44.6</v>
+        <v>32.5</v>
       </c>
       <c r="E4">
-        <v>31.7</v>
+        <v>37.4</v>
       </c>
       <c r="F4">
-        <v>10.1</v>
+        <v>17.8</v>
       </c>
       <c r="G4">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2203,36 +2203,36 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C5">
-        <v>8.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="D5">
-        <v>32.9</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>38.9</v>
+        <v>30.3</v>
       </c>
       <c r="F5">
-        <v>16.1</v>
+        <v>11.7</v>
       </c>
       <c r="G5">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H5">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2255,31 +2255,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D6">
-        <v>7.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E6">
-        <v>17.3</v>
+        <v>19.7</v>
       </c>
       <c r="F6">
-        <v>46.4</v>
+        <v>43.9</v>
       </c>
       <c r="G6">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="H6">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>89</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2308,22 +2308,22 @@
         <v>0.5</v>
       </c>
       <c r="E7">
+        <v>3.2</v>
+      </c>
+      <c r="F7">
+        <v>11.6</v>
+      </c>
+      <c r="G7">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>34.3</v>
+      </c>
+      <c r="I7">
+        <v>10.3</v>
+      </c>
+      <c r="J7">
         <v>3.8</v>
-      </c>
-      <c r="F7">
-        <v>11.8</v>
-      </c>
-      <c r="G7">
-        <v>37.1</v>
-      </c>
-      <c r="H7">
-        <v>32.3</v>
-      </c>
-      <c r="I7">
-        <v>9.9</v>
-      </c>
-      <c r="J7">
-        <v>4.3</v>
       </c>
       <c r="K7">
         <v>0.3</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>53.2</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2349,28 +2349,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F8">
-        <v>14.4</v>
+        <v>13.5</v>
       </c>
       <c r="G8">
-        <v>31.9</v>
+        <v>33.5</v>
       </c>
       <c r="H8">
-        <v>32.3</v>
+        <v>31.6</v>
       </c>
       <c r="I8">
-        <v>13.4</v>
+        <v>11.9</v>
       </c>
       <c r="J8">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K8">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>49.4</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2399,31 +2399,31 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G9">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="H9">
-        <v>11.6</v>
+        <v>10.7</v>
       </c>
       <c r="I9">
-        <v>37.3</v>
+        <v>38.9</v>
       </c>
       <c r="J9">
-        <v>24.6</v>
+        <v>23.4</v>
       </c>
       <c r="K9">
-        <v>17.7</v>
+        <v>16.5</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="M9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2443,31 +2443,31 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G10">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H10">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="J10">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
       <c r="K10">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="L10">
-        <v>14.9</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N10">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2487,31 +2487,31 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>5.6</v>
+      </c>
+      <c r="I11">
+        <v>14.6</v>
+      </c>
+      <c r="J11">
+        <v>33.1</v>
+      </c>
+      <c r="K11">
+        <v>31.8</v>
+      </c>
+      <c r="L11">
+        <v>10.7</v>
+      </c>
+      <c r="M11">
         <v>1.9</v>
       </c>
-      <c r="H11">
-        <v>6.1</v>
-      </c>
-      <c r="I11">
-        <v>15.9</v>
-      </c>
-      <c r="J11">
-        <v>32.7</v>
-      </c>
-      <c r="K11">
-        <v>33.3</v>
-      </c>
-      <c r="L11">
-        <v>9.1</v>
-      </c>
-      <c r="M11">
-        <v>0.9</v>
-      </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2543,16 +2543,16 @@
         <v>0.2</v>
       </c>
       <c r="J12">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="K12">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="L12">
-        <v>21.6</v>
+        <v>18.8</v>
       </c>
       <c r="M12">
-        <v>73.3</v>
+        <v>74.2</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2581,22 +2581,22 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I13">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="J13">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="K13">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="L13">
-        <v>49.9</v>
+        <v>50.9</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>21.6</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2658,31 +2658,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>71.5</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>97.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="D2">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
       <c r="E2">
-        <v>93.60000000000001</v>
+        <v>94</v>
       </c>
       <c r="F2">
-        <v>96.39999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="G2">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I2">
         <v>99.90000000000001</v>
       </c>
       <c r="J2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -2699,34 +2699,34 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>92.2</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="C3">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D3">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="E3">
-        <v>98.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F3">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G3">
-        <v>95.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H3">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="I3">
         <v>99.7</v>
       </c>
       <c r="J3">
-        <v>97.5</v>
+        <v>98.3</v>
       </c>
       <c r="K3">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -2740,40 +2740,40 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>37.6</v>
+        <v>39.5</v>
       </c>
       <c r="C4">
-        <v>83.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="D4">
-        <v>75.5</v>
+        <v>74.3</v>
       </c>
       <c r="E4">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="F4">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="G4">
-        <v>72.3</v>
+        <v>70.8</v>
       </c>
       <c r="H4">
-        <v>83.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="I4">
-        <v>95.8</v>
+        <v>96.3</v>
       </c>
       <c r="J4">
-        <v>86.7</v>
+        <v>89.8</v>
       </c>
       <c r="K4">
-        <v>95.89999999999999</v>
+        <v>95</v>
       </c>
       <c r="L4">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="M4">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2781,40 +2781,40 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>9.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="E5">
-        <v>37.6</v>
+        <v>33.6</v>
       </c>
       <c r="F5">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="G5">
-        <v>70.89999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="H5">
-        <v>53.6</v>
+        <v>51.4</v>
       </c>
       <c r="I5">
-        <v>67.5</v>
+        <v>68</v>
       </c>
       <c r="J5">
-        <v>69.8</v>
+        <v>72</v>
       </c>
       <c r="K5">
-        <v>88.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="L5">
-        <v>97.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="M5">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2822,122 +2822,122 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>61.9</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C6">
-        <v>25.6</v>
+        <v>27.3</v>
       </c>
       <c r="D6">
-        <v>10.6</v>
+        <v>10.1</v>
       </c>
       <c r="E6">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="F6">
-        <v>5.800000000000001</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="G6">
-        <v>30.2</v>
+        <v>31</v>
       </c>
       <c r="H6">
-        <v>55.50000000000001</v>
+        <v>53.1</v>
       </c>
       <c r="I6">
-        <v>31.3</v>
+        <v>34.3</v>
       </c>
       <c r="J6">
-        <v>56.59999999999999</v>
+        <v>59.9</v>
       </c>
       <c r="K6">
-        <v>70.5</v>
+        <v>66.10000000000001</v>
       </c>
       <c r="L6">
-        <v>89.60000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="M6">
-        <v>90.8</v>
+        <v>90.10000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>86.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C7">
-        <v>72.5</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>86</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E7">
-        <v>96</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F7">
-        <v>99.09999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="G7">
-        <v>94.89999999999999</v>
+        <v>58.09999999999999</v>
       </c>
       <c r="H7">
-        <v>89</v>
+        <v>49.5</v>
       </c>
       <c r="I7">
-        <v>86.3</v>
+        <v>61.1</v>
       </c>
       <c r="J7">
-        <v>72.09999999999999</v>
+        <v>59.8</v>
       </c>
       <c r="K7">
-        <v>53.2</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="L7">
-        <v>48.3</v>
+        <v>52.7</v>
       </c>
       <c r="M7">
-        <v>51.3</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>99.90000000000001</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="D8">
-        <v>97.09999999999999</v>
+        <v>87</v>
       </c>
       <c r="E8">
-        <v>94</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F8">
-        <v>73.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G8">
-        <v>60.9</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="H8">
-        <v>46.8</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="I8">
-        <v>63.8</v>
+        <v>85.8</v>
       </c>
       <c r="J8">
-        <v>60.4</v>
+        <v>65.2</v>
       </c>
       <c r="K8">
-        <v>69.69999999999999</v>
+        <v>56.39999999999999</v>
       </c>
       <c r="L8">
-        <v>53.1</v>
+        <v>45.7</v>
       </c>
       <c r="M8">
-        <v>50.1</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2945,40 +2945,40 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="C9">
-        <v>20.2</v>
+        <v>17.1</v>
       </c>
       <c r="D9">
-        <v>62.2</v>
+        <v>60</v>
       </c>
       <c r="E9">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="F9">
-        <v>58.7</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="G9">
-        <v>21.3</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>28.5</v>
+        <v>27.4</v>
       </c>
       <c r="I9">
-        <v>17.3</v>
+        <v>16.1</v>
       </c>
       <c r="J9">
-        <v>34.4</v>
+        <v>31.4</v>
       </c>
       <c r="K9">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="L9">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="M9">
-        <v>4.399999999999999</v>
+        <v>4.100000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2989,37 +2989,37 @@
         <v>97.5</v>
       </c>
       <c r="C10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>27.6</v>
+        <v>30.1</v>
       </c>
       <c r="E10">
-        <v>10.3</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="F10">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="G10">
-        <v>6.9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="H10">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I10">
-        <v>15.5</v>
+        <v>13.4</v>
       </c>
       <c r="J10">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K10">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L10">
-        <v>4.399999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="M10">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3030,37 +3030,37 @@
         <v>2.1</v>
       </c>
       <c r="C11">
-        <v>33.2</v>
+        <v>34.2</v>
       </c>
       <c r="D11">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="E11">
-        <v>43.6</v>
+        <v>47.8</v>
       </c>
       <c r="F11">
-        <v>54.50000000000001</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="G11">
-        <v>30.4</v>
+        <v>26.1</v>
       </c>
       <c r="H11">
-        <v>20.7</v>
+        <v>21.9</v>
       </c>
       <c r="I11">
-        <v>14.5</v>
+        <v>15.9</v>
       </c>
       <c r="J11">
-        <v>16.1</v>
+        <v>17.9</v>
       </c>
       <c r="K11">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="L11">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="M11">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3068,34 +3068,34 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>35.4</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="D12">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="E12">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="F12">
-        <v>16.5</v>
+        <v>15.3</v>
       </c>
       <c r="G12">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="H12">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I12">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="J12">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3109,37 +3109,37 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.600000000000001</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E13">
         <v>3.5</v>
       </c>
       <c r="F13">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="G13">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="H13">
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
       <c r="I13">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L13">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -3197,8 +3197,8 @@
       <c r="D2">
         <v>101.2</v>
       </c>
-      <c r="E2">
-        <v>0.182</v>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
       <c r="F2">
         <v>129.2</v>
@@ -3226,8 +3226,8 @@
       <c r="D3">
         <v>122.62</v>
       </c>
-      <c r="E3">
-        <v>0.455</v>
+      <c r="E3" t="s">
+        <v>16</v>
       </c>
       <c r="F3">
         <v>124.07</v>
@@ -3255,8 +3255,8 @@
       <c r="D4">
         <v>138.98</v>
       </c>
-      <c r="E4">
-        <v>0.8179999999999999</v>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
       <c r="F4">
         <v>111.5</v>
@@ -3284,8 +3284,8 @@
       <c r="D5">
         <v>126.49</v>
       </c>
-      <c r="E5">
-        <v>0.636</v>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
       <c r="F5">
         <v>107.84</v>
@@ -3313,8 +3313,8 @@
       <c r="D6">
         <v>106.75</v>
       </c>
-      <c r="E6">
-        <v>0.636</v>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
       <c r="F6">
         <v>112.51</v>
@@ -3342,8 +3342,8 @@
       <c r="D7">
         <v>110.68</v>
       </c>
-      <c r="E7">
-        <v>0.364</v>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7">
         <v>119.59</v>
@@ -3371,8 +3371,8 @@
       <c r="D8">
         <v>99.70999999999999</v>
       </c>
-      <c r="E8">
-        <v>0.364</v>
+      <c r="E8" t="s">
+        <v>15</v>
       </c>
       <c r="F8">
         <v>115.9</v>
@@ -3400,8 +3400,8 @@
       <c r="D9">
         <v>122.14</v>
       </c>
-      <c r="E9">
-        <v>0.636</v>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
       <c r="F9">
         <v>101.87</v>
@@ -3429,8 +3429,8 @@
       <c r="D10">
         <v>93.72</v>
       </c>
-      <c r="E10">
-        <v>0.273</v>
+      <c r="E10" t="s">
+        <v>13</v>
       </c>
       <c r="F10">
         <v>111.42</v>
@@ -3458,8 +3458,8 @@
       <c r="D11">
         <v>97.65000000000001</v>
       </c>
-      <c r="E11">
-        <v>0.364</v>
+      <c r="E11" t="s">
+        <v>15</v>
       </c>
       <c r="F11">
         <v>106.53</v>
@@ -3487,8 +3487,8 @@
       <c r="D12">
         <v>114.47</v>
       </c>
-      <c r="E12">
-        <v>0.8179999999999999</v>
+      <c r="E12" t="s">
+        <v>12</v>
       </c>
       <c r="F12">
         <v>102.88</v>
@@ -3516,8 +3516,8 @@
       <c r="D13">
         <v>115.2</v>
       </c>
-      <c r="E13">
-        <v>0.455</v>
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
       <c r="F13">
         <v>106.29</v>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
@@ -3643,13 +3643,13 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="D4">
-        <v>126.4909090909091</v>
+        <v>122.1436363636364</v>
       </c>
       <c r="E4">
-        <v>1391.4</v>
+        <v>1343.58</v>
       </c>
       <c r="F4">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
@@ -3672,13 +3672,13 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="D5">
-        <v>122.1436363636364</v>
+        <v>126.4909090909091</v>
       </c>
       <c r="E5">
-        <v>1343.58</v>
+        <v>1391.4</v>
       </c>
       <c r="F5">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3707,7 +3707,7 @@
         <v>1174.24</v>
       </c>
       <c r="F6">
-        <v>89</v>
+        <v>89.3</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>1348.8</v>
       </c>
       <c r="F7">
-        <v>53.2</v>
+        <v>51.3</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>1267.22</v>
       </c>
       <c r="F8">
-        <v>49.4</v>
+        <v>50.8</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>1217.52</v>
       </c>
       <c r="F9">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H9" t="s">
         <v>93</v>
@@ -3823,10 +3823,10 @@
         <v>1074.2</v>
       </c>
       <c r="F10">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="G10">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="s">
         <v>93</v>
@@ -3852,10 +3852,10 @@
         <v>1096.86</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="G11">
-        <v>0.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="s">
         <v>94</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>73.3</v>
+        <v>74.2</v>
       </c>
       <c r="H12" t="s">
         <v>95</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23</v>
+        <v>21.6</v>
       </c>
       <c r="H13" t="s">
         <v>96</v>

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="138">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -61,34 +61,37 @@
     <t>Cans in My Hands</t>
   </si>
   <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -184,6 +187,9 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Week_13</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -208,36 +214,36 @@
     <t>Clayton Kavanaugh</t>
   </si>
   <si>
+    <t>Kyle Bradburry</t>
+  </si>
+  <si>
+    <t>Zack Gray</t>
+  </si>
+  <si>
+    <t>Mason Dennis</t>
+  </si>
+  <si>
+    <t>Julia Childres</t>
+  </si>
+  <si>
     <t>Matthew Stansbury</t>
   </si>
   <si>
-    <t>Julia Childres</t>
-  </si>
-  <si>
-    <t>Zack Gray</t>
-  </si>
-  <si>
-    <t>Mason Dennis</t>
-  </si>
-  <si>
-    <t>Kyle Bradburry</t>
+    <t>Patrick Fennell</t>
   </si>
   <si>
     <t>Lisa Jackson</t>
   </si>
   <si>
+    <t>David O'Kane</t>
+  </si>
+  <si>
     <t>Alex Keene</t>
   </si>
   <si>
-    <t>David O'Kane</t>
-  </si>
-  <si>
     <t>Colman Betler</t>
   </si>
   <si>
-    <t>Patrick Fennell</t>
-  </si>
-  <si>
     <t>Felipe Gutierrez</t>
   </si>
   <si>
@@ -265,55 +271,58 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>9-2</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>11.2-2.8</t>
-  </si>
-  <si>
-    <t>10.8-3.2</t>
-  </si>
-  <si>
-    <t>8.9-5.1</t>
-  </si>
-  <si>
-    <t>8.9-5.0</t>
-  </si>
-  <si>
-    <t>8.3-5.6</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>6.7-7.2</t>
-  </si>
-  <si>
-    <t>5.3-8.7</t>
-  </si>
-  <si>
-    <t>5.2-8.8</t>
-  </si>
-  <si>
-    <t>2.9-11.1</t>
-  </si>
-  <si>
-    <t>4.1-9.9</t>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>10.6-3.4</t>
+  </si>
+  <si>
+    <t>9.2-4.7</t>
+  </si>
+  <si>
+    <t>10.1-3.9</t>
+  </si>
+  <si>
+    <t>8.1-5.9</t>
+  </si>
+  <si>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>7.9-6.1</t>
+  </si>
+  <si>
+    <t>5.9-8.1</t>
+  </si>
+  <si>
+    <t>5.8-8.2</t>
+  </si>
+  <si>
+    <t>2.5-11.5</t>
+  </si>
+  <si>
+    <t>4.7-9.3</t>
+  </si>
+  <si>
+    <t>4.8-9.2</t>
   </si>
   <si>
     <t>11-3</t>
@@ -322,24 +331,24 @@
     <t>9-5</t>
   </si>
   <si>
+    <t>10-4</t>
+  </si>
+  <si>
     <t>8-6</t>
   </si>
   <si>
+    <t>7-7</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>7-7</t>
+    <t>2-12</t>
   </si>
   <si>
     <t>5-9</t>
   </si>
   <si>
-    <t>3-11</t>
-  </si>
-  <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -349,36 +358,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
     <t>↑7</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>↓6</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -410,6 +413,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -843,7 +849,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -852,13 +858,13 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -867,7 +873,7 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
@@ -896,7 +902,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -908,7 +914,7 @@
         <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
         <v>15</v>
@@ -922,37 +928,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -966,34 +972,34 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1007,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -1019,22 +1025,22 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1048,7 +1054,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1060,10 +1066,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -1072,10 +1078,10 @@
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1086,37 +1092,37 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="L8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>16</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1124,40 +1130,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1168,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1180,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1195,10 +1201,10 @@
         <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1212,7 +1218,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1221,10 +1227,10 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -1236,7 +1242,7 @@
         <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -1250,10 +1256,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -1265,22 +1271,22 @@
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
         <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1294,34 +1300,34 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
         <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1339,25 +1345,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1391,22 +1397,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3">
-        <v>-31</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>-39</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -1417,22 +1423,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>-31</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>-23</v>
-      </c>
-      <c r="F4">
-        <v>-3</v>
-      </c>
       <c r="G4">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -1443,25 +1449,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
       <c r="E5">
-        <v>11</v>
+        <v>-30</v>
       </c>
       <c r="F5">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1469,25 +1475,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6">
+        <v>-11</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
         <v>22</v>
       </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>16</v>
-      </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1495,25 +1501,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>-6</v>
+        <v>47</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1521,25 +1527,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="F8">
-        <v>-13</v>
+        <v>-3</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1550,22 +1556,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>-8</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1573,25 +1579,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1609,13 +1615,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1626,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1640,10 +1646,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>4.333333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1654,7 +1660,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1665,13 +1671,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>5.416666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1679,13 +1685,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.416666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1693,13 +1699,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5.583333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1707,13 +1713,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>5.833333333333333</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1721,13 +1727,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>5.916666666666667</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1735,13 +1741,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1749,10 +1755,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>6.083333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1763,13 +1769,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1780,10 +1786,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>6.666666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1801,16 +1807,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1821,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.166666666666666</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="D2">
-        <v>0.1666666666666661</v>
+        <v>0.8333333333333339</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1835,16 +1841,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>7.666666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D3">
-        <v>0.666666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1852,16 +1858,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>6.833333333333333</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D4">
-        <v>1.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1869,16 +1875,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>6.333333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D5">
-        <v>-2.666666666666667</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1886,16 +1892,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>6.25</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.75</v>
+        <v>-2.583333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1906,13 +1912,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>5.833333333333333</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D7">
-        <v>0.833333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1923,10 +1929,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="D8">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -1940,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>4.75</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D9">
-        <v>-2.25</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1957,13 +1963,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>3.916666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D10">
-        <v>-0.08333333333333348</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1971,16 +1977,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>3.583333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D11">
-        <v>1.583333333333333</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1988,13 +1994,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>3.416666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D12">
-        <v>-0.5833333333333335</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -2005,16 +2011,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2032,46 +2038,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2079,16 +2085,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>78.8</v>
+        <v>86</v>
       </c>
       <c r="C2">
-        <v>20.1</v>
+        <v>12.5</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2120,25 +2126,25 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>20.5</v>
+        <v>0.9</v>
       </c>
       <c r="C3">
-        <v>60.6</v>
+        <v>35.2</v>
       </c>
       <c r="D3">
-        <v>12.7</v>
+        <v>43.4</v>
       </c>
       <c r="E3">
-        <v>5.6</v>
+        <v>15.5</v>
       </c>
       <c r="F3">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2164,28 +2170,28 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3</v>
+        <v>13.1</v>
       </c>
       <c r="C4">
-        <v>8.4</v>
+        <v>49.7</v>
       </c>
       <c r="D4">
-        <v>32.5</v>
+        <v>31.4</v>
       </c>
       <c r="E4">
-        <v>37.4</v>
+        <v>5.4</v>
       </c>
       <c r="F4">
-        <v>17.8</v>
+        <v>0.4</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2203,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2211,25 +2217,25 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>10.2</v>
+        <v>2.5</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>15.8</v>
       </c>
       <c r="E5">
-        <v>30.3</v>
+        <v>31.7</v>
       </c>
       <c r="F5">
-        <v>11.7</v>
+        <v>33.1</v>
       </c>
       <c r="G5">
-        <v>2.9</v>
+        <v>10.4</v>
       </c>
       <c r="H5">
-        <v>0.6</v>
+        <v>6.5</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2247,40 +2253,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>99.40000000000001</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4.1</v>
+      </c>
+      <c r="E6">
+        <v>30.1</v>
+      </c>
+      <c r="F6">
+        <v>13.5</v>
+      </c>
+      <c r="G6">
+        <v>25.4</v>
+      </c>
+      <c r="H6">
+        <v>22.3</v>
+      </c>
+      <c r="I6">
+        <v>3.9</v>
+      </c>
+      <c r="J6">
         <v>0.7</v>
       </c>
-      <c r="D6">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="E6">
-        <v>19.7</v>
-      </c>
-      <c r="F6">
-        <v>43.9</v>
-      </c>
-      <c r="G6">
-        <v>15.7</v>
-      </c>
-      <c r="H6">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="I6">
-        <v>1.5</v>
-      </c>
-      <c r="J6">
-        <v>0.4</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
@@ -2291,42 +2297,42 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>89.3</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="E7">
-        <v>3.2</v>
+        <v>15.5</v>
       </c>
       <c r="F7">
-        <v>11.6</v>
+        <v>27.5</v>
       </c>
       <c r="G7">
-        <v>36</v>
+        <v>26.1</v>
       </c>
       <c r="H7">
-        <v>34.3</v>
+        <v>22.8</v>
       </c>
       <c r="I7">
-        <v>10.3</v>
+        <v>4.4</v>
       </c>
       <c r="J7">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2335,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>51.3</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2349,28 +2355,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E8">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="F8">
-        <v>13.5</v>
+        <v>21.5</v>
       </c>
       <c r="G8">
-        <v>33.5</v>
+        <v>34.8</v>
       </c>
       <c r="H8">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="I8">
-        <v>11.9</v>
+        <v>8.6</v>
       </c>
       <c r="J8">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="K8">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2379,12 +2385,12 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>50.8</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2399,36 +2405,36 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H9">
-        <v>10.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I9">
-        <v>38.9</v>
+        <v>32.2</v>
       </c>
       <c r="J9">
-        <v>23.4</v>
+        <v>28.4</v>
       </c>
       <c r="K9">
-        <v>16.5</v>
+        <v>17.3</v>
       </c>
       <c r="L9">
-        <v>5.6</v>
+        <v>11.7</v>
       </c>
       <c r="M9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2443,36 +2449,36 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H10">
         <v>7.7</v>
       </c>
       <c r="I10">
-        <v>20.8</v>
+        <v>31.1</v>
       </c>
       <c r="J10">
-        <v>25.7</v>
+        <v>32.8</v>
       </c>
       <c r="K10">
-        <v>26.9</v>
+        <v>21.5</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>6.2</v>
       </c>
       <c r="M10">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2487,36 +2493,36 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>33.1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>31.8</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>10.7</v>
+        <v>1.8</v>
       </c>
       <c r="M11">
-        <v>1.9</v>
+        <v>98.2</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2537,22 +2543,22 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I12">
-        <v>0.2</v>
+        <v>10.5</v>
       </c>
       <c r="J12">
-        <v>1.2</v>
+        <v>22.6</v>
       </c>
       <c r="K12">
-        <v>5.6</v>
+        <v>36</v>
       </c>
       <c r="L12">
-        <v>18.8</v>
+        <v>30.2</v>
       </c>
       <c r="M12">
-        <v>74.2</v>
+        <v>0.3</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2581,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J13">
-        <v>7.9</v>
+        <v>13.9</v>
       </c>
       <c r="K13">
-        <v>17.7</v>
+        <v>25.2</v>
       </c>
       <c r="L13">
-        <v>50.9</v>
+        <v>50.1</v>
       </c>
       <c r="M13">
-        <v>21.6</v>
+        <v>1.5</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2609,80 +2615,83 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>72.7</v>
       </c>
       <c r="C2">
-        <v>97</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="D2">
-        <v>97.2</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="E2">
-        <v>94</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="F2">
-        <v>96.7</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="G2">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H2">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I2">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -2693,455 +2702,491 @@
       <c r="M2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8.5</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>5.7</v>
+      </c>
+      <c r="E3">
+        <v>35.7</v>
+      </c>
+      <c r="F3">
+        <v>45.9</v>
+      </c>
+      <c r="G3">
+        <v>71.39999999999999</v>
+      </c>
+      <c r="H3">
+        <v>50.8</v>
+      </c>
+      <c r="I3">
+        <v>65.60000000000001</v>
+      </c>
+      <c r="J3">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="K3">
+        <v>86</v>
+      </c>
+      <c r="L3">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="M3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>91.60000000000001</v>
-      </c>
-      <c r="C3">
+      <c r="B4">
+        <v>90.5</v>
+      </c>
+      <c r="C4">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D4">
+        <v>98.7</v>
+      </c>
+      <c r="E4">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F4">
+        <v>98</v>
+      </c>
+      <c r="G4">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="H4">
+        <v>98</v>
+      </c>
+      <c r="I4">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J4">
+        <v>98.2</v>
+      </c>
+      <c r="K4">
         <v>99.59999999999999</v>
       </c>
-      <c r="D3">
-        <v>98.3</v>
-      </c>
-      <c r="E3">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="F3">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G3">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="H3">
-        <v>97.8</v>
-      </c>
-      <c r="I3">
-        <v>99.7</v>
-      </c>
-      <c r="J3">
-        <v>98.3</v>
-      </c>
-      <c r="K3">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="L3">
+      <c r="L4">
         <v>100</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>39.5</v>
-      </c>
-      <c r="C4">
-        <v>83.8</v>
-      </c>
-      <c r="D4">
-        <v>74.3</v>
-      </c>
-      <c r="E4">
-        <v>30.3</v>
-      </c>
-      <c r="F4">
-        <v>43.8</v>
-      </c>
-      <c r="G4">
-        <v>70.8</v>
-      </c>
-      <c r="H4">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="I4">
-        <v>96.3</v>
-      </c>
-      <c r="J4">
-        <v>89.8</v>
-      </c>
-      <c r="K4">
-        <v>95</v>
-      </c>
-      <c r="L4">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="M4">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B5">
-        <v>7.3</v>
+        <v>38.1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="D5">
-        <v>4.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E5">
-        <v>33.6</v>
+        <v>25.9</v>
       </c>
       <c r="F5">
-        <v>47.8</v>
+        <v>44.5</v>
       </c>
       <c r="G5">
-        <v>74.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="H5">
-        <v>51.4</v>
+        <v>87.2</v>
       </c>
       <c r="I5">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="J5">
+        <v>89</v>
+      </c>
+      <c r="K5">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L5">
+        <v>98.7</v>
+      </c>
+      <c r="M5">
+        <v>95.5</v>
+      </c>
+      <c r="N5">
+        <v>94.69999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>97.2</v>
+      </c>
+      <c r="E6">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="F6">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="G6">
+        <v>59.3</v>
+      </c>
+      <c r="H6">
+        <v>48.8</v>
+      </c>
+      <c r="I6">
+        <v>61.2</v>
+      </c>
+      <c r="J6">
+        <v>60.8</v>
+      </c>
+      <c r="K6">
+        <v>70.5</v>
+      </c>
+      <c r="L6">
+        <v>54.7</v>
+      </c>
+      <c r="M6">
+        <v>66.8</v>
+      </c>
+      <c r="N6">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>61.9</v>
+      </c>
+      <c r="C7">
+        <v>26.1</v>
+      </c>
+      <c r="D7">
+        <v>11.1</v>
+      </c>
+      <c r="E7">
+        <v>24.2</v>
+      </c>
+      <c r="F7">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="G7">
+        <v>30.6</v>
+      </c>
+      <c r="H7">
+        <v>53.1</v>
+      </c>
+      <c r="I7">
+        <v>32.5</v>
+      </c>
+      <c r="J7">
+        <v>56.49999999999999</v>
+      </c>
+      <c r="K7">
+        <v>70</v>
+      </c>
+      <c r="L7">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="M7">
         <v>68</v>
       </c>
-      <c r="J5">
-        <v>72</v>
-      </c>
-      <c r="K5">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="L5">
-        <v>98.2</v>
-      </c>
-      <c r="M5">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="C6">
-        <v>27.3</v>
-      </c>
-      <c r="D6">
-        <v>10.1</v>
-      </c>
-      <c r="E6">
-        <v>24.8</v>
-      </c>
-      <c r="F6">
-        <v>7.399999999999999</v>
-      </c>
-      <c r="G6">
-        <v>31</v>
-      </c>
-      <c r="H6">
-        <v>53.1</v>
-      </c>
-      <c r="I6">
-        <v>34.3</v>
-      </c>
-      <c r="J6">
-        <v>59.9</v>
-      </c>
-      <c r="K6">
-        <v>66.10000000000001</v>
-      </c>
-      <c r="L6">
-        <v>91.5</v>
-      </c>
-      <c r="M6">
-        <v>90.10000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E7">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="F7">
-        <v>73.2</v>
-      </c>
-      <c r="G7">
-        <v>58.09999999999999</v>
-      </c>
-      <c r="H7">
-        <v>49.5</v>
-      </c>
-      <c r="I7">
-        <v>61.1</v>
-      </c>
-      <c r="J7">
-        <v>59.8</v>
-      </c>
-      <c r="K7">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="L7">
-        <v>52.7</v>
-      </c>
-      <c r="M7">
-        <v>53.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>71.39999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>86.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="C8">
-        <v>67.60000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="D8">
-        <v>87</v>
+        <v>85.2</v>
       </c>
       <c r="E8">
-        <v>96.59999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F8">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="G8">
-        <v>95.39999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="H8">
-        <v>88.59999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="I8">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="J8">
-        <v>65.2</v>
+        <v>67.80000000000001</v>
       </c>
       <c r="K8">
-        <v>56.39999999999999</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="L8">
-        <v>45.7</v>
+        <v>44.8</v>
       </c>
       <c r="M8">
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>61.9</v>
+      </c>
+      <c r="N8">
+        <v>55.90000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C9">
+        <v>66.5</v>
+      </c>
+      <c r="D9">
+        <v>29.1</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>6.2</v>
+      </c>
+      <c r="H9">
+        <v>3.8</v>
+      </c>
+      <c r="I9">
+        <v>15.3</v>
+      </c>
+      <c r="J9">
+        <v>4.7</v>
+      </c>
+      <c r="K9">
+        <v>1.1</v>
+      </c>
+      <c r="L9">
+        <v>4.3</v>
+      </c>
+      <c r="M9">
+        <v>4.8</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1.8</v>
+      </c>
+      <c r="C10">
+        <v>33.7</v>
+      </c>
+      <c r="D10">
+        <v>31.1</v>
+      </c>
+      <c r="E10">
+        <v>48.5</v>
+      </c>
+      <c r="F10">
+        <v>54.3</v>
+      </c>
+      <c r="G10">
+        <v>28.8</v>
+      </c>
+      <c r="H10">
+        <v>22.2</v>
+      </c>
+      <c r="I10">
+        <v>14.6</v>
+      </c>
+      <c r="J10">
+        <v>17.1</v>
+      </c>
+      <c r="K10">
+        <v>4.8</v>
+      </c>
+      <c r="L10">
+        <v>1.4</v>
+      </c>
+      <c r="M10">
+        <v>2.6</v>
+      </c>
+      <c r="N10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>34.1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2.9</v>
+      </c>
+      <c r="E11">
+        <v>30.3</v>
+      </c>
+      <c r="F11">
+        <v>15.6</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>2.1</v>
+      </c>
+      <c r="J11">
+        <v>0.4</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>4.8</v>
-      </c>
-      <c r="C9">
-        <v>17.1</v>
-      </c>
-      <c r="D9">
-        <v>60</v>
-      </c>
-      <c r="E9">
-        <v>38.3</v>
-      </c>
-      <c r="F9">
-        <v>55.60000000000001</v>
-      </c>
-      <c r="G9">
-        <v>25</v>
-      </c>
-      <c r="H9">
-        <v>27.4</v>
-      </c>
-      <c r="I9">
-        <v>16.1</v>
-      </c>
-      <c r="J9">
-        <v>31.4</v>
-      </c>
-      <c r="K9">
-        <v>15.2</v>
-      </c>
-      <c r="L9">
-        <v>6.3</v>
-      </c>
-      <c r="M9">
-        <v>4.100000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>97.5</v>
-      </c>
-      <c r="C10">
-        <v>68</v>
-      </c>
-      <c r="D10">
-        <v>30.1</v>
-      </c>
-      <c r="E10">
-        <v>8.200000000000001</v>
-      </c>
-      <c r="F10">
-        <v>2.2</v>
-      </c>
-      <c r="G10">
-        <v>7.000000000000001</v>
-      </c>
-      <c r="H10">
-        <v>3.9</v>
-      </c>
-      <c r="I10">
-        <v>13.4</v>
-      </c>
-      <c r="J10">
-        <v>4.2</v>
-      </c>
-      <c r="K10">
-        <v>1.4</v>
-      </c>
-      <c r="L10">
-        <v>4.7</v>
-      </c>
-      <c r="M10">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2.1</v>
-      </c>
-      <c r="C11">
-        <v>34.2</v>
-      </c>
-      <c r="D11">
-        <v>31.8</v>
-      </c>
-      <c r="E11">
-        <v>47.8</v>
-      </c>
-      <c r="F11">
-        <v>56.10000000000001</v>
-      </c>
-      <c r="G11">
-        <v>26.1</v>
-      </c>
-      <c r="H11">
-        <v>21.9</v>
-      </c>
-      <c r="I11">
-        <v>15.9</v>
-      </c>
-      <c r="J11">
-        <v>17.9</v>
-      </c>
-      <c r="K11">
-        <v>5.2</v>
-      </c>
-      <c r="L11">
-        <v>1.4</v>
-      </c>
-      <c r="M11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B12">
-        <v>32</v>
+        <v>5.3</v>
       </c>
       <c r="C12">
-        <v>5.4</v>
+        <v>19.4</v>
       </c>
       <c r="D12">
-        <v>2.3</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="E12">
-        <v>30.2</v>
+        <v>37.9</v>
       </c>
       <c r="F12">
-        <v>15.3</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G12">
-        <v>11.5</v>
+        <v>24.5</v>
       </c>
       <c r="H12">
-        <v>3.3</v>
+        <v>28.8</v>
       </c>
       <c r="I12">
-        <v>3.5</v>
+        <v>20.3</v>
       </c>
       <c r="J12">
-        <v>0.5</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.1</v>
+        <v>14.2</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.3</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.000000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="E13">
         <v>3.5</v>
       </c>
       <c r="F13">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="G13">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="H13">
-        <v>17.1</v>
+        <v>15.6</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="L13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M13">
+        <v>0.2</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
     </row>
@@ -3160,28 +3205,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3192,25 +3237,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>101.2</v>
+        <v>100.45</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>129.2</v>
+        <v>130.33</v>
       </c>
       <c r="G2">
-        <v>0.697</v>
+        <v>0.667</v>
       </c>
       <c r="H2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3218,28 +3263,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>122.62</v>
+        <v>109.52</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>124.07</v>
+        <v>130.96</v>
       </c>
       <c r="G3">
-        <v>0.697</v>
+        <v>0.708</v>
       </c>
       <c r="H3">
-        <v>14.7</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3247,28 +3292,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>138.98</v>
+        <v>122.11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>111.5</v>
+        <v>113.61</v>
       </c>
       <c r="G4">
         <v>0.333</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3276,28 +3321,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>126.49</v>
+        <v>106.38</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5">
-        <v>107.84</v>
+        <v>113.23</v>
       </c>
       <c r="G5">
-        <v>0.333</v>
+        <v>0.458</v>
       </c>
       <c r="H5">
-        <v>4.3</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3305,28 +3350,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>106.75</v>
+        <v>138.55</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>112.51</v>
+        <v>104.98</v>
       </c>
       <c r="G6">
-        <v>0.424</v>
+        <v>0.25</v>
       </c>
       <c r="H6">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3334,28 +3379,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>110.68</v>
+        <v>126.77</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>119.59</v>
+        <v>114.24</v>
       </c>
       <c r="G7">
-        <v>0.606</v>
+        <v>0.583</v>
       </c>
       <c r="H7">
-        <v>3.7</v>
+        <v>-2.5</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3363,28 +3408,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8">
-        <v>99.70999999999999</v>
+        <v>111.7</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>115.9</v>
+        <v>107.22</v>
       </c>
       <c r="G8">
-        <v>0.697</v>
+        <v>0.458</v>
       </c>
       <c r="H8">
-        <v>1.7</v>
+        <v>-5.5</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3392,28 +3437,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>99.69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>109.04</v>
+      </c>
+      <c r="G9">
+        <v>0.667</v>
+      </c>
+      <c r="H9">
+        <v>-8</v>
+      </c>
+      <c r="I9">
         <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9">
-        <v>122.14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>101.87</v>
-      </c>
-      <c r="G9">
-        <v>0.273</v>
-      </c>
-      <c r="H9">
-        <v>-9</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3424,25 +3469,25 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>93.72</v>
+        <v>97.33</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>111.42</v>
+        <v>111.22</v>
       </c>
       <c r="G10">
-        <v>0.606</v>
+        <v>0.542</v>
       </c>
       <c r="H10">
-        <v>-9.300000000000001</v>
+        <v>-14</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3450,28 +3495,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>97.65000000000001</v>
+        <v>123.37</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>106.53</v>
+        <v>103.42</v>
       </c>
       <c r="G11">
-        <v>0.364</v>
+        <v>0.333</v>
       </c>
       <c r="H11">
-        <v>-9.699999999999999</v>
+        <v>-14.5</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3479,28 +3524,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>114.47</v>
+        <v>99.06999999999999</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>102.88</v>
+        <v>106.04</v>
       </c>
       <c r="G12">
-        <v>0.364</v>
+        <v>0.417</v>
       </c>
       <c r="H12">
-        <v>-12.3</v>
+        <v>-15</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3511,25 +3556,25 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>115.2</v>
+        <v>114.75</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F13">
-        <v>106.29</v>
+        <v>105.38</v>
       </c>
       <c r="G13">
-        <v>0.606</v>
+        <v>0.583</v>
       </c>
       <c r="H13">
-        <v>-17.7</v>
+        <v>-19.5</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3547,31 +3592,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3579,16 +3624,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>138.98</v>
+        <v>138.545</v>
       </c>
       <c r="E2">
-        <v>1528.78</v>
+        <v>1662.54</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3597,27 +3642,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3">
-        <v>0.8181818181818182</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>114.4672727272727</v>
+        <v>123.3683333333333</v>
       </c>
       <c r="E3">
-        <v>1259.14</v>
+        <v>1480.42</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3626,39 +3671,39 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4">
-        <v>0.6363636363636364</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>122.1436363636364</v>
+        <v>111.6966666666667</v>
       </c>
       <c r="E4">
-        <v>1343.58</v>
+        <v>1340.36</v>
       </c>
       <c r="F4">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3666,86 +3711,86 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D5">
-        <v>126.4909090909091</v>
+        <v>122.1116666666667</v>
       </c>
       <c r="E5">
-        <v>1391.4</v>
+        <v>1465.34</v>
       </c>
       <c r="F5">
-        <v>99.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C6">
-        <v>0.6363636363636364</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>106.7490909090909</v>
+        <v>126.765</v>
       </c>
       <c r="E6">
-        <v>1174.24</v>
+        <v>1521.18</v>
       </c>
       <c r="F6">
-        <v>89.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7">
-        <v>0.4545454545454545</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D7">
-        <v>122.6181818181818</v>
+        <v>106.375</v>
       </c>
       <c r="E7">
-        <v>1348.8</v>
+        <v>1276.5</v>
       </c>
       <c r="F7">
-        <v>51.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3753,144 +3798,144 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>115.2018181818182</v>
+        <v>114.7533333333333</v>
       </c>
       <c r="E8">
-        <v>1267.22</v>
+        <v>1377.04</v>
       </c>
       <c r="F8">
-        <v>50.8</v>
+        <v>58.5</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D9">
-        <v>110.6836363636364</v>
+        <v>99.07166666666667</v>
       </c>
       <c r="E9">
-        <v>1217.52</v>
+        <v>1188.86</v>
       </c>
       <c r="F9">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C10">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D10">
-        <v>97.65454545454546</v>
+        <v>99.69333333333333</v>
       </c>
       <c r="E10">
-        <v>1074.2</v>
+        <v>1196.32</v>
       </c>
       <c r="F10">
-        <v>2.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="G10">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C11">
-        <v>0.3636363636363636</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D11">
-        <v>99.71454545454544</v>
+        <v>100.45</v>
       </c>
       <c r="E11">
-        <v>1096.86</v>
+        <v>1205.4</v>
       </c>
       <c r="F11">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1.9</v>
+        <v>98.2</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C12">
-        <v>0.1818181818181818</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>101.2018181818182</v>
+        <v>109.52</v>
       </c>
       <c r="E12">
-        <v>1113.22</v>
+        <v>1314.24</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>74.2</v>
+        <v>0.3</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3898,28 +3943,28 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>93.71636363636365</v>
+        <v>97.325</v>
       </c>
       <c r="E13">
-        <v>1030.88</v>
+        <v>1167.9</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>21.6</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3937,19 +3982,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3960,16 +4005,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3977,19 +4022,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3997,19 +4042,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4020,16 +4065,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4040,16 +4085,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4060,16 +4105,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4080,16 +4125,16 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4100,16 +4145,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4120,16 +4165,16 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4140,16 +4185,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4160,16 +4205,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4180,16 +4225,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <v>-39</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4199,51 +4244,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>130</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4280,93 +4328,102 @@
       <c r="L2">
         <v>40</v>
       </c>
-      <c r="M2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>-1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>-6</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>-11</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>-2</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>-3</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>8</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>15</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>17</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>22</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>13</v>
-      </c>
-      <c r="K4">
-        <v>12</v>
-      </c>
-      <c r="L4">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4403,11 +4460,14 @@
       <c r="L5">
         <v>10</v>
       </c>
-      <c r="M5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4444,11 +4504,14 @@
       <c r="L6">
         <v>3</v>
       </c>
-      <c r="M6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4485,11 +4548,14 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4526,11 +4592,14 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -4567,11 +4636,14 @@
       <c r="L9">
         <v>-1</v>
       </c>
-      <c r="M9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4608,11 +4680,14 @@
       <c r="L10">
         <v>-5</v>
       </c>
-      <c r="M10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4649,11 +4724,14 @@
       <c r="L11">
         <v>-15</v>
       </c>
-      <c r="M11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11">
+        <v>-16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -4690,11 +4768,14 @@
       <c r="L12">
         <v>-31</v>
       </c>
-      <c r="M12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12">
+        <v>-30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4731,8 +4812,11 @@
       <c r="L13">
         <v>-39</v>
       </c>
-      <c r="M13" t="s">
-        <v>117</v>
+      <c r="M13">
+        <v>-39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="141">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -61,37 +61,37 @@
     <t>Cans in My Hands</t>
   </si>
   <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>12-1-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -190,6 +190,9 @@
     <t>Week_13</t>
   </si>
   <si>
+    <t>Week_14</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -211,39 +214,39 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Kyle Bradburry</t>
+  </si>
+  <si>
+    <t>Mason Dennis</t>
+  </si>
+  <si>
+    <t>David O'Kane</t>
+  </si>
+  <si>
+    <t>Julia Childres</t>
+  </si>
+  <si>
     <t>Clayton Kavanaugh</t>
   </si>
   <si>
-    <t>Kyle Bradburry</t>
-  </si>
-  <si>
     <t>Zack Gray</t>
   </si>
   <si>
-    <t>Mason Dennis</t>
-  </si>
-  <si>
-    <t>Julia Childres</t>
+    <t>Patrick Fennell</t>
+  </si>
+  <si>
+    <t>Lisa Jackson</t>
+  </si>
+  <si>
+    <t>Colman Betler</t>
   </si>
   <si>
     <t>Matthew Stansbury</t>
   </si>
   <si>
-    <t>Patrick Fennell</t>
-  </si>
-  <si>
-    <t>Lisa Jackson</t>
-  </si>
-  <si>
-    <t>David O'Kane</t>
-  </si>
-  <si>
     <t>Alex Keene</t>
   </si>
   <si>
-    <t>Colman Betler</t>
-  </si>
-  <si>
     <t>Felipe Gutierrez</t>
   </si>
   <si>
@@ -271,66 +274,63 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>10.6-3.4</t>
-  </si>
-  <si>
-    <t>9.2-4.7</t>
-  </si>
-  <si>
-    <t>10.1-3.9</t>
-  </si>
-  <si>
-    <t>8.1-5.9</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
-  </si>
-  <si>
-    <t>7.9-6.1</t>
-  </si>
-  <si>
-    <t>5.9-8.1</t>
-  </si>
-  <si>
-    <t>5.8-8.2</t>
-  </si>
-  <si>
-    <t>2.5-11.5</t>
-  </si>
-  <si>
-    <t>4.7-9.3</t>
-  </si>
-  <si>
-    <t>4.8-9.2</t>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>10.7-3.2</t>
+  </si>
+  <si>
+    <t>9.7-4.3</t>
+  </si>
+  <si>
+    <t>10.5-3.5</t>
+  </si>
+  <si>
+    <t>7.6-6.4</t>
+  </si>
+  <si>
+    <t>7.7-6.3</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>6.5-7.5</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
+  </si>
+  <si>
+    <t>2.3-11.7</t>
+  </si>
+  <si>
+    <t>4.2-9.7</t>
+  </si>
+  <si>
+    <t>4.3-9.7</t>
   </si>
   <si>
     <t>11-3</t>
   </si>
   <si>
-    <t>9-5</t>
-  </si>
-  <si>
     <t>10-4</t>
   </si>
   <si>
@@ -346,7 +346,7 @@
     <t>2-12</t>
   </si>
   <si>
-    <t>5-9</t>
+    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -358,28 +358,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↑3</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -416,6 +422,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -846,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -855,10 +864,10 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -887,13 +896,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -902,22 +911,22 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -931,7 +940,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -940,25 +949,25 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -969,37 +978,37 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1016,28 +1025,28 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -1051,25 +1060,25 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -1078,10 +1087,10 @@
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1089,10 +1098,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1101,28 +1110,28 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
         <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1133,37 +1142,37 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1171,40 +1180,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
         <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1215,37 +1224,37 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1256,7 +1265,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1268,10 +1277,10 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
@@ -1300,28 +1309,28 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
       <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
         <v>13</v>
       </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
       <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
         <v>19</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -1345,25 +1354,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1632,10 +1641,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1643,13 +1652,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1657,13 +1666,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>5.416666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1674,10 +1683,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>5.666666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1685,13 +1694,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>5.916666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1699,13 +1708,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>6.166666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1713,13 +1722,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>6.416666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1730,10 +1739,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>6.416666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1741,13 +1750,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>6.416666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1755,13 +1764,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>6.5</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1772,10 +1781,10 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>6.75</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1786,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>7.333333333333333</v>
+        <v>7.75</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1827,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.833333333333334</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="D2">
-        <v>0.8333333333333339</v>
+        <v>0.6666666666666661</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1841,16 +1850,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>7.833333333333333</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D3">
-        <v>1.833333333333333</v>
+        <v>-0.9166666666666661</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1858,16 +1867,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>7.666666666666667</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D4">
-        <v>0.666666666666667</v>
+        <v>1.083333333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1875,16 +1884,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>7.083333333333333</v>
+        <v>7.75</v>
       </c>
       <c r="D5">
-        <v>-0.916666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1895,10 +1904,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>6.416666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D6">
-        <v>-2.583333333333333</v>
+        <v>-3.166666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1912,13 +1921,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>6.416666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D7">
-        <v>0.416666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1929,13 +1938,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5.5</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1946,13 +1955,13 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>5.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D9">
-        <v>-1.833333333333333</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1963,10 +1972,10 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>4.333333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D10">
-        <v>-0.666666666666667</v>
+        <v>-0.75</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1980,10 +1989,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>4.083333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="D11">
-        <v>-0.916666666666667</v>
+        <v>-1.25</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1997,13 +2006,13 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>3.916666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D12">
-        <v>-0.08333333333333348</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2020,7 +2029,7 @@
         <v>1.75</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2085,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C2">
-        <v>12.5</v>
+        <v>13.1</v>
       </c>
       <c r="D2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2129,22 +2138,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>35.2</v>
+        <v>31.5</v>
       </c>
       <c r="D3">
-        <v>43.4</v>
+        <v>68.5</v>
       </c>
       <c r="E3">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2176,16 +2185,16 @@
         <v>13.1</v>
       </c>
       <c r="C4">
-        <v>49.7</v>
+        <v>55.4</v>
       </c>
       <c r="D4">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="E4">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2214,28 +2223,28 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>31.7</v>
+        <v>60.5</v>
       </c>
       <c r="F5">
-        <v>33.1</v>
+        <v>14.9</v>
       </c>
       <c r="G5">
-        <v>10.4</v>
+        <v>24.4</v>
       </c>
       <c r="H5">
-        <v>6.5</v>
+        <v>0.2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2253,12 +2262,12 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>93.5</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2267,25 +2276,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>30.1</v>
+        <v>27.8</v>
       </c>
       <c r="F6">
-        <v>13.5</v>
+        <v>59.4</v>
       </c>
       <c r="G6">
-        <v>25.4</v>
+        <v>11.5</v>
       </c>
       <c r="H6">
-        <v>22.3</v>
+        <v>1.3</v>
       </c>
       <c r="I6">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2297,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>73.09999999999999</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2308,28 +2317,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>15.5</v>
+        <v>11.7</v>
       </c>
       <c r="F7">
-        <v>27.5</v>
+        <v>23.9</v>
       </c>
       <c r="G7">
-        <v>26.1</v>
+        <v>21.1</v>
       </c>
       <c r="H7">
-        <v>22.8</v>
+        <v>38.4</v>
       </c>
       <c r="I7">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="J7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2341,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>72.59999999999999</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2355,25 +2364,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>1.8</v>
       </c>
-      <c r="F8">
-        <v>21.5</v>
-      </c>
       <c r="G8">
-        <v>34.8</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>31.5</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>8.6</v>
+        <v>20.4</v>
       </c>
       <c r="J8">
-        <v>1.4</v>
+        <v>19.8</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2385,12 +2394,12 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>58.5</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2408,33 +2417,33 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H9">
-        <v>8.800000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="I9">
-        <v>32.2</v>
+        <v>50.7</v>
       </c>
       <c r="J9">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="K9">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2452,28 +2461,28 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H10">
-        <v>7.7</v>
+        <v>23</v>
       </c>
       <c r="I10">
-        <v>31.1</v>
+        <v>24</v>
       </c>
       <c r="J10">
-        <v>32.8</v>
+        <v>51.5</v>
       </c>
       <c r="K10">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2511,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2543,22 +2552,22 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>36</v>
+        <v>76.2</v>
       </c>
       <c r="L12">
-        <v>30.2</v>
+        <v>23.8</v>
       </c>
       <c r="M12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2590,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>25.2</v>
+        <v>23.8</v>
       </c>
       <c r="L13">
-        <v>50.1</v>
+        <v>76.2</v>
       </c>
       <c r="M13">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2615,13 +2624,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
@@ -2661,37 +2670,40 @@
       <c r="N1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>72.7</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="C2">
-        <v>96.89999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D2">
-        <v>97.89999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="E2">
-        <v>92.80000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="F2">
-        <v>97.39999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="G2">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="H2">
         <v>99.90000000000001</v>
       </c>
       <c r="I2">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -2705,389 +2717,416 @@
       <c r="N2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.5</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>35.7</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>45.9</v>
+        <v>44.7</v>
       </c>
       <c r="G3">
-        <v>71.39999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="H3">
-        <v>50.8</v>
+        <v>50.1</v>
       </c>
       <c r="I3">
-        <v>65.60000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="J3">
-        <v>70.59999999999999</v>
+        <v>67.80000000000001</v>
       </c>
       <c r="K3">
-        <v>86</v>
+        <v>86.8</v>
       </c>
       <c r="L3">
-        <v>98.40000000000001</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="M3">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>99.8</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>97.8</v>
+      </c>
+      <c r="E4">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="F4">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="G4">
+        <v>58.9</v>
+      </c>
+      <c r="H4">
+        <v>48.6</v>
+      </c>
+      <c r="I4">
+        <v>62.3</v>
+      </c>
+      <c r="J4">
+        <v>58.09999999999999</v>
+      </c>
+      <c r="K4">
+        <v>73.8</v>
+      </c>
+      <c r="L4">
+        <v>51.5</v>
+      </c>
+      <c r="M4">
+        <v>64.8</v>
+      </c>
+      <c r="N4">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B5">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="C5">
+        <v>99.3</v>
+      </c>
+      <c r="D5">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E5">
+        <v>98.5</v>
+      </c>
+      <c r="F5">
+        <v>98.5</v>
+      </c>
+      <c r="G5">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="H5">
+        <v>97.2</v>
+      </c>
+      <c r="I5">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J5">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="K5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>37.9</v>
+      </c>
+      <c r="C6">
+        <v>81.8</v>
+      </c>
+      <c r="D6">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="E6">
+        <v>28.8</v>
+      </c>
+      <c r="F6">
+        <v>43.3</v>
+      </c>
+      <c r="G6">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="H6">
+        <v>85</v>
+      </c>
+      <c r="I6">
+        <v>96.3</v>
+      </c>
+      <c r="J6">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K6">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="L6">
+        <v>98.5</v>
+      </c>
+      <c r="M6">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="N6">
         <v>90.5</v>
       </c>
-      <c r="C4">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="D4">
-        <v>98.7</v>
-      </c>
-      <c r="E4">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F4">
-        <v>98</v>
-      </c>
-      <c r="G4">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="H4">
-        <v>98</v>
-      </c>
-      <c r="I4">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="J4">
-        <v>98.2</v>
-      </c>
-      <c r="K4">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <v>100</v>
-      </c>
-      <c r="N4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>38.1</v>
-      </c>
-      <c r="C5">
-        <v>82.89999999999999</v>
-      </c>
-      <c r="D5">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="E5">
-        <v>25.9</v>
-      </c>
-      <c r="F5">
-        <v>44.5</v>
-      </c>
-      <c r="G5">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="H5">
-        <v>87.2</v>
-      </c>
-      <c r="I5">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="J5">
-        <v>89</v>
-      </c>
-      <c r="K5">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L5">
-        <v>98.7</v>
-      </c>
-      <c r="M5">
-        <v>95.5</v>
-      </c>
-      <c r="N5">
-        <v>94.69999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>97.2</v>
-      </c>
-      <c r="E6">
-        <v>94.69999999999999</v>
-      </c>
-      <c r="F6">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="G6">
-        <v>59.3</v>
-      </c>
-      <c r="H6">
-        <v>48.8</v>
-      </c>
-      <c r="I6">
-        <v>61.2</v>
-      </c>
-      <c r="J6">
-        <v>60.8</v>
-      </c>
-      <c r="K6">
-        <v>70.5</v>
-      </c>
-      <c r="L6">
-        <v>54.7</v>
-      </c>
-      <c r="M6">
-        <v>66.8</v>
-      </c>
-      <c r="N6">
-        <v>74.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>61.9</v>
+        <v>66.2</v>
       </c>
       <c r="C7">
-        <v>26.1</v>
+        <v>23.9</v>
       </c>
       <c r="D7">
-        <v>11.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E7">
-        <v>24.2</v>
+        <v>22.4</v>
       </c>
       <c r="F7">
-        <v>5.600000000000001</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="H7">
-        <v>53.1</v>
+        <v>54.6</v>
       </c>
       <c r="I7">
-        <v>32.5</v>
+        <v>34.9</v>
       </c>
       <c r="J7">
-        <v>56.49999999999999</v>
+        <v>60.7</v>
       </c>
       <c r="K7">
-        <v>70</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="L7">
-        <v>91.10000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="M7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N7">
-        <v>71.39999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>57.3</v>
+      </c>
+      <c r="O7">
+        <v>55.90000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>88.5</v>
+        <v>86</v>
       </c>
       <c r="C8">
-        <v>71.3</v>
+        <v>72.2</v>
       </c>
       <c r="D8">
-        <v>85.2</v>
+        <v>86.7</v>
       </c>
       <c r="E8">
-        <v>97.59999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F8">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G8">
         <v>94.3</v>
       </c>
       <c r="H8">
-        <v>88.8</v>
+        <v>89.7</v>
       </c>
       <c r="I8">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="J8">
-        <v>67.80000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="K8">
-        <v>56.00000000000001</v>
+        <v>51.9</v>
       </c>
       <c r="L8">
-        <v>44.8</v>
+        <v>47.59999999999999</v>
       </c>
       <c r="M8">
-        <v>61.9</v>
+        <v>63.5</v>
       </c>
       <c r="N8">
-        <v>55.90000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>39.2</v>
+      </c>
+      <c r="O8">
+        <v>40.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1.6</v>
+      </c>
+      <c r="C9">
+        <v>35.6</v>
+      </c>
+      <c r="D9">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>46.5</v>
+      </c>
+      <c r="F9">
+        <v>58.8</v>
+      </c>
+      <c r="G9">
+        <v>30.7</v>
+      </c>
+      <c r="H9">
+        <v>23.1</v>
+      </c>
+      <c r="I9">
+        <v>14.4</v>
+      </c>
+      <c r="J9">
+        <v>20.1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>2.3</v>
+      </c>
+      <c r="M9">
+        <v>3.7</v>
+      </c>
+      <c r="N9">
+        <v>12.3</v>
+      </c>
+      <c r="O9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="C9">
-        <v>66.5</v>
-      </c>
-      <c r="D9">
-        <v>29.1</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
+      <c r="B10">
+        <v>97.3</v>
+      </c>
+      <c r="C10">
+        <v>66.3</v>
+      </c>
+      <c r="D10">
+        <v>28.1</v>
+      </c>
+      <c r="E10">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>6.2</v>
       </c>
-      <c r="H9">
-        <v>3.8</v>
-      </c>
-      <c r="I9">
-        <v>15.3</v>
-      </c>
-      <c r="J9">
-        <v>4.7</v>
-      </c>
-      <c r="K9">
-        <v>1.1</v>
-      </c>
-      <c r="L9">
+      <c r="H10">
         <v>4.3</v>
-      </c>
-      <c r="M9">
-        <v>4.8</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1.8</v>
-      </c>
-      <c r="C10">
-        <v>33.7</v>
-      </c>
-      <c r="D10">
-        <v>31.1</v>
-      </c>
-      <c r="E10">
-        <v>48.5</v>
-      </c>
-      <c r="F10">
-        <v>54.3</v>
-      </c>
-      <c r="G10">
-        <v>28.8</v>
-      </c>
-      <c r="H10">
-        <v>22.2</v>
       </c>
       <c r="I10">
         <v>14.6</v>
       </c>
       <c r="J10">
-        <v>17.1</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="K10">
+        <v>1.5</v>
+      </c>
+      <c r="L10">
+        <v>4.5</v>
+      </c>
+      <c r="M10">
         <v>4.8</v>
       </c>
-      <c r="L10">
-        <v>1.4</v>
-      </c>
-      <c r="M10">
-        <v>2.6</v>
-      </c>
       <c r="N10">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>9.6</v>
+      </c>
+      <c r="O10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>34.1</v>
+        <v>32.6</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="D11">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="E11">
-        <v>30.3</v>
+        <v>32.2</v>
       </c>
       <c r="F11">
-        <v>15.6</v>
+        <v>14.3</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I11">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="J11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3101,92 +3140,101 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="C12">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="D12">
-        <v>60.09999999999999</v>
+        <v>63.4</v>
       </c>
       <c r="E12">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="F12">
-        <v>56.00000000000001</v>
+        <v>59.59999999999999</v>
       </c>
       <c r="G12">
-        <v>24.5</v>
+        <v>21.8</v>
       </c>
       <c r="H12">
-        <v>28.8</v>
+        <v>27.6</v>
       </c>
       <c r="I12">
-        <v>20.3</v>
+        <v>18.9</v>
       </c>
       <c r="J12">
-        <v>34</v>
+        <v>33.4</v>
       </c>
       <c r="K12">
-        <v>14.2</v>
+        <v>16.2</v>
       </c>
       <c r="L12">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M12">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13">
-        <v>1.1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.1</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="E13">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="G13">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="H13">
-        <v>15.6</v>
+        <v>16.6</v>
       </c>
       <c r="I13">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="J13">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="K13">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="L13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
     </row>
@@ -3208,25 +3256,25 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3234,28 +3282,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <v>108.96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>136.94</v>
+      </c>
+      <c r="G2">
+        <v>0.769</v>
+      </c>
+      <c r="H2">
+        <v>46</v>
+      </c>
+      <c r="I2">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2">
-        <v>100.45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2">
-        <v>130.33</v>
-      </c>
-      <c r="G2">
-        <v>0.667</v>
-      </c>
-      <c r="H2">
-        <v>29</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3263,28 +3311,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>109.52</v>
+        <v>107.03</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>130.96</v>
+        <v>124.36</v>
       </c>
       <c r="G3">
-        <v>0.708</v>
+        <v>0.538</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3292,28 +3340,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>122.11</v>
+        <v>98.06999999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>113.61</v>
+        <v>124.93</v>
       </c>
       <c r="G4">
-        <v>0.333</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3321,28 +3369,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>106.38</v>
+        <v>136.94</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>113.23</v>
+        <v>108.96</v>
       </c>
       <c r="G5">
-        <v>0.458</v>
+        <v>0.308</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3350,28 +3398,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>138.55</v>
+        <v>99.06</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>104.98</v>
+        <v>119.97</v>
       </c>
       <c r="G6">
-        <v>0.25</v>
+        <v>0.538</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3379,28 +3427,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>126.77</v>
+        <v>119.97</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>114.24</v>
+        <v>99.06</v>
       </c>
       <c r="G7">
-        <v>0.583</v>
+        <v>0.154</v>
       </c>
       <c r="H7">
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3411,25 +3459,25 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>111.7</v>
+        <v>110.97</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8">
-        <v>107.22</v>
+        <v>102.19</v>
       </c>
       <c r="G8">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="H8">
-        <v>-5.5</v>
+        <v>-3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3440,25 +3488,25 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>99.69</v>
+        <v>102.19</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9">
-        <v>109.04</v>
+        <v>110.97</v>
       </c>
       <c r="G9">
-        <v>0.667</v>
+        <v>0.769</v>
       </c>
       <c r="H9">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3466,28 +3514,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>97.33</v>
+        <v>100.04</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>111.22</v>
+        <v>113.49</v>
       </c>
       <c r="G10">
-        <v>0.542</v>
+        <v>0.462</v>
       </c>
       <c r="H10">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3495,28 +3543,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>123.37</v>
+        <v>124.36</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>103.42</v>
+        <v>107.03</v>
       </c>
       <c r="G11">
-        <v>0.333</v>
+        <v>0.538</v>
       </c>
       <c r="H11">
-        <v>-14.5</v>
+        <v>-10</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3524,28 +3572,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>99.06999999999999</v>
+        <v>124.93</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>106.04</v>
+        <v>98.06999999999999</v>
       </c>
       <c r="G12">
-        <v>0.417</v>
+        <v>0.308</v>
       </c>
       <c r="H12">
-        <v>-15</v>
+        <v>-29</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3556,25 +3604,25 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13">
-        <v>114.75</v>
+        <v>113.49</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>105.38</v>
+        <v>100.04</v>
       </c>
       <c r="G13">
-        <v>0.583</v>
+        <v>0.462</v>
       </c>
       <c r="H13">
-        <v>-19.5</v>
+        <v>-36</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3595,28 +3643,28 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3624,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D2">
-        <v>138.545</v>
+        <v>136.94</v>
       </c>
       <c r="E2">
-        <v>1662.54</v>
+        <v>1780.22</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3645,7 +3693,7 @@
         <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3653,16 +3701,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D3">
-        <v>123.3683333333333</v>
+        <v>124.9276923076923</v>
       </c>
       <c r="E3">
-        <v>1480.42</v>
+        <v>1624.06</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3674,7 +3722,7 @@
         <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3682,16 +3730,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D4">
-        <v>111.6966666666667</v>
+        <v>110.9676923076923</v>
       </c>
       <c r="E4">
-        <v>1340.36</v>
+        <v>1442.58</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3703,27 +3751,27 @@
         <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D5">
-        <v>122.1116666666667</v>
+        <v>124.3553846153846</v>
       </c>
       <c r="E5">
-        <v>1465.34</v>
+        <v>1616.62</v>
       </c>
       <c r="F5">
-        <v>93.5</v>
+        <v>99.8</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3737,22 +3785,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D6">
-        <v>126.765</v>
+        <v>119.9692307692308</v>
       </c>
       <c r="E6">
-        <v>1521.18</v>
+        <v>1559.6</v>
       </c>
       <c r="F6">
-        <v>73.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3761,7 +3809,7 @@
         <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3769,19 +3817,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D7">
-        <v>106.375</v>
+        <v>107.0276923076923</v>
       </c>
       <c r="E7">
-        <v>1276.5</v>
+        <v>1391.36</v>
       </c>
       <c r="F7">
-        <v>72.59999999999999</v>
+        <v>56.7</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3790,7 +3838,7 @@
         <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3798,25 +3846,25 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D8">
-        <v>114.7533333333333</v>
+        <v>113.4923076923077</v>
       </c>
       <c r="E8">
-        <v>1377.04</v>
+        <v>1475.4</v>
       </c>
       <c r="F8">
-        <v>58.5</v>
+        <v>39.8</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
         <v>104</v>
@@ -3824,28 +3872,28 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
       </c>
       <c r="C9">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D9">
-        <v>99.07166666666667</v>
+        <v>102.1907692307692</v>
       </c>
       <c r="E9">
-        <v>1188.86</v>
+        <v>1328.48</v>
       </c>
       <c r="F9">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
         <v>105</v>
@@ -3853,28 +3901,28 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
       </c>
       <c r="C10">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D10">
-        <v>99.69333333333333</v>
+        <v>100.0353846153846</v>
       </c>
       <c r="E10">
-        <v>1196.32</v>
+        <v>1300.46</v>
       </c>
       <c r="F10">
-        <v>0.7000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
         <v>105</v>
@@ -3888,22 +3936,22 @@
         <v>87</v>
       </c>
       <c r="C11">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D11">
-        <v>100.45</v>
+        <v>99.05538461538461</v>
       </c>
       <c r="E11">
-        <v>1205.4</v>
+        <v>1287.72</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
         <v>106</v>
@@ -3917,22 +3965,22 @@
         <v>88</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D12">
-        <v>109.52</v>
+        <v>108.96</v>
       </c>
       <c r="E12">
-        <v>1314.24</v>
+        <v>1416.48</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
         <v>107</v>
@@ -3946,22 +3994,22 @@
         <v>88</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D13">
-        <v>97.325</v>
+        <v>98.07076923076923</v>
       </c>
       <c r="E13">
-        <v>1167.9</v>
+        <v>1274.92</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
         <v>107</v>
@@ -4008,7 +4056,7 @@
         <v>66</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -4025,13 +4073,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>112</v>
@@ -4042,16 +4090,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>113</v>
@@ -4062,16 +4110,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>114</v>
@@ -4082,16 +4130,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>115</v>
@@ -4105,13 +4153,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>116</v>
@@ -4125,10 +4173,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -4142,19 +4190,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4162,19 +4210,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4185,16 +4233,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4205,16 +4253,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D12">
-        <v>-30</v>
+        <v>-29</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4225,16 +4273,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>-39</v>
+        <v>-36</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4244,54 +4292,57 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4331,11 +4382,14 @@
       <c r="M2">
         <v>47</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4375,143 +4429,155 @@
       <c r="M3">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>-1</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-11</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>-5</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
       <c r="D5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
       <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-6</v>
+      </c>
+      <c r="E6">
+        <v>-11</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6">
+        <v>-3</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <v>19</v>
+      </c>
+      <c r="M6">
         <v>11</v>
       </c>
-      <c r="N5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-5</v>
-      </c>
-      <c r="C6">
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>-4</v>
-      </c>
-      <c r="I6">
-        <v>-7</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4551,11 +4617,14 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7">
+        <v>-3</v>
+      </c>
+      <c r="O7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4595,99 +4664,108 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8">
+        <v>-3</v>
+      </c>
+      <c r="O8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
         <v>-4</v>
       </c>
-      <c r="F9">
-        <v>-3</v>
-      </c>
-      <c r="G9">
-        <v>-5</v>
-      </c>
       <c r="H9">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="I9">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>-5</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>-11</v>
+      </c>
+      <c r="N9">
+        <v>-3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G10">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H10">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="J10">
         <v>-5</v>
       </c>
       <c r="K10">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>-5</v>
       </c>
-      <c r="M10">
-        <v>-11</v>
-      </c>
-      <c r="N10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4727,11 +4805,14 @@
       <c r="M11">
         <v>-16</v>
       </c>
-      <c r="N11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="N11">
+        <v>-10</v>
+      </c>
+      <c r="O11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -4771,11 +4852,14 @@
       <c r="M12">
         <v>-30</v>
       </c>
-      <c r="N12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12">
+        <v>-29</v>
+      </c>
+      <c r="O12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4815,8 +4899,11 @@
       <c r="M13">
         <v>-39</v>
       </c>
-      <c r="N13" t="s">
-        <v>118</v>
+      <c r="N13">
+        <v>-36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="134">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -61,37 +61,40 @@
     <t>Cans in My Hands</t>
   </si>
   <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>12-1-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>13-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -193,6 +196,9 @@
     <t>Week_14</t>
   </si>
   <si>
+    <t>Week_15</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -214,19 +220,28 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Julia Childres</t>
+  </si>
+  <si>
+    <t>Clayton Kavanaugh</t>
+  </si>
+  <si>
+    <t>Alex Keene</t>
+  </si>
+  <si>
+    <t>Felipe Gutierrez</t>
+  </si>
+  <si>
+    <t>Mason Dennis</t>
+  </si>
+  <si>
     <t>Kyle Bradburry</t>
   </si>
   <si>
-    <t>Mason Dennis</t>
-  </si>
-  <si>
     <t>David O'Kane</t>
   </si>
   <si>
-    <t>Julia Childres</t>
-  </si>
-  <si>
-    <t>Clayton Kavanaugh</t>
+    <t>Matthew Stansbury</t>
   </si>
   <si>
     <t>Zack Gray</t>
@@ -241,15 +256,6 @@
     <t>Colman Betler</t>
   </si>
   <si>
-    <t>Matthew Stansbury</t>
-  </si>
-  <si>
-    <t>Alex Keene</t>
-  </si>
-  <si>
-    <t>Felipe Gutierrez</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -274,79 +280,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>2-11</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>10.7-3.2</t>
-  </si>
-  <si>
-    <t>9.7-4.3</t>
-  </si>
-  <si>
-    <t>10.5-3.5</t>
-  </si>
-  <si>
-    <t>7.6-6.4</t>
-  </si>
-  <si>
-    <t>7.7-6.3</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>2.3-11.7</t>
-  </si>
-  <si>
-    <t>4.2-9.7</t>
-  </si>
-  <si>
-    <t>4.3-9.7</t>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>7-7</t>
   </si>
   <si>
     <t>11-3</t>
   </si>
   <si>
-    <t>10-4</t>
-  </si>
-  <si>
-    <t>8-6</t>
-  </si>
-  <si>
-    <t>7-7</t>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>2-12</t>
-  </si>
-  <si>
-    <t>4-10</t>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>11.0-3.0</t>
+  </si>
+  <si>
+    <t>2.0-12.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
   </si>
   <si>
     <t>Owners</t>
@@ -358,34 +337,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑7</t>
   </si>
   <si>
     <t>↓9</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↓11</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -425,6 +401,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -855,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -876,7 +855,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -899,10 +878,10 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -911,22 +890,22 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -937,37 +916,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -975,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -984,31 +963,31 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
       <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
         <v>15</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1016,40 +995,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
         <v>16</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>15</v>
-      </c>
-      <c r="M6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1057,34 +1036,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -1101,22 +1080,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
@@ -1125,13 +1104,13 @@
         <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
         <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1142,31 +1121,31 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -1180,10 +1159,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1192,19 +1171,19 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
       </c>
       <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
         <v>17</v>
       </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -1221,40 +1200,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1265,31 +1244,31 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1306,28 +1285,28 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
         <v>19</v>
@@ -1346,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1354,25 +1333,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1432,25 +1411,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>-31</v>
-      </c>
       <c r="F4">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1458,25 +1437,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1487,22 +1466,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>-11</v>
+        <v>-30</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1510,25 +1489,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>47</v>
+        <v>-3</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1536,25 +1515,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8">
+        <v>-11</v>
+      </c>
+      <c r="F8">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>-23</v>
-      </c>
-      <c r="F8">
-        <v>-3</v>
-      </c>
       <c r="G8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1562,25 +1541,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <v>-8</v>
+        <v>47</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1588,25 +1567,51 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <v>-23</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>-8</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1624,13 +1629,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1641,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1652,13 +1657,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>5.5</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1666,13 +1671,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1683,10 +1688,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1694,13 +1699,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>6.666666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1708,13 +1713,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>6.666666666666667</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1722,10 +1727,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>6.833333333333333</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1739,10 +1744,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>6.833333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1753,10 +1758,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>7.083333333333333</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1767,10 +1772,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7.083333333333333</v>
+        <v>7.75</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1778,13 +1783,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="C12">
-        <v>7.583333333333333</v>
-      </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1792,13 +1797,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>7.75</v>
+        <v>8.5</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1816,16 +1821,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1836,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.66666666666667</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="D2">
-        <v>0.6666666666666661</v>
+        <v>0.8333333333333339</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1853,13 +1858,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>8.083333333333334</v>
+        <v>8.75</v>
       </c>
       <c r="D3">
-        <v>-0.9166666666666661</v>
+        <v>-1.25</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1870,13 +1875,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>8.083333333333334</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D4">
-        <v>1.083333333333334</v>
+        <v>1.583333333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1887,13 +1892,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>7.75</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D5">
-        <v>0.75</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1904,13 +1909,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>6.833333333333333</v>
+        <v>7.75</v>
       </c>
       <c r="D6">
-        <v>-3.166666666666667</v>
+        <v>-3.25</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1921,13 +1926,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>6.666666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="D7">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1935,16 +1940,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>5.916666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D8">
-        <v>1.916666666666667</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1952,16 +1957,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>5.833333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D9">
-        <v>-1.166666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1972,10 +1977,10 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="D10">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1989,10 +1994,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>4.75</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D11">
-        <v>-1.25</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -2006,13 +2011,13 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>4.416666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D12">
-        <v>0.416666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2047,46 +2052,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2094,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>86.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>13.1</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2141,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>68.5</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2179,22 +2184,22 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>55.4</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2235,16 +2240,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>60.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>24.4</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2262,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2279,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27.8</v>
+        <v>100</v>
       </c>
       <c r="F6">
-        <v>59.4</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2306,15 +2311,15 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>98.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2323,19 +2328,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>23.9</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>21.1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>38.4</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2350,12 +2355,12 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>56.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2370,19 +2375,19 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2391,15 +2396,15 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8">
-        <v>39.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2417,16 +2422,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>17.1</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <v>50.7</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>28.7</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2438,12 +2443,12 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2461,19 +2466,19 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2482,12 +2487,12 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2520,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2531,7 +2536,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2555,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>76.2</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2575,7 +2580,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2602,13 +2607,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K13">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>76.2</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2624,89 +2629,92 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>56</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>71.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="C2">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D2">
-        <v>98.3</v>
+        <v>97.8</v>
       </c>
       <c r="E2">
-        <v>94.3</v>
+        <v>93.7</v>
       </c>
       <c r="F2">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G2">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="H2">
         <v>99.90000000000001</v>
       </c>
       <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
         <v>99.90000000000001</v>
       </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
       <c r="K2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -2720,46 +2728,49 @@
       <c r="O2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.200000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>44.7</v>
+        <v>46.5</v>
       </c>
       <c r="G3">
-        <v>75.2</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="H3">
-        <v>50.1</v>
+        <v>50.3</v>
       </c>
       <c r="I3">
-        <v>65.2</v>
+        <v>68.5</v>
       </c>
       <c r="J3">
-        <v>67.80000000000001</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="K3">
-        <v>86.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="L3">
-        <v>97.89999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="M3">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2767,474 +2778,507 @@
       <c r="O3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>64.5</v>
+      </c>
+      <c r="C4">
+        <v>29.5</v>
+      </c>
+      <c r="D4">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E4">
+        <v>24.2</v>
+      </c>
+      <c r="F4">
+        <v>7.1</v>
+      </c>
+      <c r="G4">
+        <v>30.4</v>
+      </c>
+      <c r="H4">
+        <v>54.90000000000001</v>
+      </c>
+      <c r="I4">
+        <v>35.5</v>
+      </c>
+      <c r="J4">
+        <v>57.49999999999999</v>
+      </c>
+      <c r="K4">
+        <v>67.80000000000001</v>
+      </c>
+      <c r="L4">
+        <v>90.10000000000001</v>
+      </c>
+      <c r="M4">
+        <v>65.60000000000001</v>
+      </c>
+      <c r="N4">
+        <v>56.7</v>
+      </c>
+      <c r="O4">
+        <v>59.59999999999999</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>99.8</v>
-      </c>
-      <c r="C4">
+      <c r="B5">
         <v>100</v>
       </c>
-      <c r="D4">
-        <v>97.8</v>
-      </c>
-      <c r="E4">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="F4">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="G4">
-        <v>58.9</v>
-      </c>
-      <c r="H4">
-        <v>48.6</v>
-      </c>
-      <c r="I4">
-        <v>62.3</v>
-      </c>
-      <c r="J4">
-        <v>58.09999999999999</v>
-      </c>
-      <c r="K4">
-        <v>73.8</v>
-      </c>
-      <c r="L4">
-        <v>51.5</v>
-      </c>
-      <c r="M4">
-        <v>64.8</v>
-      </c>
-      <c r="N4">
-        <v>91.10000000000001</v>
-      </c>
-      <c r="O4">
+      <c r="C5">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="C5">
-        <v>99.3</v>
-      </c>
       <c r="D5">
-        <v>97.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="E5">
-        <v>98.5</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="F5">
-        <v>98.5</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="G5">
-        <v>94.59999999999999</v>
+        <v>58.7</v>
       </c>
       <c r="H5">
-        <v>97.2</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="I5">
-        <v>99.59999999999999</v>
+        <v>60.2</v>
       </c>
       <c r="J5">
-        <v>97.89999999999999</v>
+        <v>62.1</v>
       </c>
       <c r="K5">
-        <v>99.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="L5">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="M5">
+        <v>68.7</v>
+      </c>
+      <c r="N5">
+        <v>88.8</v>
+      </c>
+      <c r="O5">
+        <v>74</v>
+      </c>
+      <c r="P5">
         <v>100</v>
       </c>
-      <c r="M5">
-        <v>100</v>
-      </c>
-      <c r="N5">
-        <v>100</v>
-      </c>
-      <c r="O5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>37.9</v>
+        <v>36.4</v>
       </c>
       <c r="C6">
-        <v>81.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D6">
-        <v>75.59999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="E6">
         <v>28.8</v>
       </c>
       <c r="F6">
-        <v>43.3</v>
+        <v>40.9</v>
       </c>
       <c r="G6">
-        <v>72.09999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="H6">
-        <v>85</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="I6">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="J6">
-        <v>87.09999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="K6">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="L6">
+        <v>98.8</v>
+      </c>
+      <c r="M6">
         <v>95.39999999999999</v>
       </c>
-      <c r="L6">
-        <v>98.5</v>
-      </c>
-      <c r="M6">
+      <c r="N6">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>90.7</v>
+      </c>
+      <c r="C7">
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <v>98.8</v>
+      </c>
+      <c r="E7">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F7">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G7">
+        <v>94.8</v>
+      </c>
+      <c r="H7">
+        <v>97.7</v>
+      </c>
+      <c r="I7">
+        <v>99.7</v>
+      </c>
+      <c r="J7">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="K7">
+        <v>99.5</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>32.2</v>
+      </c>
+      <c r="C8">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.9</v>
+      </c>
+      <c r="E8">
+        <v>33.90000000000001</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="H8">
+        <v>2.5</v>
+      </c>
+      <c r="I8">
+        <v>1.7</v>
+      </c>
+      <c r="J8">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="C9">
+        <v>66.7</v>
+      </c>
+      <c r="D9">
+        <v>86.3</v>
+      </c>
+      <c r="E9">
         <v>96.09999999999999</v>
       </c>
-      <c r="N6">
-        <v>90.5</v>
-      </c>
-      <c r="O6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>66.2</v>
-      </c>
-      <c r="C7">
+      <c r="F9">
+        <v>99.5</v>
+      </c>
+      <c r="G9">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="H9">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="I9">
+        <v>85.2</v>
+      </c>
+      <c r="J9">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="K9">
+        <v>54.6</v>
+      </c>
+      <c r="L9">
+        <v>47.8</v>
+      </c>
+      <c r="M9">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="N9">
+        <v>42.2</v>
+      </c>
+      <c r="O9">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>4.5</v>
+      </c>
+      <c r="C10">
+        <v>18.9</v>
+      </c>
+      <c r="D10">
+        <v>62.3</v>
+      </c>
+      <c r="E10">
+        <v>35.8</v>
+      </c>
+      <c r="F10">
+        <v>58.2</v>
+      </c>
+      <c r="G10">
         <v>23.9</v>
       </c>
-      <c r="D7">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="E7">
-        <v>22.4</v>
-      </c>
-      <c r="F7">
+      <c r="H10">
+        <v>26.4</v>
+      </c>
+      <c r="I10">
+        <v>16.8</v>
+      </c>
+      <c r="J10">
+        <v>33.5</v>
+      </c>
+      <c r="K10">
+        <v>17.3</v>
+      </c>
+      <c r="L10">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.6</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="B11">
+        <v>1.4</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5.7</v>
+      </c>
+      <c r="E11">
+        <v>3.8</v>
+      </c>
+      <c r="F11">
+        <v>4.3</v>
+      </c>
+      <c r="G11">
+        <v>9.1</v>
+      </c>
+      <c r="H11">
+        <v>18.9</v>
+      </c>
+      <c r="I11">
+        <v>6.4</v>
+      </c>
+      <c r="J11">
+        <v>1.4</v>
+      </c>
+      <c r="K11">
+        <v>0.6</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0.1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.8</v>
+      </c>
+      <c r="C12">
+        <v>33.8</v>
+      </c>
+      <c r="D12">
+        <v>32.3</v>
+      </c>
+      <c r="E12">
+        <v>44.7</v>
+      </c>
+      <c r="F12">
+        <v>56.3</v>
+      </c>
+      <c r="G12">
+        <v>31.9</v>
+      </c>
+      <c r="H12">
+        <v>22.9</v>
+      </c>
+      <c r="I12">
+        <v>15.1</v>
+      </c>
+      <c r="J12">
+        <v>16.4</v>
+      </c>
+      <c r="K12">
+        <v>3.9</v>
+      </c>
+      <c r="L12">
+        <v>1.8</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>13.7</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>98.2</v>
+      </c>
+      <c r="C13">
+        <v>68.10000000000001</v>
+      </c>
+      <c r="D13">
         <v>30.7</v>
       </c>
-      <c r="H7">
-        <v>54.6</v>
-      </c>
-      <c r="I7">
-        <v>34.9</v>
-      </c>
-      <c r="J7">
-        <v>60.7</v>
-      </c>
-      <c r="K7">
-        <v>69.19999999999999</v>
-      </c>
-      <c r="L7">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="M7">
-        <v>67</v>
-      </c>
-      <c r="N7">
-        <v>57.3</v>
-      </c>
-      <c r="O7">
-        <v>55.90000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>86</v>
-      </c>
-      <c r="C8">
-        <v>72.2</v>
-      </c>
-      <c r="D8">
-        <v>86.7</v>
-      </c>
-      <c r="E8">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F8">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="G8">
-        <v>94.3</v>
-      </c>
-      <c r="H8">
-        <v>89.7</v>
-      </c>
-      <c r="I8">
-        <v>86</v>
-      </c>
-      <c r="J8">
-        <v>68.7</v>
-      </c>
-      <c r="K8">
-        <v>51.9</v>
-      </c>
-      <c r="L8">
-        <v>47.59999999999999</v>
-      </c>
-      <c r="M8">
-        <v>63.5</v>
-      </c>
-      <c r="N8">
-        <v>39.2</v>
-      </c>
-      <c r="O8">
-        <v>40.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>1.6</v>
-      </c>
-      <c r="C9">
-        <v>35.6</v>
-      </c>
-      <c r="D9">
-        <v>31</v>
-      </c>
-      <c r="E9">
-        <v>46.5</v>
-      </c>
-      <c r="F9">
-        <v>58.8</v>
-      </c>
-      <c r="G9">
-        <v>30.7</v>
-      </c>
-      <c r="H9">
-        <v>23.1</v>
-      </c>
-      <c r="I9">
+      <c r="E13">
+        <v>12.7</v>
+      </c>
+      <c r="F13">
+        <v>2.3</v>
+      </c>
+      <c r="G13">
+        <v>5.5</v>
+      </c>
+      <c r="H13">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="I13">
         <v>14.4</v>
       </c>
-      <c r="J9">
-        <v>20.1</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>2.3</v>
-      </c>
-      <c r="M9">
-        <v>3.7</v>
-      </c>
-      <c r="N9">
-        <v>12.3</v>
-      </c>
-      <c r="O9">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>97.3</v>
-      </c>
-      <c r="C10">
-        <v>66.3</v>
-      </c>
-      <c r="D10">
-        <v>28.1</v>
-      </c>
-      <c r="E10">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>6.2</v>
-      </c>
-      <c r="H10">
-        <v>4.3</v>
-      </c>
-      <c r="I10">
-        <v>14.6</v>
-      </c>
-      <c r="J10">
-        <v>4.399999999999999</v>
-      </c>
-      <c r="K10">
-        <v>1.5</v>
-      </c>
-      <c r="L10">
-        <v>4.5</v>
-      </c>
-      <c r="M10">
-        <v>4.8</v>
-      </c>
-      <c r="N10">
-        <v>9.6</v>
-      </c>
-      <c r="O10">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>32.6</v>
-      </c>
-      <c r="C11">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="D11">
-        <v>1.8</v>
-      </c>
-      <c r="E11">
-        <v>32.2</v>
-      </c>
-      <c r="F11">
-        <v>14.3</v>
-      </c>
-      <c r="G11">
-        <v>9.5</v>
-      </c>
-      <c r="H11">
-        <v>3.3</v>
-      </c>
-      <c r="I11">
-        <v>1.5</v>
-      </c>
-      <c r="J11">
-        <v>0.3</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>6.2</v>
-      </c>
-      <c r="C12">
-        <v>19.2</v>
-      </c>
-      <c r="D12">
-        <v>63.4</v>
-      </c>
-      <c r="E12">
-        <v>38.1</v>
-      </c>
-      <c r="F12">
-        <v>59.59999999999999</v>
-      </c>
-      <c r="G12">
-        <v>21.8</v>
-      </c>
-      <c r="H12">
-        <v>27.6</v>
-      </c>
-      <c r="I12">
-        <v>18.9</v>
-      </c>
-      <c r="J12">
-        <v>33.4</v>
-      </c>
-      <c r="K12">
-        <v>16.2</v>
-      </c>
-      <c r="L12">
-        <v>6.2</v>
-      </c>
-      <c r="M12">
-        <v>0.4</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>5.899999999999999</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>2.6</v>
-      </c>
-      <c r="G13">
-        <v>6.7</v>
-      </c>
-      <c r="H13">
-        <v>16.6</v>
-      </c>
-      <c r="I13">
-        <v>6.4</v>
-      </c>
       <c r="J13">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="K13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L13">
-        <v>0.1</v>
+        <v>3.8</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>0</v>
       </c>
     </row>
@@ -3253,28 +3297,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3282,28 +3326,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>108.96</v>
+        <v>133.92</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>136.94</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3311,28 +3355,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>107.03</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>124.36</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3340,28 +3384,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>98.06999999999999</v>
+        <v>124.09</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>124.93</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3369,28 +3413,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>136.94</v>
+        <v>114.21</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>108.96</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3398,28 +3442,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>99.06</v>
+        <v>108.51</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>119.97</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3427,28 +3471,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>119.97</v>
+        <v>109.74</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>99.06</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3456,28 +3500,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8">
-        <v>110.97</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>102.19</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3485,28 +3529,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>102.19</v>
+        <v>123.42</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>110.97</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3514,28 +3558,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>100.04</v>
+        <v>118.15</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>113.49</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3543,28 +3587,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11">
-        <v>124.36</v>
+        <v>112.09</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>107.03</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3572,28 +3616,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12">
-        <v>124.93</v>
+        <v>101.92</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>98.06999999999999</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3601,28 +3645,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>113.49</v>
+        <v>100.41</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13">
-        <v>100.04</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3640,31 +3684,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3672,16 +3716,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2">
-        <v>0.7692307692307693</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2">
-        <v>136.94</v>
+        <v>133.9171428571429</v>
       </c>
       <c r="E2">
-        <v>1780.22</v>
+        <v>1874.84</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3690,10 +3734,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3701,16 +3745,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D3">
-        <v>124.9276923076923</v>
+        <v>124.0942857142857</v>
       </c>
       <c r="E3">
-        <v>1624.06</v>
+        <v>1737.32</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3719,27 +3763,27 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4">
-        <v>0.7692307692307693</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D4">
-        <v>110.9676923076923</v>
+        <v>108.5142857142857</v>
       </c>
       <c r="E4">
-        <v>1442.58</v>
+        <v>1519.2</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3748,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3759,28 +3803,28 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>124.3553846153846</v>
+        <v>123.4228571428571</v>
       </c>
       <c r="E5">
-        <v>1616.62</v>
+        <v>1727.92</v>
       </c>
       <c r="F5">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3788,190 +3832,190 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>119.9692307692308</v>
+        <v>118.1471428571429</v>
       </c>
       <c r="E6">
-        <v>1559.6</v>
+        <v>1654.06</v>
       </c>
       <c r="F6">
-        <v>98.7</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7">
-        <v>0.5384615384615384</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D7">
-        <v>107.0276923076923</v>
+        <v>112.0942857142857</v>
       </c>
       <c r="E7">
-        <v>1391.36</v>
+        <v>1569.32</v>
       </c>
       <c r="F7">
-        <v>56.7</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C8">
-        <v>0.4615384615384616</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D8">
-        <v>113.4923076923077</v>
+        <v>96.89857142857143</v>
       </c>
       <c r="E8">
-        <v>1475.4</v>
+        <v>1356.58</v>
       </c>
       <c r="F8">
-        <v>39.8</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>102.1907692307692</v>
+        <v>114.2114285714286</v>
       </c>
       <c r="E9">
-        <v>1328.48</v>
+        <v>1598.96</v>
       </c>
       <c r="F9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>0.4615384615384616</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D10">
-        <v>100.0353846153846</v>
+        <v>109.7385714285714</v>
       </c>
       <c r="E10">
-        <v>1300.46</v>
+        <v>1536.34</v>
       </c>
       <c r="F10">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C11">
-        <v>0.1538461538461539</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D11">
-        <v>99.05538461538461</v>
+        <v>98.81857142857143</v>
       </c>
       <c r="E11">
-        <v>1287.72</v>
+        <v>1383.46</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C12">
-        <v>0.3076923076923077</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D12">
-        <v>108.96</v>
+        <v>101.9171428571428</v>
       </c>
       <c r="E12">
-        <v>1416.48</v>
+        <v>1426.84</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3980,27 +4024,27 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C13">
-        <v>0.3076923076923077</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D13">
-        <v>98.07076923076923</v>
+        <v>100.4114285714286</v>
       </c>
       <c r="E13">
-        <v>1274.92</v>
+        <v>1405.76</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4012,7 +4056,7 @@
         <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4030,19 +4074,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4053,16 +4097,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4076,13 +4120,13 @@
         <v>72</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4093,16 +4137,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4113,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -4122,7 +4166,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4130,19 +4174,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4150,19 +4194,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4170,19 +4214,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4190,19 +4234,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>-3</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4210,19 +4254,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4230,19 +4274,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4253,16 +4297,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>-29</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4273,16 +4317,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>-36</v>
+        <v>-35</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4292,57 +4336,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4385,11 +4432,14 @@
       <c r="N2">
         <v>46</v>
       </c>
-      <c r="O2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4432,11 +4482,14 @@
       <c r="N3">
         <v>19</v>
       </c>
-      <c r="O3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4479,11 +4532,14 @@
       <c r="N4">
         <v>17</v>
       </c>
-      <c r="O4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4526,293 +4582,314 @@
       <c r="N5">
         <v>5</v>
       </c>
-      <c r="O5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-6</v>
-      </c>
-      <c r="E6">
-        <v>-11</v>
-      </c>
       <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
         <v>-2</v>
       </c>
-      <c r="G6">
+      <c r="K6">
+        <v>-4</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>-3</v>
       </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <v>17</v>
-      </c>
-      <c r="L6">
-        <v>19</v>
-      </c>
-      <c r="M6">
-        <v>11</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>-3</v>
-      </c>
-      <c r="C7">
-        <v>-2</v>
-      </c>
       <c r="D7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="N7">
         <v>-3</v>
       </c>
-      <c r="O7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>-2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>-6</v>
       </c>
       <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <v>-3</v>
+      </c>
+      <c r="G8">
+        <v>-5</v>
+      </c>
+      <c r="H8">
+        <v>-10</v>
+      </c>
+      <c r="I8">
+        <v>-3</v>
+      </c>
+      <c r="J8">
+        <v>-5</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>-5</v>
+      </c>
+      <c r="O8">
+        <v>-2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
+        <v>-13</v>
+      </c>
+      <c r="G9">
+        <v>-13</v>
+      </c>
+      <c r="H9">
+        <v>-9</v>
+      </c>
+      <c r="I9">
+        <v>-17</v>
+      </c>
+      <c r="J9">
+        <v>-8</v>
+      </c>
+      <c r="K9">
+        <v>-8</v>
+      </c>
+      <c r="L9">
+        <v>-15</v>
+      </c>
+      <c r="M9">
+        <v>-16</v>
+      </c>
+      <c r="N9">
+        <v>-10</v>
+      </c>
+      <c r="O9">
+        <v>-3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>-3</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>-2</v>
-      </c>
-      <c r="K8">
-        <v>-4</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>-3</v>
-      </c>
-      <c r="O8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="B10">
         <v>-1</v>
       </c>
-      <c r="G9">
-        <v>-4</v>
-      </c>
-      <c r="H9">
-        <v>-2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>-5</v>
-      </c>
-      <c r="K9">
-        <v>-6</v>
-      </c>
-      <c r="L9">
-        <v>-5</v>
-      </c>
-      <c r="M9">
-        <v>-11</v>
-      </c>
-      <c r="N9">
-        <v>-3</v>
-      </c>
-      <c r="O9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>-6</v>
       </c>
       <c r="E10">
+        <v>-11</v>
+      </c>
+      <c r="F10">
+        <v>-2</v>
+      </c>
+      <c r="G10">
+        <v>-3</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>19</v>
+      </c>
+      <c r="M10">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>-7</v>
+      </c>
+      <c r="P10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <v>-2</v>
+      </c>
+      <c r="D11">
         <v>-4</v>
       </c>
-      <c r="F10">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>-3</v>
       </c>
-      <c r="G10">
-        <v>-5</v>
-      </c>
-      <c r="H10">
-        <v>-10</v>
-      </c>
-      <c r="I10">
-        <v>-3</v>
-      </c>
-      <c r="J10">
-        <v>-5</v>
-      </c>
-      <c r="K10">
-        <v>-1</v>
-      </c>
-      <c r="L10">
-        <v>-1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>-5</v>
-      </c>
-      <c r="O10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <v>-7</v>
-      </c>
-      <c r="F11">
-        <v>-13</v>
-      </c>
-      <c r="G11">
-        <v>-13</v>
-      </c>
-      <c r="H11">
-        <v>-9</v>
-      </c>
-      <c r="I11">
-        <v>-17</v>
-      </c>
-      <c r="J11">
-        <v>-8</v>
-      </c>
-      <c r="K11">
-        <v>-8</v>
-      </c>
-      <c r="L11">
-        <v>-15</v>
-      </c>
-      <c r="M11">
-        <v>-16</v>
-      </c>
-      <c r="N11">
-        <v>-10</v>
-      </c>
-      <c r="O11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>-14</v>
+      </c>
+      <c r="P11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -4855,11 +4932,14 @@
       <c r="N12">
         <v>-29</v>
       </c>
-      <c r="O12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>-29</v>
+      </c>
+      <c r="P12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4902,8 +4982,11 @@
       <c r="N13">
         <v>-36</v>
       </c>
-      <c r="O13" t="s">
-        <v>120</v>
+      <c r="O13">
+        <v>-35</v>
+      </c>
+      <c r="P13" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="147">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -61,201 +61,228 @@
     <t>Cans in My Hands</t>
   </si>
   <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>10-4-1</t>
+  </si>
+  <si>
+    <t>13-2-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>11-3-1</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins Against Schedule</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected Wins</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Julia Childres</t>
+  </si>
+  <si>
+    <t>Clayton Kavanaugh</t>
+  </si>
+  <si>
+    <t>Alex Keene</t>
+  </si>
+  <si>
+    <t>Felipe Gutierrez</t>
+  </si>
+  <si>
+    <t>Mason Dennis</t>
+  </si>
+  <si>
+    <t>Kyle Bradburry</t>
+  </si>
+  <si>
+    <t>David O'Kane</t>
+  </si>
+  <si>
+    <t>Matthew Stansbury</t>
+  </si>
+  <si>
+    <t>Zack Gray</t>
+  </si>
+  <si>
+    <t>Patrick Fennell</t>
+  </si>
+  <si>
+    <t>Lisa Jackson</t>
+  </si>
+  <si>
+    <t>Colman Betler</t>
+  </si>
+  <si>
     <t>10-4-0</t>
   </si>
   <si>
-    <t>3-11-0</t>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
   </si>
   <si>
     <t>8-6-0</t>
   </si>
   <si>
-    <t>9-5-0</t>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
   </si>
   <si>
     <t>6-8-0</t>
   </si>
   <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>13-1-0</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins Against Schedule</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Expected Wins</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>1st Place</t>
-  </si>
-  <si>
-    <t>2nd Place</t>
-  </si>
-  <si>
-    <t>3rd Place</t>
-  </si>
-  <si>
-    <t>4th Place</t>
-  </si>
-  <si>
-    <t>5th Place</t>
-  </si>
-  <si>
-    <t>6th Place</t>
-  </si>
-  <si>
-    <t>7th Place</t>
-  </si>
-  <si>
-    <t>8th Place</t>
-  </si>
-  <si>
-    <t>9th Place</t>
-  </si>
-  <si>
-    <t>10th Place</t>
-  </si>
-  <si>
-    <t>11th Place</t>
-  </si>
-  <si>
-    <t>12th Place</t>
-  </si>
-  <si>
-    <t>Chance of Making Playoffs</t>
-  </si>
-  <si>
-    <t>Week_1</t>
-  </si>
-  <si>
-    <t>Week_2</t>
-  </si>
-  <si>
-    <t>Week_3</t>
-  </si>
-  <si>
-    <t>Week_4</t>
-  </si>
-  <si>
-    <t>Week_5</t>
-  </si>
-  <si>
-    <t>Week_6</t>
-  </si>
-  <si>
-    <t>Week_7</t>
-  </si>
-  <si>
-    <t>Week_8</t>
-  </si>
-  <si>
-    <t>Week_9</t>
-  </si>
-  <si>
-    <t>Week_10</t>
-  </si>
-  <si>
-    <t>Week_11</t>
-  </si>
-  <si>
-    <t>Week_12</t>
-  </si>
-  <si>
-    <t>Week_13</t>
-  </si>
-  <si>
-    <t>Week_14</t>
-  </si>
-  <si>
-    <t>Week_15</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Avg_Points_For</t>
-  </si>
-  <si>
-    <t>Team_Record</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Points_For</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Win_Pct</t>
-  </si>
-  <si>
-    <t>Avg_Opp_LPI</t>
-  </si>
-  <si>
-    <t>Games_Remaining</t>
-  </si>
-  <si>
-    <t>Julia Childres</t>
-  </si>
-  <si>
-    <t>Clayton Kavanaugh</t>
-  </si>
-  <si>
-    <t>Alex Keene</t>
-  </si>
-  <si>
-    <t>Felipe Gutierrez</t>
-  </si>
-  <si>
-    <t>Mason Dennis</t>
-  </si>
-  <si>
-    <t>Kyle Bradburry</t>
-  </si>
-  <si>
-    <t>David O'Kane</t>
-  </si>
-  <si>
-    <t>Matthew Stansbury</t>
-  </si>
-  <si>
-    <t>Zack Gray</t>
-  </si>
-  <si>
-    <t>Patrick Fennell</t>
-  </si>
-  <si>
-    <t>Lisa Jackson</t>
-  </si>
-  <si>
-    <t>Colman Betler</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -337,31 +364,40 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓11</t>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -404,6 +440,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -840,31 +879,31 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -875,13 +914,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -890,7 +929,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
@@ -916,37 +955,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
         <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -957,34 +996,34 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
@@ -998,34 +1037,34 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
         <v>15</v>
@@ -1036,40 +1075,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
       </c>
       <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
         <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1098,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1118,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1127,28 +1166,28 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1162,34 +1201,34 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
       <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1200,13 +1239,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -1215,22 +1254,22 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -1241,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1250,7 +1289,7 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -1259,19 +1298,19 @@
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
         <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -1285,34 +1324,34 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
         <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
         <v>20</v>
       </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
         <v>16</v>
@@ -1333,25 +1372,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1437,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1446,13 +1485,13 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>-31</v>
+        <v>-29</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -1463,25 +1502,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1489,25 +1528,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>-30</v>
       </c>
       <c r="F7">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1515,25 +1554,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>-11</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>-3</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1544,22 +1583,22 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>-11</v>
       </c>
       <c r="F9">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1567,25 +1606,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-23</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>-3</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1593,25 +1632,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
+        <v>-23</v>
+      </c>
+      <c r="F11">
+        <v>-3</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
         <v>11</v>
-      </c>
-      <c r="F11">
-        <v>-8</v>
-      </c>
-      <c r="G11">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1629,13 +1668,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1646,10 +1685,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.916666666666667</v>
+        <v>5.75</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1660,10 +1699,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>5.666666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1674,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>6.25</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1688,10 +1727,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>6.583333333333333</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1702,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.083333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1716,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.166666666666667</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1730,10 +1769,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>7.166666666666667</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1744,7 +1783,7 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1755,13 +1794,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>7.666666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1769,13 +1808,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>7.75</v>
+        <v>8.5</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1783,13 +1822,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1800,10 +1839,10 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1821,16 +1860,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1841,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.83333333333333</v>
+        <v>11.5</v>
       </c>
       <c r="D2">
-        <v>0.8333333333333339</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1855,16 +1894,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>8.75</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D3">
-        <v>-1.25</v>
+        <v>2.083333333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1872,16 +1911,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>8.583333333333334</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="D4">
-        <v>1.583333333333334</v>
+        <v>-1.083333333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1892,13 +1931,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>7.916666666666667</v>
+        <v>8.75</v>
       </c>
       <c r="D5">
-        <v>-0.08333333333333304</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1906,16 +1945,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>7.75</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="D6">
-        <v>-3.25</v>
+        <v>0.4166666666666661</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1923,16 +1962,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>-2.916666666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1943,10 +1982,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>6.833333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="D8">
-        <v>-1.166666666666667</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1960,10 +1999,10 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>6.666666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D9">
-        <v>1.666666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -1974,13 +2013,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D10">
-        <v>-0.5</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1991,16 +2030,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>5.083333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D11">
-        <v>-0.916666666666667</v>
+        <v>-0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2011,10 +2050,10 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>4.833333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D12">
-        <v>0.833333333333333</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -2028,13 +2067,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>3.75</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D13">
-        <v>1.75</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2052,46 +2091,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2637,49 +2676,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2687,34 +2726,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>71.8</v>
       </c>
       <c r="C2">
-        <v>97.3</v>
+        <v>96.7</v>
       </c>
       <c r="D2">
-        <v>97.8</v>
+        <v>98.5</v>
       </c>
       <c r="E2">
-        <v>93.7</v>
+        <v>94.3</v>
       </c>
       <c r="F2">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="G2">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H2">
+        <v>99.8</v>
+      </c>
+      <c r="I2">
         <v>99.90000000000001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>100</v>
       </c>
-      <c r="J2">
-        <v>99.90000000000001</v>
-      </c>
       <c r="K2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -2737,40 +2776,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>37.5</v>
       </c>
       <c r="F3">
-        <v>46.5</v>
+        <v>49.3</v>
       </c>
       <c r="G3">
-        <v>71.09999999999999</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="H3">
-        <v>50.3</v>
+        <v>53.6</v>
       </c>
       <c r="I3">
-        <v>68.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="J3">
-        <v>67.60000000000001</v>
+        <v>67.80000000000001</v>
       </c>
       <c r="K3">
-        <v>87.90000000000001</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="L3">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="M3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2787,46 +2826,46 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>64.5</v>
+        <v>61.6</v>
       </c>
       <c r="C4">
-        <v>29.5</v>
+        <v>24.9</v>
       </c>
       <c r="D4">
-        <v>8.699999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="E4">
-        <v>24.2</v>
+        <v>22.5</v>
       </c>
       <c r="F4">
-        <v>7.1</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G4">
-        <v>30.4</v>
+        <v>32.4</v>
       </c>
       <c r="H4">
-        <v>54.90000000000001</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="I4">
-        <v>35.5</v>
+        <v>34.5</v>
       </c>
       <c r="J4">
-        <v>57.49999999999999</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="K4">
-        <v>67.80000000000001</v>
+        <v>70.7</v>
       </c>
       <c r="L4">
-        <v>90.10000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="M4">
-        <v>65.60000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="N4">
-        <v>56.7</v>
+        <v>59.8</v>
       </c>
       <c r="O4">
-        <v>59.59999999999999</v>
+        <v>59.8</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2837,46 +2876,46 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="E5">
-        <v>94.19999999999999</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="F5">
-        <v>71.39999999999999</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G5">
-        <v>58.7</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="H5">
-        <v>47.09999999999999</v>
+        <v>47.4</v>
       </c>
       <c r="I5">
-        <v>60.2</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="J5">
-        <v>62.1</v>
+        <v>59.7</v>
       </c>
       <c r="K5">
-        <v>71.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="L5">
-        <v>55.00000000000001</v>
+        <v>52.3</v>
       </c>
       <c r="M5">
-        <v>68.7</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="N5">
-        <v>88.8</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="O5">
-        <v>74</v>
+        <v>76.7</v>
       </c>
       <c r="P5">
         <v>100</v>
@@ -2887,43 +2926,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>36.4</v>
+        <v>37.2</v>
       </c>
       <c r="C6">
-        <v>82.59999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="D6">
-        <v>73.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E6">
-        <v>28.8</v>
+        <v>30.3</v>
       </c>
       <c r="F6">
-        <v>40.9</v>
+        <v>44.9</v>
       </c>
       <c r="G6">
-        <v>71.7</v>
+        <v>72</v>
       </c>
       <c r="H6">
-        <v>87.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="I6">
+        <v>96.2</v>
+      </c>
+      <c r="J6">
+        <v>89.5</v>
+      </c>
+      <c r="K6">
         <v>96.5</v>
       </c>
-      <c r="J6">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="K6">
-        <v>96.09999999999999</v>
-      </c>
       <c r="L6">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>95.39999999999999</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="N6">
-        <v>88.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -2937,34 +2976,34 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>90.7</v>
+        <v>91.2</v>
       </c>
       <c r="C7">
         <v>99</v>
       </c>
       <c r="D7">
-        <v>98.8</v>
+        <v>98.2</v>
       </c>
       <c r="E7">
-        <v>99.09999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F7">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="G7">
         <v>94.8</v>
       </c>
       <c r="H7">
+        <v>96.5</v>
+      </c>
+      <c r="I7">
+        <v>99.3</v>
+      </c>
+      <c r="J7">
         <v>97.7</v>
       </c>
-      <c r="I7">
-        <v>99.7</v>
-      </c>
-      <c r="J7">
-        <v>97.59999999999999</v>
-      </c>
       <c r="K7">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -2987,34 +3026,34 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>32.2</v>
+        <v>37.5</v>
       </c>
       <c r="C8">
-        <v>4.100000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="D8">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="E8">
-        <v>33.90000000000001</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>15.4</v>
       </c>
       <c r="G8">
-        <v>8.799999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H8">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>0.7000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3037,46 +3076,46 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>86.09999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="C9">
-        <v>66.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D9">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="E9">
-        <v>96.09999999999999</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="F9">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="G9">
-        <v>94.89999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="H9">
-        <v>87.59999999999999</v>
+        <v>89</v>
       </c>
       <c r="I9">
-        <v>85.2</v>
+        <v>86.8</v>
       </c>
       <c r="J9">
-        <v>69.59999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="K9">
-        <v>54.6</v>
+        <v>49.7</v>
       </c>
       <c r="L9">
-        <v>47.8</v>
+        <v>47.3</v>
       </c>
       <c r="M9">
-        <v>60.09999999999999</v>
+        <v>58.9</v>
       </c>
       <c r="N9">
-        <v>42.2</v>
+        <v>37</v>
       </c>
       <c r="O9">
-        <v>66.40000000000001</v>
+        <v>63.5</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3087,40 +3126,40 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>4.5</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="C10">
-        <v>18.9</v>
+        <v>20.4</v>
       </c>
       <c r="D10">
-        <v>62.3</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="E10">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="F10">
-        <v>58.2</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G10">
-        <v>23.9</v>
+        <v>22.6</v>
       </c>
       <c r="H10">
-        <v>26.4</v>
+        <v>27.1</v>
       </c>
       <c r="I10">
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="J10">
-        <v>33.5</v>
+        <v>31.6</v>
       </c>
       <c r="K10">
-        <v>17.3</v>
+        <v>16.3</v>
       </c>
       <c r="L10">
-        <v>5.600000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="M10">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -3137,40 +3176,40 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>1.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.7</v>
+        <v>6.9</v>
       </c>
       <c r="E11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="G11">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>18.9</v>
+        <v>16.1</v>
       </c>
       <c r="I11">
-        <v>6.4</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="J11">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3187,43 +3226,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="C12">
-        <v>33.8</v>
+        <v>34.2</v>
       </c>
       <c r="D12">
-        <v>32.3</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>44.7</v>
+        <v>45.9</v>
       </c>
       <c r="F12">
-        <v>56.3</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="G12">
-        <v>31.9</v>
+        <v>30.1</v>
       </c>
       <c r="H12">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="I12">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
       <c r="J12">
-        <v>16.4</v>
+        <v>19.8</v>
       </c>
       <c r="K12">
-        <v>3.9</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="L12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N12">
-        <v>13.7</v>
+        <v>14.2</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3237,43 +3276,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>98.2</v>
+        <v>97.5</v>
       </c>
       <c r="C13">
-        <v>68.10000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="D13">
-        <v>30.7</v>
+        <v>29.3</v>
       </c>
       <c r="E13">
-        <v>12.7</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G13">
-        <v>5.5</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="H13">
-        <v>4.399999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="I13">
-        <v>14.4</v>
+        <v>15.1</v>
       </c>
       <c r="J13">
-        <v>5.1</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="L13">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="M13">
-        <v>4.6</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="N13">
-        <v>9.700000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3297,28 +3336,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3329,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>133.92</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3358,13 +3397,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>96.90000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3387,13 +3426,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>124.09</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3416,13 +3455,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>114.21</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3445,13 +3484,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>108.51</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3474,13 +3513,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>109.74</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3503,13 +3542,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>98.81999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3532,13 +3571,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>123.42</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3561,13 +3600,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10">
         <v>118.15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3590,13 +3629,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>112.09</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3619,13 +3658,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <v>101.92</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3648,13 +3687,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>100.41</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3684,31 +3723,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3716,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>0.7142857142857143</v>
@@ -3734,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3745,7 +3784,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -3763,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3774,7 +3813,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>0.5714285714285714</v>
@@ -3792,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3803,7 +3842,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -3821,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3832,7 +3871,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3850,10 +3889,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3861,7 +3900,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C7">
         <v>0.7857142857142857</v>
@@ -3879,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3890,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>0.1428571428571428</v>
@@ -3908,10 +3947,10 @@
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3919,7 +3958,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -3937,10 +3976,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3948,7 +3987,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>0.3571428571428572</v>
@@ -3966,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3977,7 +4016,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -3995,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4006,7 +4045,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>0.4285714285714285</v>
@@ -4024,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4035,7 +4074,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C13">
         <v>0.4285714285714285</v>
@@ -4053,10 +4092,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4074,19 +4113,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4097,16 +4136,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4117,16 +4156,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4137,16 +4176,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4157,16 +4196,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4174,19 +4213,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4194,19 +4233,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4217,16 +4256,16 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>-2</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4234,19 +4273,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>-3</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4254,19 +4293,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4277,16 +4316,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>-14</v>
+        <v>-20</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4294,19 +4333,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>-29</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4314,19 +4353,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D13">
-        <v>-35</v>
+        <v>-37</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4336,60 +4375,63 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>139</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4435,11 +4477,14 @@
       <c r="O2">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4485,11 +4530,14 @@
       <c r="O3">
         <v>24</v>
       </c>
-      <c r="P3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4535,11 +4583,14 @@
       <c r="O4">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4585,111 +4636,120 @@
       <c r="O5">
         <v>5</v>
       </c>
-      <c r="P5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5">
+        <v>9</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>-7</v>
+      </c>
+      <c r="F6">
+        <v>-13</v>
+      </c>
+      <c r="G6">
+        <v>-13</v>
+      </c>
+      <c r="H6">
+        <v>-9</v>
+      </c>
+      <c r="I6">
+        <v>-17</v>
+      </c>
+      <c r="J6">
+        <v>-8</v>
+      </c>
+      <c r="K6">
+        <v>-8</v>
+      </c>
+      <c r="L6">
+        <v>-15</v>
+      </c>
+      <c r="M6">
+        <v>-16</v>
+      </c>
+      <c r="N6">
+        <v>-10</v>
+      </c>
+      <c r="O6">
+        <v>-3</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-6</v>
+      </c>
+      <c r="E7">
+        <v>-11</v>
+      </c>
+      <c r="F7">
+        <v>-2</v>
+      </c>
+      <c r="G7">
+        <v>-3</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>19</v>
+      </c>
+      <c r="M7">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>-3</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>-2</v>
-      </c>
-      <c r="K6">
-        <v>-4</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>-3</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>-2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
-        <v>-4</v>
-      </c>
-      <c r="H7">
-        <v>-2</v>
-      </c>
-      <c r="I7">
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="J7">
-        <v>-5</v>
-      </c>
-      <c r="K7">
-        <v>-6</v>
-      </c>
-      <c r="L7">
-        <v>-5</v>
-      </c>
-      <c r="M7">
-        <v>-11</v>
-      </c>
-      <c r="N7">
-        <v>-3</v>
-      </c>
       <c r="O7">
-        <v>-2</v>
-      </c>
-      <c r="P7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>-7</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4735,111 +4795,120 @@
       <c r="O8">
         <v>-2</v>
       </c>
-      <c r="P8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>-2</v>
+      </c>
+      <c r="K9">
+        <v>-4</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>-3</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>-3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>-2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="F10">
         <v>-1</v>
       </c>
-      <c r="E9">
-        <v>-7</v>
-      </c>
-      <c r="F9">
-        <v>-13</v>
-      </c>
-      <c r="G9">
-        <v>-13</v>
-      </c>
-      <c r="H9">
-        <v>-9</v>
-      </c>
-      <c r="I9">
-        <v>-17</v>
-      </c>
-      <c r="J9">
-        <v>-8</v>
-      </c>
-      <c r="K9">
-        <v>-8</v>
-      </c>
-      <c r="L9">
-        <v>-15</v>
-      </c>
-      <c r="M9">
-        <v>-16</v>
-      </c>
-      <c r="N9">
-        <v>-10</v>
-      </c>
-      <c r="O9">
+      <c r="G10">
+        <v>-4</v>
+      </c>
+      <c r="H10">
+        <v>-2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>-5</v>
+      </c>
+      <c r="K10">
+        <v>-6</v>
+      </c>
+      <c r="L10">
+        <v>-5</v>
+      </c>
+      <c r="M10">
+        <v>-11</v>
+      </c>
+      <c r="N10">
         <v>-3</v>
       </c>
-      <c r="P9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>-1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-6</v>
-      </c>
-      <c r="E10">
-        <v>-11</v>
-      </c>
-      <c r="F10">
+      <c r="O10">
         <v>-2</v>
       </c>
-      <c r="G10">
-        <v>-3</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>15</v>
-      </c>
-      <c r="K10">
-        <v>17</v>
-      </c>
-      <c r="L10">
-        <v>19</v>
-      </c>
-      <c r="M10">
-        <v>11</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>-7</v>
-      </c>
-      <c r="P10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -4885,108 +4954,117 @@
       <c r="O11">
         <v>-14</v>
       </c>
-      <c r="P11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11">
+        <v>-20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>-9</v>
+      </c>
+      <c r="E12">
+        <v>-17</v>
+      </c>
+      <c r="F12">
+        <v>-24</v>
+      </c>
+      <c r="G12">
+        <v>-31</v>
+      </c>
+      <c r="H12">
+        <v>-32</v>
+      </c>
+      <c r="I12">
+        <v>-23</v>
+      </c>
+      <c r="J12">
+        <v>-32</v>
+      </c>
+      <c r="K12">
+        <v>-35</v>
+      </c>
+      <c r="L12">
+        <v>-39</v>
+      </c>
+      <c r="M12">
+        <v>-39</v>
+      </c>
+      <c r="N12">
+        <v>-36</v>
+      </c>
+      <c r="O12">
+        <v>-35</v>
+      </c>
+      <c r="P12">
+        <v>-29</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>-1</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>-10</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-10</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>-15</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>-12</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>-13</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>-12</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>-18</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>-22</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>-22</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>-31</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>-30</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>-29</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>-29</v>
       </c>
-      <c r="P12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>-1</v>
-      </c>
-      <c r="D13">
-        <v>-9</v>
-      </c>
-      <c r="E13">
-        <v>-17</v>
-      </c>
-      <c r="F13">
-        <v>-24</v>
-      </c>
-      <c r="G13">
-        <v>-31</v>
-      </c>
-      <c r="H13">
-        <v>-32</v>
-      </c>
-      <c r="I13">
-        <v>-23</v>
-      </c>
-      <c r="J13">
-        <v>-32</v>
-      </c>
-      <c r="K13">
-        <v>-35</v>
-      </c>
-      <c r="L13">
-        <v>-39</v>
-      </c>
-      <c r="M13">
-        <v>-39</v>
-      </c>
-      <c r="N13">
-        <v>-36</v>
-      </c>
-      <c r="O13">
-        <v>-35</v>
-      </c>
-      <c r="P13" t="s">
-        <v>109</v>
+      <c r="P13">
+        <v>-37</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="145">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -61,43 +61,46 @@
     <t>Cans in My Hands</t>
   </si>
   <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>10-4-1</t>
-  </si>
-  <si>
-    <t>13-2-0</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>11-3-1</t>
+    <t>12-4-0</t>
+  </si>
+  <si>
+    <t>3-13-0</t>
+  </si>
+  <si>
+    <t>8-8-0</t>
+  </si>
+  <si>
+    <t>10-6-0</t>
+  </si>
+  <si>
+    <t>7-9-0</t>
+  </si>
+  <si>
+    <t>4-12-0</t>
+  </si>
+  <si>
+    <t>11-5-0</t>
+  </si>
+  <si>
+    <t>9-7-0</t>
+  </si>
+  <si>
+    <t>6-10-0</t>
+  </si>
+  <si>
+    <t>5-11-0</t>
+  </si>
+  <si>
+    <t>10-5-1</t>
+  </si>
+  <si>
+    <t>14-2-0</t>
+  </si>
+  <si>
+    <t>13-3-0</t>
+  </si>
+  <si>
+    <t>11-4-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -364,42 +367,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑8</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -443,6 +434,9 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -879,31 +873,31 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -914,13 +908,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -929,22 +923,22 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -955,37 +949,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -996,34 +990,34 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
@@ -1037,25 +1031,25 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -1064,10 +1058,10 @@
         <v>14</v>
       </c>
       <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
         <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1075,40 +1069,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1116,40 +1110,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1160,34 +1154,34 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1198,37 +1192,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1239,10 +1233,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1260,19 +1254,19 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1280,19 +1274,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1301,16 +1295,16 @@
         <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -1324,37 +1318,37 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
         <v>20</v>
       </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1372,25 +1366,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1580,25 +1574,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="F9">
+        <v>-32</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
         <v>11</v>
-      </c>
-      <c r="G9">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1609,22 +1603,22 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>26</v>
+        <v>-11</v>
       </c>
       <c r="F10">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1632,25 +1626,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>-23</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>-3</v>
+        <v>47</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1668,13 +1662,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1682,13 +1676,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1696,13 +1690,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>5.833333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1710,13 +1704,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>6.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1727,10 +1721,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1738,13 +1732,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>7.333333333333333</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1752,13 +1746,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>7.583333333333333</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1769,10 +1763,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>7.916666666666667</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1783,10 +1777,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1797,10 +1791,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>8.333333333333334</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1808,13 +1802,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>8.5</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1822,10 +1816,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>8.583333333333334</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1839,10 +1833,10 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>8.75</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1860,16 +1854,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1880,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11.5</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.3333333333333339</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1894,16 +1888,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>9.083333333333334</v>
+        <v>9.75</v>
       </c>
       <c r="D3">
-        <v>2.083333333333334</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1911,16 +1905,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>8.916666666666666</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="D4">
-        <v>-1.083333333333334</v>
+        <v>1.583333333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1928,16 +1922,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="D5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1948,10 +1942,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>8.416666666666666</v>
+        <v>8.5</v>
       </c>
       <c r="D6">
-        <v>0.4166666666666661</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1965,13 +1959,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>8.083333333333334</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D7">
-        <v>-2.916666666666666</v>
+        <v>-2.666666666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1979,16 +1973,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1996,16 +1990,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>7.083333333333333</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D9">
-        <v>2.083333333333333</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2016,13 +2010,13 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>6.083333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D10">
-        <v>-0.916666666666667</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2030,16 +2024,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5.5</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D11">
-        <v>-0.5</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2047,13 +2041,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>4.916666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D12">
-        <v>0.916666666666667</v>
+        <v>-0.5</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -2067,13 +2061,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>4.083333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D13">
-        <v>1.083333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2091,46 +2085,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2676,49 +2670,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2726,31 +2720,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>71.8</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="C2">
-        <v>96.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D2">
-        <v>98.5</v>
+        <v>97.3</v>
       </c>
       <c r="E2">
-        <v>94.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F2">
-        <v>97.2</v>
+        <v>96.5</v>
       </c>
       <c r="G2">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H2">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
         <v>99.90000000000001</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -2776,40 +2770,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>37.5</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="F3">
-        <v>49.3</v>
+        <v>45.9</v>
       </c>
       <c r="G3">
-        <v>71.39999999999999</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="H3">
-        <v>53.6</v>
+        <v>49.9</v>
       </c>
       <c r="I3">
-        <v>66.40000000000001</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="J3">
-        <v>67.80000000000001</v>
+        <v>69.39999999999999</v>
       </c>
       <c r="K3">
-        <v>89.60000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="L3">
-        <v>97.2</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2826,46 +2820,46 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>61.6</v>
+        <v>63.2</v>
       </c>
       <c r="C4">
-        <v>24.9</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="E4">
-        <v>22.5</v>
+        <v>23.9</v>
       </c>
       <c r="F4">
-        <v>7.000000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G4">
-        <v>32.4</v>
+        <v>29.9</v>
       </c>
       <c r="H4">
-        <v>54.40000000000001</v>
+        <v>53.5</v>
       </c>
       <c r="I4">
-        <v>34.5</v>
+        <v>33.6</v>
       </c>
       <c r="J4">
-        <v>56.10000000000001</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="K4">
-        <v>70.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="L4">
-        <v>91.2</v>
+        <v>90.7</v>
       </c>
       <c r="M4">
-        <v>67.40000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="N4">
-        <v>59.8</v>
+        <v>60.4</v>
       </c>
       <c r="O4">
-        <v>59.8</v>
+        <v>60.7</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2882,40 +2876,40 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <v>96.39999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="E5">
-        <v>93.30000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="F5">
-        <v>73.59999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="G5">
-        <v>58.59999999999999</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="H5">
-        <v>47.4</v>
+        <v>48</v>
       </c>
       <c r="I5">
-        <v>58.59999999999999</v>
+        <v>61.3</v>
       </c>
       <c r="J5">
-        <v>59.7</v>
+        <v>60.5</v>
       </c>
       <c r="K5">
-        <v>71.09999999999999</v>
+        <v>71</v>
       </c>
       <c r="L5">
-        <v>52.3</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="M5">
-        <v>70.89999999999999</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="N5">
-        <v>88.59999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="O5">
-        <v>76.7</v>
+        <v>75.8</v>
       </c>
       <c r="P5">
         <v>100</v>
@@ -2926,31 +2920,31 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="C6">
-        <v>84.3</v>
+        <v>81.3</v>
       </c>
       <c r="D6">
-        <v>73.90000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E6">
-        <v>30.3</v>
+        <v>32.4</v>
       </c>
       <c r="F6">
-        <v>44.9</v>
+        <v>43.6</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="H6">
-        <v>84.5</v>
+        <v>85</v>
       </c>
       <c r="I6">
-        <v>96.2</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="J6">
-        <v>89.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="K6">
         <v>96.5</v>
@@ -2959,10 +2953,10 @@
         <v>99</v>
       </c>
       <c r="M6">
-        <v>94.89999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="N6">
-        <v>90.8</v>
+        <v>89.5</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -2976,34 +2970,34 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>91.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="C7">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D7">
-        <v>98.2</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="E7">
-        <v>98.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="F7">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="G7">
-        <v>94.8</v>
+        <v>94.3</v>
       </c>
       <c r="H7">
-        <v>96.5</v>
+        <v>98.5</v>
       </c>
       <c r="I7">
-        <v>99.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J7">
-        <v>97.7</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="K7">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -3026,31 +3020,31 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>37.5</v>
+        <v>35.5</v>
       </c>
       <c r="C8">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>15.4</v>
+        <v>12.8</v>
       </c>
       <c r="G8">
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
       <c r="H8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3076,43 +3070,43 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>85.7</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C9">
-        <v>69.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>86.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E9">
-        <v>97.39999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="F9">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G9">
-        <v>95.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="H9">
-        <v>89</v>
+        <v>90.5</v>
       </c>
       <c r="I9">
-        <v>86.8</v>
+        <v>85.8</v>
       </c>
       <c r="J9">
-        <v>71.5</v>
+        <v>66.2</v>
       </c>
       <c r="K9">
-        <v>49.7</v>
+        <v>53.6</v>
       </c>
       <c r="L9">
-        <v>47.3</v>
+        <v>44.1</v>
       </c>
       <c r="M9">
-        <v>58.9</v>
+        <v>61.6</v>
       </c>
       <c r="N9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9">
         <v>63.5</v>
@@ -3126,40 +3120,40 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>5.800000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="C10">
-        <v>20.4</v>
+        <v>16.9</v>
       </c>
       <c r="D10">
+        <v>59.59999999999999</v>
+      </c>
+      <c r="E10">
+        <v>37.3</v>
+      </c>
+      <c r="F10">
         <v>59.09999999999999</v>
       </c>
-      <c r="E10">
+      <c r="G10">
+        <v>24.9</v>
+      </c>
+      <c r="H10">
+        <v>28.6</v>
+      </c>
+      <c r="I10">
+        <v>18.7</v>
+      </c>
+      <c r="J10">
         <v>35.7</v>
       </c>
-      <c r="F10">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="G10">
-        <v>22.6</v>
-      </c>
-      <c r="H10">
-        <v>27.1</v>
-      </c>
-      <c r="I10">
-        <v>18</v>
-      </c>
-      <c r="J10">
-        <v>31.6</v>
-      </c>
       <c r="K10">
-        <v>16.3</v>
+        <v>16.7</v>
       </c>
       <c r="L10">
-        <v>6.2</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="M10">
-        <v>0.2</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -3176,37 +3170,37 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F11">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H11">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="I11">
-        <v>7.399999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="J11">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -3226,43 +3220,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="C12">
         <v>34.2</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>31.2</v>
       </c>
       <c r="E12">
-        <v>45.9</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="F12">
-        <v>54.40000000000001</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="G12">
-        <v>30.1</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="H12">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="I12">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="J12">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="K12">
-        <v>4.100000000000001</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="M12">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N12">
-        <v>14.2</v>
+        <v>12.1</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3276,43 +3270,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>97.5</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="C13">
-        <v>67.7</v>
+        <v>68.2</v>
       </c>
       <c r="D13">
-        <v>29.3</v>
+        <v>30.3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="F13">
         <v>2.2</v>
       </c>
       <c r="G13">
-        <v>5.800000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="H13">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="I13">
-        <v>15.1</v>
+        <v>12.3</v>
       </c>
       <c r="J13">
-        <v>4.100000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="K13">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>4.100000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="N13">
-        <v>9.6</v>
+        <v>12.6</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3336,28 +3330,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3368,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>133.92</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3397,13 +3391,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>96.90000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3426,13 +3420,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>124.09</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3455,13 +3449,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>114.21</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3484,13 +3478,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>108.51</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3513,13 +3507,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>109.74</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3542,13 +3536,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>98.81999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3571,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>123.42</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3600,13 +3594,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>118.15</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3629,13 +3623,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>112.09</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3658,13 +3652,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>101.92</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3687,13 +3681,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>100.41</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3723,31 +3717,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3755,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>0.7142857142857143</v>
@@ -3773,10 +3767,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3784,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -3802,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3813,7 +3807,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>0.5714285714285714</v>
@@ -3831,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3842,7 +3836,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -3860,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3871,7 +3865,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3889,10 +3883,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3900,7 +3894,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>0.7857142857142857</v>
@@ -3918,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3929,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>0.1428571428571428</v>
@@ -3947,10 +3941,10 @@
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3958,7 +3952,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -3976,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3987,7 +3981,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>0.3571428571428572</v>
@@ -4005,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4016,7 +4010,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -4034,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4045,7 +4039,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12">
         <v>0.4285714285714285</v>
@@ -4063,10 +4057,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4074,7 +4068,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>0.4285714285714285</v>
@@ -4092,10 +4086,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4113,19 +4107,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4136,16 +4130,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4156,16 +4150,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4173,19 +4167,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4193,19 +4187,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4213,16 +4207,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>117</v>
@@ -4233,16 +4227,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>118</v>
@@ -4253,13 +4247,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -4273,19 +4267,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4296,16 +4290,16 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4316,16 +4310,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>-20</v>
+        <v>-26</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4333,19 +4327,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>-29</v>
+        <v>-31</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4353,19 +4347,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D13">
-        <v>-37</v>
+        <v>-32</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4375,63 +4369,66 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4480,11 +4477,14 @@
       <c r="P2">
         <v>47</v>
       </c>
-      <c r="Q2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4533,329 +4533,350 @@
       <c r="P3">
         <v>25</v>
       </c>
-      <c r="Q3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-5</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
       <c r="D4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
       <c r="M4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+      <c r="Q4">
         <v>17</v>
       </c>
-      <c r="O4">
-        <v>19</v>
-      </c>
-      <c r="P4">
-        <v>12</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
       <c r="E5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>17</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-6</v>
+      </c>
+      <c r="E6">
+        <v>-11</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6">
+        <v>-3</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>-7</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>-2</v>
+      </c>
+      <c r="K7">
+        <v>-4</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>9</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>-3</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>-3</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>-1</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>-7</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>-13</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>-13</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>-9</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>-17</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>-8</v>
       </c>
-      <c r="K6">
+      <c r="K8">
         <v>-8</v>
       </c>
-      <c r="L6">
+      <c r="L8">
         <v>-15</v>
       </c>
-      <c r="M6">
+      <c r="M8">
         <v>-16</v>
       </c>
-      <c r="N6">
+      <c r="N8">
         <v>-10</v>
       </c>
-      <c r="O6">
+      <c r="O8">
         <v>-3</v>
       </c>
-      <c r="P6">
+      <c r="P8">
         <v>2</v>
       </c>
-      <c r="Q6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+      <c r="Q8">
+        <v>-3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-7</v>
+      </c>
+      <c r="D9">
+        <v>-6</v>
+      </c>
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9">
+        <v>-3</v>
+      </c>
+      <c r="G9">
+        <v>-5</v>
+      </c>
+      <c r="H9">
+        <v>-10</v>
+      </c>
+      <c r="I9">
+        <v>-3</v>
+      </c>
+      <c r="J9">
+        <v>-5</v>
+      </c>
+      <c r="K9">
         <v>-1</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>-6</v>
-      </c>
-      <c r="E7">
-        <v>-11</v>
-      </c>
-      <c r="F7">
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>-5</v>
+      </c>
+      <c r="O9">
         <v>-2</v>
       </c>
-      <c r="G7">
-        <v>-3</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>17</v>
-      </c>
-      <c r="L7">
-        <v>19</v>
-      </c>
-      <c r="M7">
-        <v>11</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
+      <c r="P9">
+        <v>-2</v>
+      </c>
+      <c r="Q9">
         <v>-7</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>-7</v>
-      </c>
-      <c r="D8">
-        <v>-6</v>
-      </c>
-      <c r="E8">
-        <v>-4</v>
-      </c>
-      <c r="F8">
-        <v>-3</v>
-      </c>
-      <c r="G8">
-        <v>-5</v>
-      </c>
-      <c r="H8">
-        <v>-10</v>
-      </c>
-      <c r="I8">
-        <v>-3</v>
-      </c>
-      <c r="J8">
-        <v>-5</v>
-      </c>
-      <c r="K8">
-        <v>-1</v>
-      </c>
-      <c r="L8">
-        <v>-1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>-5</v>
-      </c>
-      <c r="O8">
-        <v>-2</v>
-      </c>
-      <c r="P8">
-        <v>-2</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="R9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>-3</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>-2</v>
-      </c>
-      <c r="K9">
-        <v>-4</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>-3</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>-3</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4904,11 +4925,14 @@
       <c r="P10">
         <v>-4</v>
       </c>
-      <c r="Q10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10">
+        <v>-12</v>
+      </c>
+      <c r="R10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -4957,114 +4981,123 @@
       <c r="P11">
         <v>-20</v>
       </c>
-      <c r="Q11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="Q11">
+        <v>-26</v>
+      </c>
+      <c r="R11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-10</v>
+      </c>
+      <c r="D12">
+        <v>-10</v>
+      </c>
+      <c r="E12">
+        <v>-15</v>
+      </c>
+      <c r="F12">
+        <v>-12</v>
+      </c>
+      <c r="G12">
+        <v>-13</v>
+      </c>
+      <c r="H12">
+        <v>-12</v>
+      </c>
+      <c r="I12">
+        <v>-18</v>
+      </c>
+      <c r="J12">
+        <v>-22</v>
+      </c>
+      <c r="K12">
+        <v>-22</v>
+      </c>
+      <c r="L12">
+        <v>-31</v>
+      </c>
+      <c r="M12">
+        <v>-30</v>
+      </c>
+      <c r="N12">
+        <v>-29</v>
+      </c>
+      <c r="O12">
+        <v>-29</v>
+      </c>
+      <c r="P12">
+        <v>-37</v>
+      </c>
+      <c r="Q12">
+        <v>-31</v>
+      </c>
+      <c r="R12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>-1</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-9</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>-17</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>-24</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>-31</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>-32</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>-23</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>-32</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>-35</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>-39</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>-39</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>-36</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>-35</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <v>-29</v>
       </c>
-      <c r="Q12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>-1</v>
-      </c>
-      <c r="C13">
-        <v>-10</v>
-      </c>
-      <c r="D13">
-        <v>-10</v>
-      </c>
-      <c r="E13">
-        <v>-15</v>
-      </c>
-      <c r="F13">
-        <v>-12</v>
-      </c>
-      <c r="G13">
-        <v>-13</v>
-      </c>
-      <c r="H13">
-        <v>-12</v>
-      </c>
-      <c r="I13">
-        <v>-18</v>
-      </c>
-      <c r="J13">
-        <v>-22</v>
-      </c>
-      <c r="K13">
-        <v>-22</v>
-      </c>
-      <c r="L13">
-        <v>-31</v>
-      </c>
-      <c r="M13">
-        <v>-30</v>
-      </c>
-      <c r="N13">
-        <v>-29</v>
-      </c>
-      <c r="O13">
-        <v>-29</v>
-      </c>
-      <c r="P13">
-        <v>-37</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>124</v>
+      <c r="Q13">
+        <v>-32</v>
+      </c>
+      <c r="R13" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -2720,31 +2720,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>69.19999999999999</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="C2">
-        <v>98.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D2">
-        <v>97.3</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="E2">
-        <v>92.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F2">
-        <v>96.5</v>
+        <v>96.7</v>
       </c>
       <c r="G2">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="H2">
+        <v>99.7</v>
+      </c>
+      <c r="I2">
         <v>99.90000000000001</v>
       </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
       <c r="J2">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -2770,40 +2770,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="E3">
-        <v>35.09999999999999</v>
+        <v>32.2</v>
       </c>
       <c r="F3">
-        <v>45.9</v>
+        <v>45.7</v>
       </c>
       <c r="G3">
-        <v>70.89999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="H3">
-        <v>49.9</v>
+        <v>54.1</v>
       </c>
       <c r="I3">
-        <v>70.39999999999999</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="J3">
-        <v>69.39999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K3">
-        <v>88.5</v>
+        <v>89.3</v>
       </c>
       <c r="L3">
-        <v>97.89999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="M3">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -2820,46 +2820,46 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>63.2</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="E4">
-        <v>23.9</v>
+        <v>26.8</v>
       </c>
       <c r="F4">
-        <v>9.300000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="G4">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="H4">
-        <v>53.5</v>
+        <v>53</v>
       </c>
       <c r="I4">
-        <v>33.6</v>
+        <v>33.1</v>
       </c>
       <c r="J4">
-        <v>56.49999999999999</v>
+        <v>61.9</v>
       </c>
       <c r="K4">
-        <v>68.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="L4">
-        <v>90.7</v>
+        <v>91.8</v>
       </c>
       <c r="M4">
-        <v>66.8</v>
+        <v>65.7</v>
       </c>
       <c r="N4">
-        <v>60.4</v>
+        <v>60.5</v>
       </c>
       <c r="O4">
-        <v>60.7</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2876,40 +2876,40 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <v>96.7</v>
+        <v>97.3</v>
       </c>
       <c r="E5">
-        <v>93.7</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="F5">
-        <v>73.7</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G5">
-        <v>55.60000000000001</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="H5">
-        <v>48</v>
+        <v>47.3</v>
       </c>
       <c r="I5">
-        <v>61.3</v>
+        <v>61.2</v>
       </c>
       <c r="J5">
-        <v>60.5</v>
+        <v>56.8</v>
       </c>
       <c r="K5">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="L5">
-        <v>56.00000000000001</v>
+        <v>53.90000000000001</v>
       </c>
       <c r="M5">
-        <v>69.89999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="N5">
-        <v>89.40000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="O5">
-        <v>75.8</v>
+        <v>77.10000000000001</v>
       </c>
       <c r="P5">
         <v>100</v>
@@ -2920,43 +2920,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>36.9</v>
+        <v>38.1</v>
       </c>
       <c r="C6">
-        <v>81.3</v>
+        <v>81</v>
       </c>
       <c r="D6">
-        <v>75.90000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="E6">
-        <v>32.4</v>
+        <v>29.3</v>
       </c>
       <c r="F6">
-        <v>43.6</v>
+        <v>46.9</v>
       </c>
       <c r="G6">
-        <v>71.89999999999999</v>
+        <v>72</v>
       </c>
       <c r="H6">
-        <v>85</v>
+        <v>86.8</v>
       </c>
       <c r="I6">
         <v>95.89999999999999</v>
       </c>
       <c r="J6">
-        <v>89.09999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K6">
-        <v>96.5</v>
+        <v>97.3</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="M6">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="N6">
-        <v>89.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -2970,34 +2970,34 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>92.40000000000001</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="C7">
-        <v>99.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="D7">
-        <v>97.39999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="E7">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F7">
-        <v>98.5</v>
+        <v>97.8</v>
       </c>
       <c r="G7">
-        <v>94.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H7">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="I7">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J7">
-        <v>97.39999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="K7">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -3020,31 +3020,31 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>35.5</v>
+        <v>33.2</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>12.8</v>
+        <v>14.5</v>
       </c>
       <c r="G8">
-        <v>8.5</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="H8">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I8">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="J8">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3070,46 +3070,46 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>87.09999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="C9">
-        <v>72</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="D9">
-        <v>86.40000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="E9">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
       <c r="F9">
         <v>99.40000000000001</v>
       </c>
       <c r="G9">
-        <v>95.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="H9">
-        <v>90.5</v>
+        <v>89</v>
       </c>
       <c r="I9">
-        <v>85.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="J9">
-        <v>66.2</v>
+        <v>68.7</v>
       </c>
       <c r="K9">
-        <v>53.6</v>
+        <v>51.4</v>
       </c>
       <c r="L9">
-        <v>44.1</v>
+        <v>45.7</v>
       </c>
       <c r="M9">
-        <v>61.6</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="N9">
-        <v>36</v>
+        <v>34.9</v>
       </c>
       <c r="O9">
-        <v>63.5</v>
+        <v>62.8</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3120,40 +3120,40 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>5.5</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="C10">
-        <v>16.9</v>
+        <v>21.8</v>
       </c>
       <c r="D10">
-        <v>59.59999999999999</v>
+        <v>60.6</v>
       </c>
       <c r="E10">
-        <v>37.3</v>
+        <v>36.9</v>
       </c>
       <c r="F10">
-        <v>59.09999999999999</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="G10">
-        <v>24.9</v>
+        <v>25.5</v>
       </c>
       <c r="H10">
-        <v>28.6</v>
+        <v>26.1</v>
       </c>
       <c r="I10">
-        <v>18.7</v>
+        <v>17.2</v>
       </c>
       <c r="J10">
-        <v>35.7</v>
+        <v>34.5</v>
       </c>
       <c r="K10">
-        <v>16.7</v>
+        <v>16.3</v>
       </c>
       <c r="L10">
-        <v>7.000000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="M10">
-        <v>0.7000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -3176,31 +3176,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.000000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E11">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="F11">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G11">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="H11">
-        <v>15.5</v>
+        <v>14.7</v>
       </c>
       <c r="I11">
-        <v>4.6</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="J11">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K11">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -3220,43 +3220,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="C12">
-        <v>34.2</v>
+        <v>31.4</v>
       </c>
       <c r="D12">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="E12">
-        <v>46.40000000000001</v>
+        <v>47</v>
       </c>
       <c r="F12">
-        <v>55.50000000000001</v>
+        <v>53.5</v>
       </c>
       <c r="G12">
-        <v>33.90000000000001</v>
+        <v>30.4</v>
       </c>
       <c r="H12">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="I12">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="J12">
         <v>19.6</v>
       </c>
       <c r="K12">
-        <v>4.399999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="L12">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="M12">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N12">
-        <v>12.1</v>
+        <v>13.2</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3270,43 +3270,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>97.89999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C13">
-        <v>68.2</v>
+        <v>69</v>
       </c>
       <c r="D13">
-        <v>30.3</v>
+        <v>29.2</v>
       </c>
       <c r="E13">
-        <v>9.700000000000001</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G13">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="H13">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I13">
-        <v>12.3</v>
+        <v>15.8</v>
       </c>
       <c r="J13">
         <v>4.2</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N13">
-        <v>12.6</v>
+        <v>10.9</v>
       </c>
       <c r="O13">
         <v>0</v>

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="146">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -61,46 +61,46 @@
     <t>Cans in My Hands</t>
   </si>
   <si>
-    <t>12-4-0</t>
-  </si>
-  <si>
-    <t>3-13-0</t>
-  </si>
-  <si>
-    <t>8-8-0</t>
-  </si>
-  <si>
-    <t>10-6-0</t>
-  </si>
-  <si>
-    <t>7-9-0</t>
-  </si>
-  <si>
-    <t>4-12-0</t>
-  </si>
-  <si>
-    <t>11-5-0</t>
-  </si>
-  <si>
-    <t>9-7-0</t>
-  </si>
-  <si>
-    <t>6-10-0</t>
-  </si>
-  <si>
-    <t>5-11-0</t>
-  </si>
-  <si>
-    <t>10-5-1</t>
-  </si>
-  <si>
-    <t>14-2-0</t>
-  </si>
-  <si>
-    <t>13-3-0</t>
-  </si>
-  <si>
-    <t>11-4-1</t>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>11-5-1</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>15-2-0</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -358,85 +358,88 @@
     <t>6.0-8.0</t>
   </si>
   <si>
-    <t>Owners</t>
-  </si>
-  <si>
-    <t>Louie Power Index (LPI)</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑8</t>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
-  </si>
-  <si>
-    <t>Week 15</t>
-  </si>
-  <si>
-    <t>Week 16</t>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week</t>
@@ -873,31 +876,31 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -911,19 +914,19 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -932,10 +935,10 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -955,16 +958,16 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -973,10 +976,10 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
@@ -990,37 +993,37 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1034,34 +1037,34 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1087,7 +1090,7 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -1099,7 +1102,7 @@
         <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
         <v>16</v>
@@ -1128,7 +1131,7 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
@@ -1140,7 +1143,7 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
@@ -1157,10 +1160,10 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -1169,22 +1172,22 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1195,34 +1198,34 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
         <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1242,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -1251,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -1260,10 +1263,10 @@
         <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
@@ -1318,37 +1321,37 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
       </c>
       <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
         <v>20</v>
       </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1366,25 +1369,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1600,25 +1603,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1629,22 +1632,22 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>26</v>
+        <v>-11</v>
       </c>
       <c r="F11">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1676,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>6.5</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -1690,13 +1693,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>6.583333333333333</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1704,13 +1707,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>6.666666666666667</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1718,13 +1721,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1732,13 +1735,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>7.916666666666667</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1749,10 +1752,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>7.916666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1763,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>8.166666666666666</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -1774,13 +1777,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>8.166666666666666</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1788,13 +1791,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>8.416666666666666</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1802,13 +1805,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>9.083333333333334</v>
+        <v>9.5</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1819,10 +1822,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>9.333333333333334</v>
+        <v>9.75</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1830,13 +1833,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>9.416666666666666</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.33333333333333</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="D2">
         <v>0.3333333333333339</v>
@@ -1891,10 +1894,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>9.75</v>
+        <v>10.58333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.25</v>
+        <v>0.5833333333333339</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1905,16 +1908,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>9.583333333333334</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>1.583333333333334</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1922,16 +1925,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>9.5</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>1.916666666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1942,13 +1945,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>8.5</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.3333333333333339</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1959,13 +1962,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>8.333333333333334</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D7">
-        <v>-2.666666666666666</v>
+        <v>-2.416666666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1973,16 +1976,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>-0.6666666666666661</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1990,16 +1993,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>7.666666666666667</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D9">
-        <v>-0.333333333333333</v>
+        <v>2.166666666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2010,13 +2013,13 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>6.666666666666667</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D10">
-        <v>-1.333333333333333</v>
+        <v>-1.583333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2027,13 +2030,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>5.583333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D11">
-        <v>1.583333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2061,10 +2064,10 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -2720,31 +2723,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>70.89999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C2">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="D2">
-        <v>96.89999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E2">
-        <v>94.5</v>
+        <v>95</v>
       </c>
       <c r="F2">
-        <v>96.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G2">
         <v>99.2</v>
       </c>
       <c r="H2">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I2">
         <v>99.90000000000001</v>
       </c>
       <c r="J2">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -2770,37 +2773,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="E3">
-        <v>32.2</v>
+        <v>38.2</v>
       </c>
       <c r="F3">
-        <v>45.7</v>
+        <v>46.3</v>
       </c>
       <c r="G3">
-        <v>71.09999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="H3">
-        <v>54.1</v>
+        <v>48.5</v>
       </c>
       <c r="I3">
-        <v>68.10000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="J3">
-        <v>67.40000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="K3">
-        <v>89.3</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="L3">
-        <v>97.2</v>
+        <v>97.7</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2820,46 +2823,46 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>64.40000000000001</v>
+        <v>59.9</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>10.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E4">
-        <v>26.8</v>
+        <v>23.1</v>
       </c>
       <c r="F4">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="G4">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="H4">
         <v>53</v>
       </c>
       <c r="I4">
-        <v>33.1</v>
+        <v>37.2</v>
       </c>
       <c r="J4">
-        <v>61.9</v>
+        <v>56.3</v>
       </c>
       <c r="K4">
         <v>69</v>
       </c>
       <c r="L4">
-        <v>91.8</v>
+        <v>90.8</v>
       </c>
       <c r="M4">
-        <v>65.7</v>
+        <v>67.5</v>
       </c>
       <c r="N4">
-        <v>60.5</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="O4">
-        <v>60.09999999999999</v>
+        <v>60.6</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2870,46 +2873,46 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E5">
-        <v>92.30000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="F5">
-        <v>76.09999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="G5">
+        <v>59.3</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>59.4</v>
+      </c>
+      <c r="J5">
         <v>58.59999999999999</v>
       </c>
-      <c r="H5">
-        <v>47.3</v>
-      </c>
-      <c r="I5">
-        <v>61.2</v>
-      </c>
-      <c r="J5">
-        <v>56.8</v>
-      </c>
       <c r="K5">
-        <v>71.09999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="L5">
-        <v>53.90000000000001</v>
+        <v>52.5</v>
       </c>
       <c r="M5">
-        <v>68.8</v>
+        <v>68.30000000000001</v>
       </c>
       <c r="N5">
-        <v>89.09999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="O5">
-        <v>77.10000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="P5">
         <v>100</v>
@@ -2920,43 +2923,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="D6">
-        <v>75.3</v>
+        <v>73.7</v>
       </c>
       <c r="E6">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>46.9</v>
+        <v>45.6</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>71.8</v>
       </c>
       <c r="H6">
-        <v>86.8</v>
+        <v>85.2</v>
       </c>
       <c r="I6">
-        <v>95.89999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="J6">
-        <v>87.90000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="K6">
-        <v>97.3</v>
+        <v>95.8</v>
       </c>
       <c r="L6">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="M6">
-        <v>95</v>
+        <v>93.7</v>
       </c>
       <c r="N6">
-        <v>91.40000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -2970,34 +2973,34 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>92.60000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="C7">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D7">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="E7">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="F7">
-        <v>97.8</v>
+        <v>98.2</v>
       </c>
       <c r="G7">
-        <v>94.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="H7">
-        <v>98.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="I7">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J7">
-        <v>97.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="K7">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -3020,31 +3023,31 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>33.2</v>
+        <v>36.8</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>28.2</v>
       </c>
       <c r="F8">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="G8">
         <v>9.700000000000001</v>
       </c>
       <c r="H8">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="I8">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3070,46 +3073,46 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>85.8</v>
+        <v>83.8</v>
       </c>
       <c r="C9">
         <v>69.19999999999999</v>
       </c>
       <c r="D9">
-        <v>84.8</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="E9">
-        <v>96.8</v>
+        <v>96</v>
       </c>
       <c r="F9">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="G9">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="H9">
-        <v>89</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="I9">
-        <v>83.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="J9">
-        <v>68.7</v>
+        <v>69.3</v>
       </c>
       <c r="K9">
-        <v>51.4</v>
+        <v>52.6</v>
       </c>
       <c r="L9">
-        <v>45.7</v>
+        <v>47.4</v>
       </c>
       <c r="M9">
-        <v>64.60000000000001</v>
+        <v>63.8</v>
       </c>
       <c r="N9">
-        <v>34.9</v>
+        <v>40.1</v>
       </c>
       <c r="O9">
-        <v>62.8</v>
+        <v>63.7</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3120,37 +3123,37 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>5.600000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="C10">
-        <v>21.8</v>
+        <v>18.8</v>
       </c>
       <c r="D10">
-        <v>60.6</v>
+        <v>64.2</v>
       </c>
       <c r="E10">
-        <v>36.9</v>
+        <v>39.8</v>
       </c>
       <c r="F10">
-        <v>55.90000000000001</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G10">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="H10">
-        <v>26.1</v>
+        <v>28.3</v>
       </c>
       <c r="I10">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="J10">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="K10">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="L10">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="M10">
         <v>0.5</v>
@@ -3170,37 +3173,37 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.300000000000001</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="E11">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="G11">
-        <v>5.5</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="H11">
-        <v>14.7</v>
+        <v>16.9</v>
       </c>
       <c r="I11">
-        <v>6.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="J11">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="K11">
         <v>0.6</v>
       </c>
       <c r="L11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -3220,43 +3223,43 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>1.2</v>
+      </c>
+      <c r="C12">
+        <v>34.7</v>
+      </c>
+      <c r="D12">
+        <v>32.8</v>
+      </c>
+      <c r="E12">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>53.1</v>
+      </c>
+      <c r="G12">
+        <v>29.8</v>
+      </c>
+      <c r="H12">
+        <v>24.1</v>
+      </c>
+      <c r="I12">
+        <v>15.9</v>
+      </c>
+      <c r="J12">
+        <v>18.8</v>
+      </c>
+      <c r="K12">
+        <v>4.5</v>
+      </c>
+      <c r="L12">
         <v>1.7</v>
       </c>
-      <c r="C12">
-        <v>31.4</v>
-      </c>
-      <c r="D12">
-        <v>31.5</v>
-      </c>
-      <c r="E12">
-        <v>47</v>
-      </c>
-      <c r="F12">
-        <v>53.5</v>
-      </c>
-      <c r="G12">
-        <v>30.4</v>
-      </c>
-      <c r="H12">
-        <v>23.9</v>
-      </c>
-      <c r="I12">
-        <v>16.1</v>
-      </c>
-      <c r="J12">
-        <v>19.6</v>
-      </c>
-      <c r="K12">
-        <v>4.9</v>
-      </c>
-      <c r="L12">
-        <v>1.1</v>
-      </c>
       <c r="M12">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N12">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3270,43 +3273,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="C13">
-        <v>69</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D13">
-        <v>29.2</v>
+        <v>27.9</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="F13">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="G13">
-        <v>7.6</v>
+        <v>5.2</v>
       </c>
       <c r="H13">
-        <v>3.7</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="I13">
-        <v>15.8</v>
+        <v>11.8</v>
       </c>
       <c r="J13">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="K13">
-        <v>0.6</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="M13">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N13">
-        <v>10.9</v>
+        <v>10.3</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -4099,276 +4102,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8">
-        <v>-3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9">
-        <v>-7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10">
-        <v>-12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11">
-        <v>-26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12">
-        <v>-31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13">
-        <v>-32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4377,55 +4110,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4480,8 +4213,8 @@
       <c r="Q2">
         <v>53</v>
       </c>
-      <c r="R2" t="s">
-        <v>114</v>
+      <c r="R2">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4536,8 +4269,8 @@
       <c r="Q3">
         <v>22</v>
       </c>
-      <c r="R3" t="s">
-        <v>115</v>
+      <c r="R3">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4592,8 +4325,8 @@
       <c r="Q4">
         <v>17</v>
       </c>
-      <c r="R4" t="s">
-        <v>116</v>
+      <c r="R4">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4648,8 +4381,8 @@
       <c r="Q5">
         <v>16</v>
       </c>
-      <c r="R5" t="s">
-        <v>117</v>
+      <c r="R5">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4704,120 +4437,120 @@
       <c r="Q6">
         <v>4</v>
       </c>
-      <c r="R6" t="s">
-        <v>117</v>
+      <c r="R6">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>-13</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="H7">
+        <v>-9</v>
+      </c>
+      <c r="I7">
+        <v>-17</v>
+      </c>
+      <c r="J7">
+        <v>-8</v>
+      </c>
+      <c r="K7">
+        <v>-8</v>
+      </c>
+      <c r="L7">
+        <v>-15</v>
+      </c>
+      <c r="M7">
+        <v>-16</v>
+      </c>
+      <c r="N7">
+        <v>-10</v>
+      </c>
+      <c r="O7">
         <v>-3</v>
       </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>-3</v>
+      </c>
+      <c r="R7">
         <v>-2</v>
-      </c>
-      <c r="K7">
-        <v>-4</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>-3</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>-3</v>
-      </c>
-      <c r="Q7">
-        <v>-1</v>
-      </c>
-      <c r="R7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>-2</v>
+      </c>
+      <c r="K8">
+        <v>-4</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>-3</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>-3</v>
+      </c>
+      <c r="Q8">
         <v>-1</v>
       </c>
-      <c r="E8">
-        <v>-7</v>
-      </c>
-      <c r="F8">
-        <v>-13</v>
-      </c>
-      <c r="G8">
-        <v>-13</v>
-      </c>
-      <c r="H8">
-        <v>-9</v>
-      </c>
-      <c r="I8">
-        <v>-17</v>
-      </c>
-      <c r="J8">
-        <v>-8</v>
-      </c>
-      <c r="K8">
-        <v>-8</v>
-      </c>
-      <c r="L8">
-        <v>-15</v>
-      </c>
-      <c r="M8">
-        <v>-16</v>
-      </c>
-      <c r="N8">
-        <v>-10</v>
-      </c>
-      <c r="O8">
-        <v>-3</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <v>-3</v>
-      </c>
-      <c r="R8" t="s">
-        <v>119</v>
+      <c r="R8">
+        <v>-5</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4872,8 +4605,8 @@
       <c r="Q9">
         <v>-7</v>
       </c>
-      <c r="R9" t="s">
-        <v>119</v>
+      <c r="R9">
+        <v>-6</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4928,8 +4661,8 @@
       <c r="Q10">
         <v>-12</v>
       </c>
-      <c r="R10" t="s">
-        <v>120</v>
+      <c r="R10">
+        <v>-23</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4984,120 +4717,897 @@
       <c r="Q11">
         <v>-26</v>
       </c>
-      <c r="R11" t="s">
-        <v>121</v>
+      <c r="R11">
+        <v>-24</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>-1</v>
       </c>
-      <c r="C12">
-        <v>-10</v>
-      </c>
       <c r="D12">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E12">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="F12">
-        <v>-12</v>
+        <v>-24</v>
       </c>
       <c r="G12">
-        <v>-13</v>
+        <v>-31</v>
       </c>
       <c r="H12">
-        <v>-12</v>
+        <v>-32</v>
       </c>
       <c r="I12">
-        <v>-18</v>
+        <v>-23</v>
       </c>
       <c r="J12">
-        <v>-22</v>
+        <v>-32</v>
       </c>
       <c r="K12">
-        <v>-22</v>
+        <v>-35</v>
       </c>
       <c r="L12">
-        <v>-31</v>
+        <v>-39</v>
       </c>
       <c r="M12">
-        <v>-30</v>
+        <v>-39</v>
       </c>
       <c r="N12">
+        <v>-36</v>
+      </c>
+      <c r="O12">
+        <v>-35</v>
+      </c>
+      <c r="P12">
         <v>-29</v>
       </c>
-      <c r="O12">
-        <v>-29</v>
-      </c>
-      <c r="P12">
-        <v>-37</v>
-      </c>
       <c r="Q12">
-        <v>-31</v>
-      </c>
-      <c r="R12" t="s">
-        <v>114</v>
+        <v>-32</v>
+      </c>
+      <c r="R12">
+        <v>-28</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-10</v>
+      </c>
+      <c r="D13">
+        <v>-10</v>
+      </c>
+      <c r="E13">
+        <v>-15</v>
+      </c>
+      <c r="F13">
+        <v>-12</v>
+      </c>
+      <c r="G13">
+        <v>-13</v>
+      </c>
+      <c r="H13">
+        <v>-12</v>
+      </c>
+      <c r="I13">
+        <v>-18</v>
+      </c>
+      <c r="J13">
+        <v>-22</v>
+      </c>
+      <c r="K13">
+        <v>-22</v>
+      </c>
+      <c r="L13">
+        <v>-31</v>
+      </c>
+      <c r="M13">
+        <v>-30</v>
+      </c>
+      <c r="N13">
+        <v>-29</v>
+      </c>
+      <c r="O13">
+        <v>-29</v>
+      </c>
+      <c r="P13">
+        <v>-37</v>
+      </c>
+      <c r="Q13">
+        <v>-31</v>
+      </c>
+      <c r="R13">
+        <v>-40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>37</v>
+      </c>
+      <c r="L2">
+        <v>40</v>
+      </c>
+      <c r="M2">
+        <v>47</v>
+      </c>
+      <c r="N2">
+        <v>46</v>
+      </c>
+      <c r="O2">
+        <v>44</v>
+      </c>
+      <c r="P2">
+        <v>47</v>
+      </c>
+      <c r="Q2">
+        <v>53</v>
+      </c>
+      <c r="R2">
+        <v>64</v>
+      </c>
+      <c r="S2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>26</v>
+      </c>
+      <c r="N3">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>24</v>
+      </c>
+      <c r="P3">
+        <v>25</v>
+      </c>
+      <c r="Q3">
+        <v>22</v>
+      </c>
+      <c r="R3">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>-4</v>
+      </c>
+      <c r="I4">
+        <v>-7</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>16</v>
+      </c>
+      <c r="S4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
         <v>11</v>
       </c>
+      <c r="N5">
+        <v>17</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>14</v>
+      </c>
+      <c r="S5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-6</v>
+      </c>
+      <c r="E6">
+        <v>-11</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6">
+        <v>-3</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>-7</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>13</v>
+      </c>
+      <c r="S6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-7</v>
+      </c>
+      <c r="F7">
+        <v>-13</v>
+      </c>
+      <c r="G7">
+        <v>-13</v>
+      </c>
+      <c r="H7">
+        <v>-9</v>
+      </c>
+      <c r="I7">
+        <v>-17</v>
+      </c>
+      <c r="J7">
+        <v>-8</v>
+      </c>
+      <c r="K7">
+        <v>-8</v>
+      </c>
+      <c r="L7">
+        <v>-15</v>
+      </c>
+      <c r="M7">
+        <v>-16</v>
+      </c>
+      <c r="N7">
+        <v>-10</v>
+      </c>
+      <c r="O7">
+        <v>-3</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>-3</v>
+      </c>
+      <c r="R7">
+        <v>-2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>-2</v>
+      </c>
+      <c r="K8">
+        <v>-4</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>-3</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>-3</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+      <c r="R8">
+        <v>-5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-7</v>
+      </c>
+      <c r="D9">
+        <v>-6</v>
+      </c>
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9">
+        <v>-3</v>
+      </c>
+      <c r="G9">
+        <v>-5</v>
+      </c>
+      <c r="H9">
+        <v>-10</v>
+      </c>
+      <c r="I9">
+        <v>-3</v>
+      </c>
+      <c r="J9">
+        <v>-5</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>-5</v>
+      </c>
+      <c r="O9">
+        <v>-2</v>
+      </c>
+      <c r="P9">
+        <v>-2</v>
+      </c>
+      <c r="Q9">
+        <v>-7</v>
+      </c>
+      <c r="R9">
+        <v>-6</v>
+      </c>
+      <c r="S9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>-2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>-4</v>
+      </c>
+      <c r="H10">
+        <v>-2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>-5</v>
+      </c>
+      <c r="K10">
+        <v>-6</v>
+      </c>
+      <c r="L10">
+        <v>-5</v>
+      </c>
+      <c r="M10">
+        <v>-11</v>
+      </c>
+      <c r="N10">
+        <v>-3</v>
+      </c>
+      <c r="O10">
+        <v>-2</v>
+      </c>
+      <c r="P10">
+        <v>-4</v>
+      </c>
+      <c r="Q10">
+        <v>-12</v>
+      </c>
+      <c r="R10">
+        <v>-23</v>
+      </c>
+      <c r="S10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <v>-2</v>
+      </c>
+      <c r="D11">
+        <v>-4</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>-3</v>
+      </c>
+      <c r="O11">
+        <v>-14</v>
+      </c>
+      <c r="P11">
+        <v>-20</v>
+      </c>
+      <c r="Q11">
+        <v>-26</v>
+      </c>
+      <c r="R11">
+        <v>-24</v>
+      </c>
+      <c r="S11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>-9</v>
+      </c>
+      <c r="E12">
+        <v>-17</v>
+      </c>
+      <c r="F12">
+        <v>-24</v>
+      </c>
+      <c r="G12">
+        <v>-31</v>
+      </c>
+      <c r="H12">
+        <v>-32</v>
+      </c>
+      <c r="I12">
+        <v>-23</v>
+      </c>
+      <c r="J12">
+        <v>-32</v>
+      </c>
+      <c r="K12">
+        <v>-35</v>
+      </c>
+      <c r="L12">
+        <v>-39</v>
+      </c>
+      <c r="M12">
+        <v>-39</v>
+      </c>
+      <c r="N12">
+        <v>-36</v>
+      </c>
+      <c r="O12">
+        <v>-35</v>
+      </c>
+      <c r="P12">
+        <v>-29</v>
+      </c>
+      <c r="Q12">
+        <v>-32</v>
+      </c>
+      <c r="R12">
+        <v>-28</v>
+      </c>
+      <c r="S12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="D13">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="E13">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="F13">
-        <v>-24</v>
+        <v>-12</v>
       </c>
       <c r="G13">
+        <v>-13</v>
+      </c>
+      <c r="H13">
+        <v>-12</v>
+      </c>
+      <c r="I13">
+        <v>-18</v>
+      </c>
+      <c r="J13">
+        <v>-22</v>
+      </c>
+      <c r="K13">
+        <v>-22</v>
+      </c>
+      <c r="L13">
         <v>-31</v>
       </c>
-      <c r="H13">
-        <v>-32</v>
-      </c>
-      <c r="I13">
-        <v>-23</v>
-      </c>
-      <c r="J13">
-        <v>-32</v>
-      </c>
-      <c r="K13">
-        <v>-35</v>
-      </c>
-      <c r="L13">
-        <v>-39</v>
-      </c>
       <c r="M13">
-        <v>-39</v>
+        <v>-30</v>
       </c>
       <c r="N13">
-        <v>-36</v>
+        <v>-29</v>
       </c>
       <c r="O13">
-        <v>-35</v>
+        <v>-29</v>
       </c>
       <c r="P13">
-        <v>-29</v>
+        <v>-37</v>
       </c>
       <c r="Q13">
-        <v>-32</v>
-      </c>
-      <c r="R13" t="s">
-        <v>115</v>
+        <v>-31</v>
+      </c>
+      <c r="R13">
+        <v>-40</v>
+      </c>
+      <c r="S13" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/OnP Fantasy 2025.xlsx
+++ b/leagues/OnP Fantasy 2025.xlsx
@@ -10,16 +10,20 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
-    <sheet name="LPI By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Biggest Upsets" sheetId="6" r:id="rId6"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="148">
   <si>
     <t>The Bill Croskey Show</t>
   </si>
@@ -117,6 +121,243 @@
     <t>Difference</t>
   </si>
   <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Julia Childres</t>
+  </si>
+  <si>
+    <t>Clayton Kavanaugh</t>
+  </si>
+  <si>
+    <t>Alex Keene</t>
+  </si>
+  <si>
+    <t>Felipe Gutierrez</t>
+  </si>
+  <si>
+    <t>Mason Dennis</t>
+  </si>
+  <si>
+    <t>Kyle Bradburry</t>
+  </si>
+  <si>
+    <t>David O'Kane</t>
+  </si>
+  <si>
+    <t>Matthew Stansbury</t>
+  </si>
+  <si>
+    <t>Zack Gray</t>
+  </si>
+  <si>
+    <t>Patrick Fennell</t>
+  </si>
+  <si>
+    <t>Lisa Jackson</t>
+  </si>
+  <si>
+    <t>Colman Betler</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>11.0-3.0</t>
+  </si>
+  <si>
+    <t>2.0-12.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -124,42 +365,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Julia Childres</t>
-  </si>
-  <si>
-    <t>Matthew Stansbury</t>
-  </si>
-  <si>
-    <t>Kyle Bradburry</t>
-  </si>
-  <si>
-    <t>Alex Keene</t>
-  </si>
-  <si>
-    <t>Zack Gray</t>
-  </si>
-  <si>
-    <t>Mason Dennis</t>
-  </si>
-  <si>
-    <t>Patrick Fennell</t>
-  </si>
-  <si>
-    <t>Felipe Gutierrez</t>
-  </si>
-  <si>
-    <t>Lisa Jackson</t>
-  </si>
-  <si>
-    <t>Clayton Kavanaugh</t>
-  </si>
-  <si>
-    <t>Colman Betler</t>
-  </si>
-  <si>
-    <t>David O'Kane</t>
   </si>
   <si>
     <t>↑11</t>
@@ -1160,6 +1365,302 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>-39</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>-39</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>-29</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>-31</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>-30</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>-3</v>
+      </c>
+      <c r="G8">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
+        <v>-32</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>-2</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>-11</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
@@ -1585,6 +2086,2028 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>68.10000000000001</v>
+      </c>
+      <c r="C2">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="D2">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="E2">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="F2">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G2">
+        <v>99</v>
+      </c>
+      <c r="H2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I2">
+        <v>99.8</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>34.2</v>
+      </c>
+      <c r="F3">
+        <v>47.7</v>
+      </c>
+      <c r="G3">
+        <v>71.89999999999999</v>
+      </c>
+      <c r="H3">
+        <v>51.1</v>
+      </c>
+      <c r="I3">
+        <v>70.3</v>
+      </c>
+      <c r="J3">
+        <v>68.30000000000001</v>
+      </c>
+      <c r="K3">
+        <v>89</v>
+      </c>
+      <c r="L3">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="M3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>64.3</v>
+      </c>
+      <c r="C4">
+        <v>26.3</v>
+      </c>
+      <c r="D4">
+        <v>10.7</v>
+      </c>
+      <c r="E4">
+        <v>22.3</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>31.5</v>
+      </c>
+      <c r="H4">
+        <v>51.8</v>
+      </c>
+      <c r="I4">
+        <v>31.3</v>
+      </c>
+      <c r="J4">
+        <v>61.4</v>
+      </c>
+      <c r="K4">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L4">
+        <v>89.5</v>
+      </c>
+      <c r="M4">
+        <v>68.89999999999999</v>
+      </c>
+      <c r="N4">
+        <v>59.5</v>
+      </c>
+      <c r="O4">
+        <v>60.8</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>96.8</v>
+      </c>
+      <c r="E5">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F5">
+        <v>74.7</v>
+      </c>
+      <c r="G5">
+        <v>57.3</v>
+      </c>
+      <c r="H5">
+        <v>49</v>
+      </c>
+      <c r="I5">
+        <v>60.2</v>
+      </c>
+      <c r="J5">
+        <v>59.3</v>
+      </c>
+      <c r="K5">
+        <v>67.30000000000001</v>
+      </c>
+      <c r="L5">
+        <v>54.6</v>
+      </c>
+      <c r="M5">
+        <v>70</v>
+      </c>
+      <c r="N5">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="O5">
+        <v>78.5</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>36.9</v>
+      </c>
+      <c r="C6">
+        <v>83.3</v>
+      </c>
+      <c r="D6">
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <v>29.7</v>
+      </c>
+      <c r="F6">
+        <v>45.2</v>
+      </c>
+      <c r="G6">
+        <v>71.5</v>
+      </c>
+      <c r="H6">
+        <v>84.3</v>
+      </c>
+      <c r="I6">
+        <v>96.3</v>
+      </c>
+      <c r="J6">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="K6">
+        <v>95.7</v>
+      </c>
+      <c r="L6">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="M6">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="N6">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>93.10000000000001</v>
+      </c>
+      <c r="C7">
+        <v>98.5</v>
+      </c>
+      <c r="D7">
+        <v>98.7</v>
+      </c>
+      <c r="E7">
+        <v>98.8</v>
+      </c>
+      <c r="F7">
+        <v>98.2</v>
+      </c>
+      <c r="G7">
+        <v>94.8</v>
+      </c>
+      <c r="H7">
+        <v>97</v>
+      </c>
+      <c r="I7">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J7">
+        <v>97.7</v>
+      </c>
+      <c r="K7">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>36.9</v>
+      </c>
+      <c r="C8">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="D8">
+        <v>2.1</v>
+      </c>
+      <c r="E8">
+        <v>30.1</v>
+      </c>
+      <c r="F8">
+        <v>14.7</v>
+      </c>
+      <c r="G8">
+        <v>8.5</v>
+      </c>
+      <c r="H8">
+        <v>3.5</v>
+      </c>
+      <c r="I8">
+        <v>1.9</v>
+      </c>
+      <c r="J8">
+        <v>0.3</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>86.5</v>
+      </c>
+      <c r="C9">
+        <v>70.39999999999999</v>
+      </c>
+      <c r="D9">
+        <v>84.89999999999999</v>
+      </c>
+      <c r="E9">
+        <v>96</v>
+      </c>
+      <c r="F9">
+        <v>99.2</v>
+      </c>
+      <c r="G9">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="H9">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="I9">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="J9">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="K9">
+        <v>54.2</v>
+      </c>
+      <c r="L9">
+        <v>47.7</v>
+      </c>
+      <c r="M9">
+        <v>57.7</v>
+      </c>
+      <c r="N9">
+        <v>36.4</v>
+      </c>
+      <c r="O9">
+        <v>60.7</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>5.899999999999999</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>60.9</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>54.1</v>
+      </c>
+      <c r="G10">
+        <v>25.5</v>
+      </c>
+      <c r="H10">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>16.3</v>
+      </c>
+      <c r="J10">
+        <v>34.3</v>
+      </c>
+      <c r="K10">
+        <v>17.2</v>
+      </c>
+      <c r="L10">
+        <v>6.3</v>
+      </c>
+      <c r="M10">
+        <v>0.3</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>7.1</v>
+      </c>
+      <c r="E11">
+        <v>3.4</v>
+      </c>
+      <c r="F11">
+        <v>4.5</v>
+      </c>
+      <c r="G11">
+        <v>7.6</v>
+      </c>
+      <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>7.1</v>
+      </c>
+      <c r="J11">
+        <v>0.8</v>
+      </c>
+      <c r="K11">
+        <v>0.2</v>
+      </c>
+      <c r="L11">
+        <v>0.3</v>
+      </c>
+      <c r="M11">
+        <v>0.1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1.2</v>
+      </c>
+      <c r="C12">
+        <v>34.1</v>
+      </c>
+      <c r="D12">
+        <v>32.1</v>
+      </c>
+      <c r="E12">
+        <v>46.8</v>
+      </c>
+      <c r="F12">
+        <v>54.8</v>
+      </c>
+      <c r="G12">
+        <v>32.3</v>
+      </c>
+      <c r="H12">
+        <v>23.1</v>
+      </c>
+      <c r="I12">
+        <v>15.8</v>
+      </c>
+      <c r="J12">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>3.9</v>
+      </c>
+      <c r="L12">
+        <v>1.4</v>
+      </c>
+      <c r="M12">
+        <v>3.3</v>
+      </c>
+      <c r="N12">
+        <v>14.7</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>96.7</v>
+      </c>
+      <c r="C13">
+        <v>67.80000000000001</v>
+      </c>
+      <c r="D13">
+        <v>28.3</v>
+      </c>
+      <c r="E13">
+        <v>10.7</v>
+      </c>
+      <c r="F13">
+        <v>1.8</v>
+      </c>
+      <c r="G13">
+        <v>6.7</v>
+      </c>
+      <c r="H13">
+        <v>3.9</v>
+      </c>
+      <c r="I13">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>3.4</v>
+      </c>
+      <c r="K13">
+        <v>1.8</v>
+      </c>
+      <c r="L13">
+        <v>4.5</v>
+      </c>
+      <c r="M13">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="N13">
+        <v>9.700000000000001</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>133.92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4">
+        <v>124.09</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>114.21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>108.51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>109.74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8">
+        <v>98.81999999999999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>123.42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>118.15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <v>112.09</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>101.92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>100.41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D2">
+        <v>133.9171428571429</v>
+      </c>
+      <c r="E2">
+        <v>1874.84</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D3">
+        <v>124.0942857142857</v>
+      </c>
+      <c r="E3">
+        <v>1737.32</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D4">
+        <v>108.5142857142857</v>
+      </c>
+      <c r="E4">
+        <v>1519.2</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>123.4228571428571</v>
+      </c>
+      <c r="E5">
+        <v>1727.92</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D6">
+        <v>118.1471428571429</v>
+      </c>
+      <c r="E6">
+        <v>1654.06</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D7">
+        <v>112.0942857142857</v>
+      </c>
+      <c r="E7">
+        <v>1569.32</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D8">
+        <v>96.89857142857143</v>
+      </c>
+      <c r="E8">
+        <v>1356.58</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>114.2114285714286</v>
+      </c>
+      <c r="E9">
+        <v>1598.96</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="D10">
+        <v>109.7385714285714</v>
+      </c>
+      <c r="E10">
+        <v>1536.34</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D11">
+        <v>98.81857142857143</v>
+      </c>
+      <c r="E11">
+        <v>1383.46</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D12">
+        <v>101.9171428571428</v>
+      </c>
+      <c r="E12">
+        <v>1426.84</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D13">
+        <v>100.4114285714286</v>
+      </c>
+      <c r="E13">
+        <v>1405.76</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1596,16 +4119,16 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1616,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>64</v>
@@ -1625,7 +4148,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1636,7 +4159,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -1645,7 +4168,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1656,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -1665,7 +4188,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1676,7 +4199,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -1685,7 +4208,7 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1696,7 +4219,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>13</v>
@@ -1705,7 +4228,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1716,7 +4239,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>-2</v>
@@ -1725,7 +4248,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1736,7 +4259,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>-5</v>
@@ -1745,7 +4268,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1756,7 +4279,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>-6</v>
@@ -1765,7 +4288,7 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1776,7 +4299,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>-23</v>
@@ -1785,7 +4308,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1796,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>-24</v>
@@ -1805,7 +4328,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1816,7 +4339,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>-28</v>
@@ -1825,7 +4348,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1836,7 +4359,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>-40</v>
@@ -1845,7 +4368,7 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +4376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -1863,58 +4386,58 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1973,7 +4496,7 @@
         <v>64</v>
       </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2032,7 +4555,7 @@
         <v>21</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2091,7 +4614,7 @@
         <v>16</v>
       </c>
       <c r="S4" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2150,7 +4673,7 @@
         <v>14</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2209,7 +4732,7 @@
         <v>13</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2268,7 +4791,7 @@
         <v>-2</v>
       </c>
       <c r="S7" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2327,7 +4850,7 @@
         <v>-5</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2386,7 +4909,7 @@
         <v>-6</v>
       </c>
       <c r="S9" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2445,7 +4968,7 @@
         <v>-23</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2504,7 +5027,7 @@
         <v>-24</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2563,7 +5086,7 @@
         <v>-28</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2622,303 +5145,7 @@
         <v>-40</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>-39</v>
-      </c>
-      <c r="G2">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>-39</v>
-      </c>
-      <c r="G3">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>44</v>
-      </c>
-      <c r="G4">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>-29</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>-31</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>-30</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>24</v>
-      </c>
-      <c r="F8">
-        <v>-3</v>
-      </c>
-      <c r="G8">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>-7</v>
-      </c>
-      <c r="F9">
-        <v>-32</v>
-      </c>
-      <c r="G9">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>-2</v>
-      </c>
-      <c r="F10">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>-11</v>
-      </c>
-      <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
